--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['10', '33', '36']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -562,9 +571,6 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['82']</t>
   </si>
   <si>
@@ -575,6 +581,12 @@
   </si>
   <si>
     <t>['34', '45+4', '88']</t>
+  </si>
+  <si>
+    <t>['34', '45', '73', '84']</t>
+  </si>
+  <si>
+    <t>['6', '19', '34', '73']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1458,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
         <v>1.2</v>
@@ -1652,7 +1664,7 @@
         <v>0.91</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1843,7 +1855,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2031,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT6">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2222,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2517,7 +2529,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2899,7 +2911,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3090,7 +3102,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3180,7 +3192,7 @@
         <v>0.9</v>
       </c>
       <c r="AT12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3281,7 +3293,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3368,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
         <v>2.45</v>
@@ -3472,7 +3484,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3559,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT14">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3663,7 +3675,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3941,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4045,7 +4057,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4132,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>0.9</v>
@@ -4326,7 +4338,7 @@
         <v>0.91</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU18">
         <v>1.89</v>
@@ -4514,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4618,7 +4630,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5000,7 +5012,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5090,7 +5102,7 @@
         <v>0.73</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5191,7 +5203,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5278,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT23">
         <v>2.45</v>
@@ -5660,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT25">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5764,7 +5776,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5851,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -5955,7 +5967,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6146,7 +6158,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6236,7 +6248,7 @@
         <v>2.6</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU28">
         <v>1.84</v>
@@ -6337,7 +6349,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6424,7 +6436,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT29">
         <v>1.2</v>
@@ -6615,10 +6627,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -7000,7 +7012,7 @@
         <v>0.91</v>
       </c>
       <c r="AT32">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7191,7 +7203,7 @@
         <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7292,7 +7304,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7379,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT34">
         <v>2.18</v>
@@ -7483,7 +7495,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7570,7 +7582,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>2.45</v>
@@ -7865,7 +7877,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8056,7 +8068,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8143,10 +8155,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8334,7 +8346,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT39">
         <v>1.2</v>
@@ -8438,7 +8450,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8528,7 +8540,7 @@
         <v>0.91</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8629,7 +8641,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8716,10 +8728,10 @@
         <v>0.6</v>
       </c>
       <c r="AS41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8820,7 +8832,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8910,7 +8922,7 @@
         <v>0.73</v>
       </c>
       <c r="AT42">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -9011,7 +9023,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9098,7 +9110,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT43">
         <v>1.8</v>
@@ -9202,7 +9214,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9393,7 +9405,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9480,10 +9492,10 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9674,7 +9686,7 @@
         <v>0.9</v>
       </c>
       <c r="AT46">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU46">
         <v>1.59</v>
@@ -9775,7 +9787,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9862,7 +9874,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT47">
         <v>2.18</v>
@@ -9966,7 +9978,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10053,7 +10065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT48">
         <v>2.45</v>
@@ -10247,7 +10259,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10348,7 +10360,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10539,7 +10551,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10629,7 +10641,7 @@
         <v>0.73</v>
       </c>
       <c r="AT51">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10730,7 +10742,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10817,10 +10829,10 @@
         <v>0.75</v>
       </c>
       <c r="AS52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT52">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -10921,7 +10933,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11008,7 +11020,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11112,7 +11124,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11202,7 +11214,7 @@
         <v>0.9</v>
       </c>
       <c r="AT54">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11303,7 +11315,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11390,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT55">
         <v>0.9</v>
@@ -11494,7 +11506,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11581,10 +11593,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU56">
         <v>1.42</v>
@@ -11685,7 +11697,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12067,7 +12079,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12154,7 +12166,7 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT59">
         <v>2.45</v>
@@ -12348,7 +12360,7 @@
         <v>0.9</v>
       </c>
       <c r="AT60">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12449,7 +12461,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12640,7 +12652,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12831,7 +12843,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12918,7 +12930,7 @@
         <v>2.57</v>
       </c>
       <c r="AS63">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT63">
         <v>2.18</v>
@@ -13022,7 +13034,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13109,10 +13121,10 @@
         <v>2.29</v>
       </c>
       <c r="AS64">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.22</v>
@@ -13303,7 +13315,7 @@
         <v>0.91</v>
       </c>
       <c r="AT65">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13595,7 +13607,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13786,7 +13798,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13873,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
         <v>0.9</v>
@@ -14064,10 +14076,10 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14258,7 +14270,7 @@
         <v>0.91</v>
       </c>
       <c r="AT70">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -14446,7 +14458,7 @@
         <v>2.17</v>
       </c>
       <c r="AS71">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT71">
         <v>1.8</v>
@@ -14637,7 +14649,7 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>2.18</v>
@@ -14741,7 +14753,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14932,7 +14944,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15022,7 +15034,7 @@
         <v>0.91</v>
       </c>
       <c r="AT74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU74">
         <v>1.18</v>
@@ -15123,7 +15135,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15213,7 +15225,7 @@
         <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -15314,7 +15326,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15401,10 +15413,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU76">
         <v>1.6</v>
@@ -15592,10 +15604,10 @@
         <v>2.17</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -15783,10 +15795,10 @@
         <v>0.71</v>
       </c>
       <c r="AS78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT78">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU78">
         <v>1.15</v>
@@ -15974,10 +15986,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU79">
         <v>1.32</v>
@@ -16165,10 +16177,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>2.11</v>
@@ -16269,7 +16281,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16547,7 +16559,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT82">
         <v>1.8</v>
@@ -16651,7 +16663,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16741,7 +16753,7 @@
         <v>0.73</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -16842,7 +16854,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17311,10 +17323,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -17415,7 +17427,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17502,10 +17514,10 @@
         <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>1.19</v>
@@ -17797,7 +17809,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17884,10 +17896,10 @@
         <v>0.63</v>
       </c>
       <c r="AS89">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT89">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU89">
         <v>1.38</v>
@@ -18179,7 +18191,7 @@
         <v>127</v>
       </c>
       <c r="P91" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18269,7 +18281,7 @@
         <v>0.91</v>
       </c>
       <c r="AT91">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU91">
         <v>1.09</v>
@@ -18370,7 +18382,7 @@
         <v>128</v>
       </c>
       <c r="P92" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18651,7 +18663,7 @@
         <v>2.6</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -18752,7 +18764,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18839,7 +18851,7 @@
         <v>2.1</v>
       </c>
       <c r="AS94">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT94">
         <v>2.18</v>
@@ -19030,7 +19042,7 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>0.9</v>
@@ -19325,7 +19337,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19415,7 +19427,7 @@
         <v>0.9</v>
       </c>
       <c r="AT97">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19516,7 +19528,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19603,7 +19615,7 @@
         <v>1.67</v>
       </c>
       <c r="AS98">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT98">
         <v>1.8</v>
@@ -20039,6 +20051,961 @@
         <v>13</v>
       </c>
       <c r="BK100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5139357</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>135</v>
+      </c>
+      <c r="P101" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>2.88</v>
+      </c>
+      <c r="U101">
+        <v>2.2</v>
+      </c>
+      <c r="V101">
+        <v>3.4</v>
+      </c>
+      <c r="W101">
+        <v>1.36</v>
+      </c>
+      <c r="X101">
+        <v>2.88</v>
+      </c>
+      <c r="Y101">
+        <v>2.88</v>
+      </c>
+      <c r="Z101">
+        <v>1.36</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>1.07</v>
+      </c>
+      <c r="AC101">
+        <v>2.22</v>
+      </c>
+      <c r="AD101">
+        <v>3.3</v>
+      </c>
+      <c r="AE101">
+        <v>2.85</v>
+      </c>
+      <c r="AF101">
+        <v>1.03</v>
+      </c>
+      <c r="AG101">
+        <v>10</v>
+      </c>
+      <c r="AH101">
+        <v>1.29</v>
+      </c>
+      <c r="AI101">
+        <v>3.25</v>
+      </c>
+      <c r="AJ101">
+        <v>1.82</v>
+      </c>
+      <c r="AK101">
+        <v>1.89</v>
+      </c>
+      <c r="AL101">
+        <v>1.73</v>
+      </c>
+      <c r="AM101">
+        <v>2.05</v>
+      </c>
+      <c r="AN101">
+        <v>1.33</v>
+      </c>
+      <c r="AO101">
+        <v>1.25</v>
+      </c>
+      <c r="AP101">
+        <v>1.55</v>
+      </c>
+      <c r="AQ101">
+        <v>0.44</v>
+      </c>
+      <c r="AR101">
+        <v>2.11</v>
+      </c>
+      <c r="AS101">
+        <v>0.5</v>
+      </c>
+      <c r="AT101">
+        <v>2</v>
+      </c>
+      <c r="AU101">
+        <v>1.48</v>
+      </c>
+      <c r="AV101">
+        <v>1.31</v>
+      </c>
+      <c r="AW101">
+        <v>2.79</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>0</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>8</v>
+      </c>
+      <c r="BG101">
+        <v>4</v>
+      </c>
+      <c r="BH101">
+        <v>8</v>
+      </c>
+      <c r="BI101">
+        <v>4</v>
+      </c>
+      <c r="BJ101">
+        <v>16</v>
+      </c>
+      <c r="BK101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5139358</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45129.5625</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>136</v>
+      </c>
+      <c r="P102" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>8</v>
+      </c>
+      <c r="T102">
+        <v>1.8</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>7.5</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+      <c r="X102">
+        <v>3.2</v>
+      </c>
+      <c r="Y102">
+        <v>2.62</v>
+      </c>
+      <c r="Z102">
+        <v>1.44</v>
+      </c>
+      <c r="AA102">
+        <v>6</v>
+      </c>
+      <c r="AB102">
+        <v>1.1</v>
+      </c>
+      <c r="AC102">
+        <v>1.34</v>
+      </c>
+      <c r="AD102">
+        <v>4.6</v>
+      </c>
+      <c r="AE102">
+        <v>7.4</v>
+      </c>
+      <c r="AF102">
+        <v>1.02</v>
+      </c>
+      <c r="AG102">
+        <v>13</v>
+      </c>
+      <c r="AH102">
+        <v>1.2</v>
+      </c>
+      <c r="AI102">
+        <v>4</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>2.07</v>
+      </c>
+      <c r="AL102">
+        <v>1.91</v>
+      </c>
+      <c r="AM102">
+        <v>1.85</v>
+      </c>
+      <c r="AN102">
+        <v>1.06</v>
+      </c>
+      <c r="AO102">
+        <v>1.14</v>
+      </c>
+      <c r="AP102">
+        <v>2.88</v>
+      </c>
+      <c r="AQ102">
+        <v>1.2</v>
+      </c>
+      <c r="AR102">
+        <v>0.67</v>
+      </c>
+      <c r="AS102">
+        <v>1.36</v>
+      </c>
+      <c r="AT102">
+        <v>0.6</v>
+      </c>
+      <c r="AU102">
+        <v>1.53</v>
+      </c>
+      <c r="AV102">
+        <v>1.09</v>
+      </c>
+      <c r="AW102">
+        <v>2.62</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>0</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>6</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>7</v>
+      </c>
+      <c r="BI102">
+        <v>3</v>
+      </c>
+      <c r="BJ102">
+        <v>13</v>
+      </c>
+      <c r="BK102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5139359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>69</v>
+      </c>
+      <c r="H103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>10</v>
+      </c>
+      <c r="S103">
+        <v>13</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>2.2</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.32</v>
+      </c>
+      <c r="X103">
+        <v>3.1</v>
+      </c>
+      <c r="Y103">
+        <v>2.47</v>
+      </c>
+      <c r="Z103">
+        <v>1.48</v>
+      </c>
+      <c r="AA103">
+        <v>5.9</v>
+      </c>
+      <c r="AB103">
+        <v>1.1</v>
+      </c>
+      <c r="AC103">
+        <v>3.15</v>
+      </c>
+      <c r="AD103">
+        <v>3.45</v>
+      </c>
+      <c r="AE103">
+        <v>2.04</v>
+      </c>
+      <c r="AF103">
+        <v>1.03</v>
+      </c>
+      <c r="AG103">
+        <v>14</v>
+      </c>
+      <c r="AH103">
+        <v>1.22</v>
+      </c>
+      <c r="AI103">
+        <v>4</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.75</v>
+      </c>
+      <c r="AL103">
+        <v>1.65</v>
+      </c>
+      <c r="AM103">
+        <v>2.18</v>
+      </c>
+      <c r="AN103">
+        <v>1.73</v>
+      </c>
+      <c r="AO103">
+        <v>1.22</v>
+      </c>
+      <c r="AP103">
+        <v>1.25</v>
+      </c>
+      <c r="AQ103">
+        <v>0.78</v>
+      </c>
+      <c r="AR103">
+        <v>1.33</v>
+      </c>
+      <c r="AS103">
+        <v>0.7</v>
+      </c>
+      <c r="AT103">
+        <v>1.5</v>
+      </c>
+      <c r="AU103">
+        <v>1.59</v>
+      </c>
+      <c r="AV103">
+        <v>1.62</v>
+      </c>
+      <c r="AW103">
+        <v>3.21</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>0</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>0</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>6</v>
+      </c>
+      <c r="BG103">
+        <v>8</v>
+      </c>
+      <c r="BH103">
+        <v>1</v>
+      </c>
+      <c r="BI103">
+        <v>9</v>
+      </c>
+      <c r="BJ103">
+        <v>7</v>
+      </c>
+      <c r="BK103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>5139360</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45130.5</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>76</v>
+      </c>
+      <c r="P104" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>20</v>
+      </c>
+      <c r="S104">
+        <v>22</v>
+      </c>
+      <c r="T104">
+        <v>7.5</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
+        <v>1.73</v>
+      </c>
+      <c r="W104">
+        <v>1.29</v>
+      </c>
+      <c r="X104">
+        <v>3.3</v>
+      </c>
+      <c r="Y104">
+        <v>2.38</v>
+      </c>
+      <c r="Z104">
+        <v>1.51</v>
+      </c>
+      <c r="AA104">
+        <v>5.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>6.45</v>
+      </c>
+      <c r="AD104">
+        <v>5.2</v>
+      </c>
+      <c r="AE104">
+        <v>1.32</v>
+      </c>
+      <c r="AF104">
+        <v>1.03</v>
+      </c>
+      <c r="AG104">
+        <v>16.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.2</v>
+      </c>
+      <c r="AI104">
+        <v>4.2</v>
+      </c>
+      <c r="AJ104">
+        <v>1.69</v>
+      </c>
+      <c r="AK104">
+        <v>2.04</v>
+      </c>
+      <c r="AL104">
+        <v>1.95</v>
+      </c>
+      <c r="AM104">
+        <v>1.81</v>
+      </c>
+      <c r="AN104">
+        <v>2.65</v>
+      </c>
+      <c r="AO104">
+        <v>1.15</v>
+      </c>
+      <c r="AP104">
+        <v>1.1</v>
+      </c>
+      <c r="AQ104">
+        <v>0.78</v>
+      </c>
+      <c r="AR104">
+        <v>2.1</v>
+      </c>
+      <c r="AS104">
+        <v>0.8</v>
+      </c>
+      <c r="AT104">
+        <v>2</v>
+      </c>
+      <c r="AU104">
+        <v>1.3</v>
+      </c>
+      <c r="AV104">
+        <v>1.93</v>
+      </c>
+      <c r="AW104">
+        <v>3.23</v>
+      </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
+      <c r="BB104">
+        <v>0</v>
+      </c>
+      <c r="BC104">
+        <v>0</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>7</v>
+      </c>
+      <c r="BH104">
+        <v>5</v>
+      </c>
+      <c r="BI104">
+        <v>11</v>
+      </c>
+      <c r="BJ104">
+        <v>8</v>
+      </c>
+      <c r="BK104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>5139356</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45130.58333333334</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105" t="s">
+        <v>137</v>
+      </c>
+      <c r="P105" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q105">
+        <v>11</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>13</v>
+      </c>
+      <c r="T105">
+        <v>1.62</v>
+      </c>
+      <c r="U105">
+        <v>2.63</v>
+      </c>
+      <c r="V105">
+        <v>10</v>
+      </c>
+      <c r="W105">
+        <v>1.25</v>
+      </c>
+      <c r="X105">
+        <v>3.5</v>
+      </c>
+      <c r="Y105">
+        <v>2.38</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>6</v>
+      </c>
+      <c r="AB105">
+        <v>1.11</v>
+      </c>
+      <c r="AC105">
+        <v>1.19</v>
+      </c>
+      <c r="AD105">
+        <v>6.4</v>
+      </c>
+      <c r="AE105">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AF105">
+        <v>1.01</v>
+      </c>
+      <c r="AG105">
+        <v>17</v>
+      </c>
+      <c r="AH105">
+        <v>1.17</v>
+      </c>
+      <c r="AI105">
+        <v>4.5</v>
+      </c>
+      <c r="AJ105">
+        <v>1.53</v>
+      </c>
+      <c r="AK105">
+        <v>2.34</v>
+      </c>
+      <c r="AL105">
+        <v>2.75</v>
+      </c>
+      <c r="AM105">
+        <v>1.43</v>
+      </c>
+      <c r="AN105">
+        <v>1.04</v>
+      </c>
+      <c r="AO105">
+        <v>1.07</v>
+      </c>
+      <c r="AP105">
+        <v>3.8</v>
+      </c>
+      <c r="AQ105">
+        <v>2.22</v>
+      </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
+      <c r="AS105">
+        <v>2</v>
+      </c>
+      <c r="AT105">
+        <v>1.18</v>
+      </c>
+      <c r="AU105">
+        <v>2.17</v>
+      </c>
+      <c r="AV105">
+        <v>1.44</v>
+      </c>
+      <c r="AW105">
+        <v>3.61</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>0</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>7</v>
+      </c>
+      <c r="BG105">
+        <v>2</v>
+      </c>
+      <c r="BH105">
+        <v>7</v>
+      </c>
+      <c r="BI105">
+        <v>3</v>
+      </c>
+      <c r="BJ105">
+        <v>14</v>
+      </c>
+      <c r="BK105">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -20991,22 +20991,22 @@
         <v>0</v>
       </c>
       <c r="BF105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH105">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI105">
         <v>3</v>
       </c>
       <c r="BJ105">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BK105">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['9', '54', '82']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -587,6 +590,9 @@
   </si>
   <si>
     <t>['6', '19', '34', '73']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT2">
         <v>0.6</v>
@@ -1855,7 +1861,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT6">
         <v>0.6</v>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT7">
         <v>1.18</v>
@@ -2428,7 +2434,7 @@
         <v>2.6</v>
       </c>
       <c r="AT8">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2529,7 +2535,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2911,7 +2917,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3102,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3293,7 +3299,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3484,7 +3490,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3571,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3675,7 +3681,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4057,7 +4063,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4144,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT17">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4630,7 +4636,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5012,7 +5018,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5203,7 +5209,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5290,7 +5296,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT23">
         <v>2.45</v>
@@ -5484,7 +5490,7 @@
         <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5776,7 +5782,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5967,7 +5973,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6158,7 +6164,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6349,7 +6355,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6627,10 +6633,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -7304,7 +7310,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7495,7 +7501,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7877,7 +7883,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7967,7 +7973,7 @@
         <v>0.73</v>
       </c>
       <c r="AT37">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8068,7 +8074,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8155,7 +8161,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT38">
         <v>2</v>
@@ -8346,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT39">
         <v>1.2</v>
@@ -8450,7 +8456,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8641,7 +8647,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8832,7 +8838,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8922,7 +8928,7 @@
         <v>0.73</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -9023,7 +9029,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9214,7 +9220,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9405,7 +9411,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9787,7 +9793,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9978,7 +9984,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10360,7 +10366,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10551,7 +10557,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10742,7 +10748,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10829,7 +10835,7 @@
         <v>0.75</v>
       </c>
       <c r="AS52">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -10933,7 +10939,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11020,7 +11026,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11124,7 +11130,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11214,7 +11220,7 @@
         <v>0.9</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11315,7 +11321,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11405,7 +11411,7 @@
         <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11506,7 +11512,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11697,7 +11703,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11978,7 +11984,7 @@
         <v>0.91</v>
       </c>
       <c r="AT58">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12079,7 +12085,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12166,7 +12172,7 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT59">
         <v>2.45</v>
@@ -12461,7 +12467,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12652,7 +12658,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12843,7 +12849,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12930,7 +12936,7 @@
         <v>2.57</v>
       </c>
       <c r="AS63">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT63">
         <v>2.18</v>
@@ -13034,7 +13040,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13315,7 +13321,7 @@
         <v>0.91</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13607,7 +13613,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13798,7 +13804,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13888,7 +13894,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14649,7 +14655,7 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT72">
         <v>2.18</v>
@@ -14753,7 +14759,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14944,7 +14950,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15135,7 +15141,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15326,7 +15332,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15413,7 +15419,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT76">
         <v>2</v>
@@ -15607,7 +15613,7 @@
         <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -16177,7 +16183,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16281,7 +16287,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16663,7 +16669,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16854,7 +16860,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17135,7 +17141,7 @@
         <v>0.9</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17323,7 +17329,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT86">
         <v>1.18</v>
@@ -17427,7 +17433,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17517,7 +17523,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU87">
         <v>1.19</v>
@@ -17809,7 +17815,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18382,7 +18388,7 @@
         <v>128</v>
       </c>
       <c r="P92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18764,7 +18770,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19042,10 +19048,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19337,7 +19343,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19427,7 +19433,7 @@
         <v>0.9</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19528,7 +19534,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19809,7 +19815,7 @@
         <v>0.73</v>
       </c>
       <c r="AT99">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU99">
         <v>1.24</v>
@@ -20191,7 +20197,7 @@
         <v>0.5</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20483,7 +20489,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20570,7 +20576,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT103">
         <v>1.5</v>
@@ -20865,7 +20871,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -20952,7 +20958,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT105">
         <v>1.18</v>
@@ -21007,6 +21013,388 @@
       </c>
       <c r="BK105">
         <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5139366</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45135.54166666666</v>
+      </c>
+      <c r="F106">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>107</v>
+      </c>
+      <c r="P106" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q106">
+        <v>19</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>21</v>
+      </c>
+      <c r="T106">
+        <v>1.44</v>
+      </c>
+      <c r="U106">
+        <v>3.1</v>
+      </c>
+      <c r="V106">
+        <v>12</v>
+      </c>
+      <c r="W106">
+        <v>1.25</v>
+      </c>
+      <c r="X106">
+        <v>3.5</v>
+      </c>
+      <c r="Y106">
+        <v>2.16</v>
+      </c>
+      <c r="Z106">
+        <v>1.64</v>
+      </c>
+      <c r="AA106">
+        <v>4.7</v>
+      </c>
+      <c r="AB106">
+        <v>1.16</v>
+      </c>
+      <c r="AC106">
+        <v>1.13</v>
+      </c>
+      <c r="AD106">
+        <v>8</v>
+      </c>
+      <c r="AE106">
+        <v>13</v>
+      </c>
+      <c r="AF106">
+        <v>1.01</v>
+      </c>
+      <c r="AG106">
+        <v>22.5</v>
+      </c>
+      <c r="AH106">
+        <v>1.15</v>
+      </c>
+      <c r="AI106">
+        <v>4.77</v>
+      </c>
+      <c r="AJ106">
+        <v>1.45</v>
+      </c>
+      <c r="AK106">
+        <v>2.6</v>
+      </c>
+      <c r="AL106">
+        <v>2</v>
+      </c>
+      <c r="AM106">
+        <v>1.75</v>
+      </c>
+      <c r="AN106">
+        <v>1.04</v>
+      </c>
+      <c r="AO106">
+        <v>1.09</v>
+      </c>
+      <c r="AP106">
+        <v>3.5</v>
+      </c>
+      <c r="AQ106">
+        <v>2</v>
+      </c>
+      <c r="AR106">
+        <v>2</v>
+      </c>
+      <c r="AS106">
+        <v>1.91</v>
+      </c>
+      <c r="AT106">
+        <v>1.91</v>
+      </c>
+      <c r="AU106">
+        <v>2.18</v>
+      </c>
+      <c r="AV106">
+        <v>1.3</v>
+      </c>
+      <c r="AW106">
+        <v>3.48</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>0</v>
+      </c>
+      <c r="AZ106">
+        <v>0</v>
+      </c>
+      <c r="BA106">
+        <v>0</v>
+      </c>
+      <c r="BB106">
+        <v>0</v>
+      </c>
+      <c r="BC106">
+        <v>0</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>7</v>
+      </c>
+      <c r="BG106">
+        <v>3</v>
+      </c>
+      <c r="BH106">
+        <v>20</v>
+      </c>
+      <c r="BI106">
+        <v>1</v>
+      </c>
+      <c r="BJ106">
+        <v>27</v>
+      </c>
+      <c r="BK106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>5139253</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45138.57291666666</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>138</v>
+      </c>
+      <c r="P107" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>2.63</v>
+      </c>
+      <c r="U107">
+        <v>2.2</v>
+      </c>
+      <c r="V107">
+        <v>3.5</v>
+      </c>
+      <c r="W107">
+        <v>1.35</v>
+      </c>
+      <c r="X107">
+        <v>2.95</v>
+      </c>
+      <c r="Y107">
+        <v>2.49</v>
+      </c>
+      <c r="Z107">
+        <v>1.43</v>
+      </c>
+      <c r="AA107">
+        <v>5.85</v>
+      </c>
+      <c r="AB107">
+        <v>1.1</v>
+      </c>
+      <c r="AC107">
+        <v>1.85</v>
+      </c>
+      <c r="AD107">
+        <v>3.6</v>
+      </c>
+      <c r="AE107">
+        <v>3.4</v>
+      </c>
+      <c r="AF107">
+        <v>1.03</v>
+      </c>
+      <c r="AG107">
+        <v>14.5</v>
+      </c>
+      <c r="AH107">
+        <v>1.22</v>
+      </c>
+      <c r="AI107">
+        <v>3.7</v>
+      </c>
+      <c r="AJ107">
+        <v>1.85</v>
+      </c>
+      <c r="AK107">
+        <v>1.85</v>
+      </c>
+      <c r="AL107">
+        <v>1.65</v>
+      </c>
+      <c r="AM107">
+        <v>2.1</v>
+      </c>
+      <c r="AN107">
+        <v>1.32</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.65</v>
+      </c>
+      <c r="AQ107">
+        <v>0.7</v>
+      </c>
+      <c r="AR107">
+        <v>0.9</v>
+      </c>
+      <c r="AS107">
+        <v>0.91</v>
+      </c>
+      <c r="AT107">
+        <v>0.82</v>
+      </c>
+      <c r="AU107">
+        <v>1.55</v>
+      </c>
+      <c r="AV107">
+        <v>1.29</v>
+      </c>
+      <c r="AW107">
+        <v>2.84</v>
+      </c>
+      <c r="AX107">
+        <v>1.75</v>
+      </c>
+      <c r="AY107">
+        <v>6.1</v>
+      </c>
+      <c r="AZ107">
+        <v>2.74</v>
+      </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
+      <c r="BB107">
+        <v>1.25</v>
+      </c>
+      <c r="BC107">
+        <v>1.42</v>
+      </c>
+      <c r="BD107">
+        <v>1.75</v>
+      </c>
+      <c r="BE107">
+        <v>2.22</v>
+      </c>
+      <c r="BF107">
+        <v>7</v>
+      </c>
+      <c r="BG107">
+        <v>5</v>
+      </c>
+      <c r="BH107">
+        <v>8</v>
+      </c>
+      <c r="BI107">
+        <v>6</v>
+      </c>
+      <c r="BJ107">
+        <v>15</v>
+      </c>
+      <c r="BK107">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['9', '54', '82']</t>
   </si>
   <si>
+    <t>['34', '37', '48', '75']</t>
+  </si>
+  <si>
+    <t>['33', '44', '90+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -593,6 +602,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.6</v>
@@ -1476,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT3">
         <v>1.2</v>
@@ -1670,7 +1682,7 @@
         <v>0.91</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2240,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2434,7 +2446,7 @@
         <v>2.6</v>
       </c>
       <c r="AT8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2535,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2816,7 +2828,7 @@
         <v>0.91</v>
       </c>
       <c r="AT10">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2917,7 +2929,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3108,7 +3120,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3299,7 +3311,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3386,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT13">
         <v>2.45</v>
@@ -3490,7 +3502,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3681,7 +3693,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4063,7 +4075,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4150,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4532,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4636,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4917,7 +4929,7 @@
         <v>2.6</v>
       </c>
       <c r="AT21">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5018,7 +5030,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5108,7 +5120,7 @@
         <v>0.73</v>
       </c>
       <c r="AT22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5209,7 +5221,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5490,7 +5502,7 @@
         <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5678,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -5782,7 +5794,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5869,7 +5881,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT26">
         <v>2</v>
@@ -5973,7 +5985,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6164,7 +6176,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6355,7 +6367,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6633,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>1.91</v>
@@ -6827,7 +6839,7 @@
         <v>0.9</v>
       </c>
       <c r="AT31">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7209,7 +7221,7 @@
         <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7310,7 +7322,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7501,7 +7513,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7588,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>2.45</v>
@@ -7883,7 +7895,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7973,7 +7985,7 @@
         <v>0.73</v>
       </c>
       <c r="AT37">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8074,7 +8086,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8161,7 +8173,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>2</v>
@@ -8456,7 +8468,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8647,7 +8659,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8737,7 +8749,7 @@
         <v>0.8</v>
       </c>
       <c r="AT41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8838,7 +8850,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9029,7 +9041,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9116,10 +9128,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT43">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9220,7 +9232,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9411,7 +9423,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9498,7 +9510,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>2</v>
@@ -9793,7 +9805,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9880,7 +9892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>2.18</v>
@@ -9984,7 +9996,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10366,7 +10378,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10456,7 +10468,7 @@
         <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10557,7 +10569,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10748,7 +10760,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10939,7 +10951,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11026,7 +11038,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11130,7 +11142,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11321,7 +11333,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11408,10 +11420,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11512,7 +11524,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11599,7 +11611,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
         <v>0.6</v>
@@ -11703,7 +11715,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11984,7 +11996,7 @@
         <v>0.91</v>
       </c>
       <c r="AT58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12085,7 +12097,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12467,7 +12479,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12658,7 +12670,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12849,7 +12861,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13040,7 +13052,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13613,7 +13625,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13703,7 +13715,7 @@
         <v>0.73</v>
       </c>
       <c r="AT67">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13804,7 +13816,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13891,10 +13903,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14082,7 +14094,7 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14467,7 +14479,7 @@
         <v>0.8</v>
       </c>
       <c r="AT71">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14655,7 +14667,7 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>2.18</v>
@@ -14759,7 +14771,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14950,7 +14962,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15141,7 +15153,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15231,7 +15243,7 @@
         <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -15332,7 +15344,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15610,7 +15622,7 @@
         <v>2.17</v>
       </c>
       <c r="AS77">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT77">
         <v>1.91</v>
@@ -15992,10 +16004,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT79">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>1.32</v>
@@ -16183,7 +16195,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.5</v>
@@ -16287,7 +16299,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16565,10 +16577,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU82">
         <v>1.35</v>
@@ -16669,7 +16681,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16860,7 +16872,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17141,7 +17153,7 @@
         <v>0.9</v>
       </c>
       <c r="AT85">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17332,7 +17344,7 @@
         <v>0.91</v>
       </c>
       <c r="AT86">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -17433,7 +17445,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17815,7 +17827,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17902,7 +17914,7 @@
         <v>0.63</v>
       </c>
       <c r="AS89">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT89">
         <v>0.6</v>
@@ -18388,7 +18400,7 @@
         <v>128</v>
       </c>
       <c r="P92" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18478,7 +18490,7 @@
         <v>0.73</v>
       </c>
       <c r="AT92">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18669,7 +18681,7 @@
         <v>2.6</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -18770,7 +18782,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18857,7 +18869,7 @@
         <v>2.1</v>
       </c>
       <c r="AS94">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>2.18</v>
@@ -19048,10 +19060,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19343,7 +19355,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19534,7 +19546,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19621,10 +19633,10 @@
         <v>1.67</v>
       </c>
       <c r="AS98">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT98">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU98">
         <v>1.4</v>
@@ -19815,7 +19827,7 @@
         <v>0.73</v>
       </c>
       <c r="AT99">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU99">
         <v>1.24</v>
@@ -20194,7 +20206,7 @@
         <v>2.11</v>
       </c>
       <c r="AS101">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AT101">
         <v>1.91</v>
@@ -20385,7 +20397,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
         <v>0.6</v>
@@ -20489,7 +20501,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20871,7 +20883,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -20958,10 +20970,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU105">
         <v>2.17</v>
@@ -21062,7 +21074,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21149,7 +21161,7 @@
         <v>2</v>
       </c>
       <c r="AS106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>1.91</v>
@@ -21343,7 +21355,7 @@
         <v>0.91</v>
       </c>
       <c r="AT107">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21395,6 +21407,579 @@
       </c>
       <c r="BK107">
         <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5139361</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45142.54166666666</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>139</v>
+      </c>
+      <c r="P108" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q108">
+        <v>11</v>
+      </c>
+      <c r="R108">
+        <v>7</v>
+      </c>
+      <c r="S108">
+        <v>18</v>
+      </c>
+      <c r="T108">
+        <v>1.67</v>
+      </c>
+      <c r="U108">
+        <v>2.75</v>
+      </c>
+      <c r="V108">
+        <v>7</v>
+      </c>
+      <c r="W108">
+        <v>1.21</v>
+      </c>
+      <c r="X108">
+        <v>3.94</v>
+      </c>
+      <c r="Y108">
+        <v>2.01</v>
+      </c>
+      <c r="Z108">
+        <v>1.73</v>
+      </c>
+      <c r="AA108">
+        <v>4.25</v>
+      </c>
+      <c r="AB108">
+        <v>1.19</v>
+      </c>
+      <c r="AC108">
+        <v>1.22</v>
+      </c>
+      <c r="AD108">
+        <v>6.25</v>
+      </c>
+      <c r="AE108">
+        <v>7.98</v>
+      </c>
+      <c r="AF108">
+        <v>1.01</v>
+      </c>
+      <c r="AG108">
+        <v>28</v>
+      </c>
+      <c r="AH108">
+        <v>1.09</v>
+      </c>
+      <c r="AI108">
+        <v>5.65</v>
+      </c>
+      <c r="AJ108">
+        <v>1.4</v>
+      </c>
+      <c r="AK108">
+        <v>2.73</v>
+      </c>
+      <c r="AL108">
+        <v>1.9</v>
+      </c>
+      <c r="AM108">
+        <v>1.83</v>
+      </c>
+      <c r="AN108">
+        <v>1.05</v>
+      </c>
+      <c r="AO108">
+        <v>1.09</v>
+      </c>
+      <c r="AP108">
+        <v>3.5</v>
+      </c>
+      <c r="AQ108">
+        <v>1.91</v>
+      </c>
+      <c r="AR108">
+        <v>1.8</v>
+      </c>
+      <c r="AS108">
+        <v>2</v>
+      </c>
+      <c r="AT108">
+        <v>1.64</v>
+      </c>
+      <c r="AU108">
+        <v>2.22</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>4.22</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <v>0</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>7</v>
+      </c>
+      <c r="BG108">
+        <v>10</v>
+      </c>
+      <c r="BH108">
+        <v>6</v>
+      </c>
+      <c r="BI108">
+        <v>5</v>
+      </c>
+      <c r="BJ108">
+        <v>13</v>
+      </c>
+      <c r="BK108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5139362</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>140</v>
+      </c>
+      <c r="P109" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>2.2</v>
+      </c>
+      <c r="U109">
+        <v>2.3</v>
+      </c>
+      <c r="V109">
+        <v>4.75</v>
+      </c>
+      <c r="W109">
+        <v>1.31</v>
+      </c>
+      <c r="X109">
+        <v>3.15</v>
+      </c>
+      <c r="Y109">
+        <v>2.4</v>
+      </c>
+      <c r="Z109">
+        <v>1.5</v>
+      </c>
+      <c r="AA109">
+        <v>5.8</v>
+      </c>
+      <c r="AB109">
+        <v>1.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.7</v>
+      </c>
+      <c r="AD109">
+        <v>4</v>
+      </c>
+      <c r="AE109">
+        <v>4</v>
+      </c>
+      <c r="AF109">
+        <v>1.03</v>
+      </c>
+      <c r="AG109">
+        <v>15.75</v>
+      </c>
+      <c r="AH109">
+        <v>1.22</v>
+      </c>
+      <c r="AI109">
+        <v>4</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.91</v>
+      </c>
+      <c r="AL109">
+        <v>1.68</v>
+      </c>
+      <c r="AM109">
+        <v>2.1</v>
+      </c>
+      <c r="AN109">
+        <v>1.15</v>
+      </c>
+      <c r="AO109">
+        <v>1.18</v>
+      </c>
+      <c r="AP109">
+        <v>2.2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.36</v>
+      </c>
+      <c r="AR109">
+        <v>1.18</v>
+      </c>
+      <c r="AS109">
+        <v>1.5</v>
+      </c>
+      <c r="AT109">
+        <v>1.08</v>
+      </c>
+      <c r="AU109">
+        <v>1.53</v>
+      </c>
+      <c r="AV109">
+        <v>1.41</v>
+      </c>
+      <c r="AW109">
+        <v>2.94</v>
+      </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>0</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>9</v>
+      </c>
+      <c r="BG109">
+        <v>4</v>
+      </c>
+      <c r="BH109">
+        <v>9</v>
+      </c>
+      <c r="BI109">
+        <v>1</v>
+      </c>
+      <c r="BJ109">
+        <v>18</v>
+      </c>
+      <c r="BK109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5139363</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45143.5625</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>73</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>141</v>
+      </c>
+      <c r="P110" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>2.3</v>
+      </c>
+      <c r="U110">
+        <v>2.2</v>
+      </c>
+      <c r="V110">
+        <v>4.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>2.75</v>
+      </c>
+      <c r="Y110">
+        <v>2.85</v>
+      </c>
+      <c r="Z110">
+        <v>1.37</v>
+      </c>
+      <c r="AA110">
+        <v>7.2</v>
+      </c>
+      <c r="AB110">
+        <v>1.06</v>
+      </c>
+      <c r="AC110">
+        <v>1.97</v>
+      </c>
+      <c r="AD110">
+        <v>3.25</v>
+      </c>
+      <c r="AE110">
+        <v>3.25</v>
+      </c>
+      <c r="AF110">
+        <v>1.02</v>
+      </c>
+      <c r="AG110">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH110">
+        <v>1.33</v>
+      </c>
+      <c r="AI110">
+        <v>3.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.84</v>
+      </c>
+      <c r="AK110">
+        <v>1.87</v>
+      </c>
+      <c r="AL110">
+        <v>1.87</v>
+      </c>
+      <c r="AM110">
+        <v>1.87</v>
+      </c>
+      <c r="AN110">
+        <v>1.17</v>
+      </c>
+      <c r="AO110">
+        <v>1.22</v>
+      </c>
+      <c r="AP110">
+        <v>1.95</v>
+      </c>
+      <c r="AQ110">
+        <v>0.5</v>
+      </c>
+      <c r="AR110">
+        <v>0.82</v>
+      </c>
+      <c r="AS110">
+        <v>0.55</v>
+      </c>
+      <c r="AT110">
+        <v>0.83</v>
+      </c>
+      <c r="AU110">
+        <v>1.53</v>
+      </c>
+      <c r="AV110">
+        <v>1.31</v>
+      </c>
+      <c r="AW110">
+        <v>2.84</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>6</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>4</v>
+      </c>
+      <c r="BI110">
+        <v>3</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -606,6 +606,12 @@
   <si>
     <t>['61']</t>
   </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['18', '40', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2634,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT9">
         <v>2.18</v>
@@ -3016,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT11">
         <v>1.2</v>
@@ -3210,7 +3216,7 @@
         <v>0.9</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3780,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -3974,7 +3980,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4735,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT20">
         <v>2.18</v>
@@ -5117,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT22">
         <v>1.08</v>
@@ -5499,7 +5505,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT24">
         <v>0.83</v>
@@ -5693,7 +5699,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5884,7 +5890,7 @@
         <v>0.55</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -7030,7 +7036,7 @@
         <v>0.91</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7218,7 +7224,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT33">
         <v>1.08</v>
@@ -7982,7 +7988,7 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT37">
         <v>0.83</v>
@@ -8176,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8555,10 +8561,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8937,7 +8943,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT42">
         <v>1.91</v>
@@ -9513,7 +9519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -10277,7 +10283,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10465,7 +10471,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT50">
         <v>1.64</v>
@@ -10656,10 +10662,10 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10850,7 +10856,7 @@
         <v>0.91</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -11802,7 +11808,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT57">
         <v>2.18</v>
@@ -12378,7 +12384,7 @@
         <v>0.9</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12566,7 +12572,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT61">
         <v>2.45</v>
@@ -13142,7 +13148,7 @@
         <v>0.8</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU64">
         <v>1.22</v>
@@ -13712,7 +13718,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT67">
         <v>1.64</v>
@@ -14097,7 +14103,7 @@
         <v>0.55</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14285,10 +14291,10 @@
         <v>2.13</v>
       </c>
       <c r="AS70">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT70">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -15049,7 +15055,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT74">
         <v>0.6</v>
@@ -15434,7 +15440,7 @@
         <v>0.91</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU76">
         <v>1.6</v>
@@ -16198,7 +16204,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU80">
         <v>2.11</v>
@@ -16386,7 +16392,7 @@
         <v>2.75</v>
       </c>
       <c r="AS81">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT81">
         <v>2.45</v>
@@ -16768,10 +16774,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -18296,10 +18302,10 @@
         <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU91">
         <v>1.09</v>
@@ -18487,7 +18493,7 @@
         <v>1.75</v>
       </c>
       <c r="AS92">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT92">
         <v>1.64</v>
@@ -19824,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AT99">
         <v>0.83</v>
@@ -20591,7 +20597,7 @@
         <v>0.91</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU103">
         <v>1.59</v>
@@ -20782,7 +20788,7 @@
         <v>0.8</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU104">
         <v>1.3</v>
@@ -21582,22 +21588,22 @@
         <v>0</v>
       </c>
       <c r="BF108">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BG108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BH108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI108">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ108">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BK108">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:63">
@@ -21773,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="BF109">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BG109">
         <v>4</v>
@@ -21782,13 +21788,13 @@
         <v>9</v>
       </c>
       <c r="BI109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ109">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BK109">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:63">
@@ -21964,22 +21970,404 @@
         <v>0</v>
       </c>
       <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>3</v>
+      </c>
+      <c r="BH110">
+        <v>8</v>
+      </c>
+      <c r="BI110">
+        <v>4</v>
+      </c>
+      <c r="BJ110">
+        <v>15</v>
+      </c>
+      <c r="BK110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5139364</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45144.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>76</v>
+      </c>
+      <c r="P111" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+      <c r="R111">
+        <v>10</v>
+      </c>
+      <c r="S111">
+        <v>14</v>
+      </c>
+      <c r="T111">
         <v>6</v>
       </c>
-      <c r="BG110">
-        <v>2</v>
-      </c>
-      <c r="BH110">
+      <c r="U111">
+        <v>2.38</v>
+      </c>
+      <c r="V111">
+        <v>1.91</v>
+      </c>
+      <c r="W111">
+        <v>1.31</v>
+      </c>
+      <c r="X111">
+        <v>3.15</v>
+      </c>
+      <c r="Y111">
+        <v>2.47</v>
+      </c>
+      <c r="Z111">
+        <v>1.48</v>
+      </c>
+      <c r="AA111">
+        <v>5.8</v>
+      </c>
+      <c r="AB111">
+        <v>1.1</v>
+      </c>
+      <c r="AC111">
+        <v>7</v>
+      </c>
+      <c r="AD111">
+        <v>4.4</v>
+      </c>
+      <c r="AE111">
+        <v>1.3</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>15.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.19</v>
+      </c>
+      <c r="AI111">
+        <v>3.9</v>
+      </c>
+      <c r="AJ111">
+        <v>1.67</v>
+      </c>
+      <c r="AK111">
+        <v>2.08</v>
+      </c>
+      <c r="AL111">
+        <v>1.85</v>
+      </c>
+      <c r="AM111">
+        <v>1.9</v>
+      </c>
+      <c r="AN111">
+        <v>2.7</v>
+      </c>
+      <c r="AO111">
+        <v>1.15</v>
+      </c>
+      <c r="AP111">
+        <v>1.06</v>
+      </c>
+      <c r="AQ111">
+        <v>0.73</v>
+      </c>
+      <c r="AR111">
+        <v>1.5</v>
+      </c>
+      <c r="AS111">
+        <v>0.67</v>
+      </c>
+      <c r="AT111">
+        <v>1.64</v>
+      </c>
+      <c r="AU111">
+        <v>1.29</v>
+      </c>
+      <c r="AV111">
+        <v>1.66</v>
+      </c>
+      <c r="AW111">
+        <v>2.95</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>2</v>
+      </c>
+      <c r="BG111">
+        <v>5</v>
+      </c>
+      <c r="BH111">
+        <v>3</v>
+      </c>
+      <c r="BI111">
+        <v>7</v>
+      </c>
+      <c r="BJ111">
+        <v>5</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5139365</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45144.54166666666</v>
+      </c>
+      <c r="F112">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>76</v>
+      </c>
+      <c r="P112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>11</v>
+      </c>
+      <c r="S112">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>8.5</v>
+      </c>
+      <c r="U112">
+        <v>2.6</v>
+      </c>
+      <c r="V112">
+        <v>1.67</v>
+      </c>
+      <c r="W112">
+        <v>1.25</v>
+      </c>
+      <c r="X112">
+        <v>3.56</v>
+      </c>
+      <c r="Y112">
+        <v>2.31</v>
+      </c>
+      <c r="Z112">
+        <v>1.56</v>
+      </c>
+      <c r="AA112">
+        <v>5.3</v>
+      </c>
+      <c r="AB112">
+        <v>1.12</v>
+      </c>
+      <c r="AC112">
+        <v>8</v>
+      </c>
+      <c r="AD112">
+        <v>4.7</v>
+      </c>
+      <c r="AE112">
+        <v>1.25</v>
+      </c>
+      <c r="AF112">
+        <v>1.02</v>
+      </c>
+      <c r="AG112">
+        <v>18.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.18</v>
+      </c>
+      <c r="AI112">
+        <v>4.5</v>
+      </c>
+      <c r="AJ112">
+        <v>1.7</v>
+      </c>
+      <c r="AK112">
+        <v>2.04</v>
+      </c>
+      <c r="AL112">
+        <v>1.85</v>
+      </c>
+      <c r="AM112">
+        <v>1.9</v>
+      </c>
+      <c r="AN112">
+        <v>3.1</v>
+      </c>
+      <c r="AO112">
+        <v>1.12</v>
+      </c>
+      <c r="AP112">
+        <v>1.04</v>
+      </c>
+      <c r="AQ112">
+        <v>0.91</v>
+      </c>
+      <c r="AR112">
+        <v>2</v>
+      </c>
+      <c r="AS112">
+        <v>0.83</v>
+      </c>
+      <c r="AT112">
+        <v>2.08</v>
+      </c>
+      <c r="AU112">
+        <v>1.06</v>
+      </c>
+      <c r="AV112">
+        <v>1.97</v>
+      </c>
+      <c r="AW112">
+        <v>3.03</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>2</v>
+      </c>
+      <c r="BG112">
+        <v>8</v>
+      </c>
+      <c r="BH112">
         <v>4</v>
       </c>
-      <c r="BI110">
-        <v>3</v>
-      </c>
-      <c r="BJ110">
-        <v>10</v>
-      </c>
-      <c r="BK110">
-        <v>5</v>
+      <c r="BI112">
+        <v>8</v>
+      </c>
+      <c r="BJ112">
+        <v>6</v>
+      </c>
+      <c r="BK112">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -526,9 +535,6 @@
     <t>['37', '39', '46', '90+2']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['25', '43']</t>
   </si>
   <si>
@@ -583,9 +589,6 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['84', '87']</t>
   </si>
   <si>
@@ -611,6 +614,12 @@
   </si>
   <si>
     <t>['18', '40', '83']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1497,7 +1506,7 @@
         <v>0.55</v>
       </c>
       <c r="AT3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1685,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT4">
         <v>1.08</v>
@@ -1876,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT5">
         <v>1.91</v>
@@ -2070,7 +2079,7 @@
         <v>0.91</v>
       </c>
       <c r="AT6">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2449,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT8">
         <v>0.83</v>
@@ -2553,7 +2562,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2643,7 +2652,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2831,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT10">
         <v>1.64</v>
@@ -2935,7 +2944,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3025,7 +3034,7 @@
         <v>0.83</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3126,7 +3135,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3317,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3508,7 +3517,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3699,7 +3708,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3789,7 +3798,7 @@
         <v>0.67</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU15">
         <v>1.55</v>
@@ -3977,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT16">
         <v>1.64</v>
@@ -4081,7 +4090,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4359,10 +4368,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT18">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU18">
         <v>1.89</v>
@@ -4654,7 +4663,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4744,7 +4753,7 @@
         <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU20">
         <v>1.59</v>
@@ -4932,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT21">
         <v>1.64</v>
@@ -5036,7 +5045,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5227,7 +5236,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5800,7 +5809,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5991,7 +6000,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6078,10 +6087,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT27">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU27">
         <v>1.91</v>
@@ -6182,7 +6191,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6269,10 +6278,10 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT28">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
         <v>1.84</v>
@@ -6373,7 +6382,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6460,10 +6469,10 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU29">
         <v>0.98</v>
@@ -7033,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT32">
         <v>2.08</v>
@@ -7328,7 +7337,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7415,10 +7424,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT34">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU34">
         <v>0.9</v>
@@ -7519,7 +7528,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7800,7 +7809,7 @@
         <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU36">
         <v>1.25</v>
@@ -7901,7 +7910,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8092,7 +8101,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8373,7 +8382,7 @@
         <v>0.91</v>
       </c>
       <c r="AT39">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8474,7 +8483,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8665,7 +8674,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8752,7 +8761,7 @@
         <v>0.6</v>
       </c>
       <c r="AS41">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT41">
         <v>1.08</v>
@@ -8856,7 +8865,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9047,7 +9056,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9238,7 +9247,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9325,7 +9334,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT44">
         <v>2.45</v>
@@ -9429,7 +9438,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9710,7 +9719,7 @@
         <v>0.9</v>
       </c>
       <c r="AT46">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU46">
         <v>1.59</v>
@@ -9811,7 +9820,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9901,7 +9910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU47">
         <v>1.23</v>
@@ -10002,7 +10011,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10089,7 +10098,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT48">
         <v>2.45</v>
@@ -10280,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT49">
         <v>1.64</v>
@@ -10384,7 +10393,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10575,7 +10584,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10766,7 +10775,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10957,7 +10966,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11047,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11148,7 +11157,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11339,7 +11348,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11530,7 +11539,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11620,7 +11629,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU56">
         <v>1.42</v>
@@ -11721,7 +11730,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11811,7 +11820,7 @@
         <v>0.83</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11999,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT58">
         <v>0.83</v>
@@ -12103,7 +12112,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12485,7 +12494,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12676,7 +12685,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12766,7 +12775,7 @@
         <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -12867,7 +12876,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12957,7 +12966,7 @@
         <v>0.91</v>
       </c>
       <c r="AT63">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU63">
         <v>1.53</v>
@@ -13058,7 +13067,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13145,7 +13154,7 @@
         <v>2.29</v>
       </c>
       <c r="AS64">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
         <v>2.08</v>
@@ -13336,7 +13345,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT65">
         <v>1.91</v>
@@ -13631,7 +13640,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13822,7 +13831,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14482,7 +14491,7 @@
         <v>2.17</v>
       </c>
       <c r="AS71">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT71">
         <v>1.64</v>
@@ -14676,7 +14685,7 @@
         <v>2</v>
       </c>
       <c r="AT72">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU72">
         <v>2.08</v>
@@ -14777,7 +14786,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14864,10 +14873,10 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT73">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -14968,7 +14977,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15058,7 +15067,7 @@
         <v>0.83</v>
       </c>
       <c r="AT74">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU74">
         <v>1.18</v>
@@ -15159,7 +15168,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15246,7 +15255,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT75">
         <v>1.08</v>
@@ -15350,7 +15359,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15819,10 +15828,10 @@
         <v>0.71</v>
       </c>
       <c r="AS78">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT78">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU78">
         <v>1.15</v>
@@ -16305,7 +16314,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16687,7 +16696,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16878,7 +16887,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -16965,10 +16974,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT84">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU84">
         <v>1.7</v>
@@ -17451,7 +17460,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17538,7 +17547,7 @@
         <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT87">
         <v>1.91</v>
@@ -17729,10 +17738,10 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU88">
         <v>1.63</v>
@@ -17833,7 +17842,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17923,7 +17932,7 @@
         <v>0.55</v>
       </c>
       <c r="AT89">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU89">
         <v>1.38</v>
@@ -18111,7 +18120,7 @@
         <v>2.78</v>
       </c>
       <c r="AS90">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT90">
         <v>2.45</v>
@@ -18406,7 +18415,7 @@
         <v>128</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18684,7 +18693,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT93">
         <v>1.08</v>
@@ -18788,7 +18797,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18878,7 +18887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19257,7 +19266,7 @@
         <v>2.6</v>
       </c>
       <c r="AS96">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT96">
         <v>2.45</v>
@@ -19361,7 +19370,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19552,7 +19561,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20021,10 +20030,10 @@
         <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT100">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU100">
         <v>1.77</v>
@@ -20406,7 +20415,7 @@
         <v>1.5</v>
       </c>
       <c r="AT102">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.53</v>
@@ -20507,7 +20516,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20785,7 +20794,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT104">
         <v>2.08</v>
@@ -20889,7 +20898,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21080,7 +21089,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21844,7 +21853,7 @@
         <v>141</v>
       </c>
       <c r="P110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22035,7 +22044,7 @@
         <v>76</v>
       </c>
       <c r="P111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22226,7 +22235,7 @@
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22368,6 +22377,579 @@
       </c>
       <c r="BK112">
         <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5139367</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" t="s">
+        <v>66</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>142</v>
+      </c>
+      <c r="P113" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q113">
+        <v>9</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>10</v>
+      </c>
+      <c r="T113">
+        <v>2.05</v>
+      </c>
+      <c r="U113">
+        <v>2.3</v>
+      </c>
+      <c r="V113">
+        <v>5</v>
+      </c>
+      <c r="W113">
+        <v>1.34</v>
+      </c>
+      <c r="X113">
+        <v>2.99</v>
+      </c>
+      <c r="Y113">
+        <v>2.55</v>
+      </c>
+      <c r="Z113">
+        <v>1.46</v>
+      </c>
+      <c r="AA113">
+        <v>6.25</v>
+      </c>
+      <c r="AB113">
+        <v>1.09</v>
+      </c>
+      <c r="AC113">
+        <v>1.46</v>
+      </c>
+      <c r="AD113">
+        <v>3.54</v>
+      </c>
+      <c r="AE113">
+        <v>4.46</v>
+      </c>
+      <c r="AF113">
+        <v>1.01</v>
+      </c>
+      <c r="AG113">
+        <v>10</v>
+      </c>
+      <c r="AH113">
+        <v>1.2</v>
+      </c>
+      <c r="AI113">
+        <v>3.9</v>
+      </c>
+      <c r="AJ113">
+        <v>1.7</v>
+      </c>
+      <c r="AK113">
+        <v>1.96</v>
+      </c>
+      <c r="AL113">
+        <v>1.7</v>
+      </c>
+      <c r="AM113">
+        <v>2</v>
+      </c>
+      <c r="AN113">
+        <v>1.12</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>2.2</v>
+      </c>
+      <c r="AQ113">
+        <v>0.91</v>
+      </c>
+      <c r="AR113">
+        <v>2.18</v>
+      </c>
+      <c r="AS113">
+        <v>0.92</v>
+      </c>
+      <c r="AT113">
+        <v>2.08</v>
+      </c>
+      <c r="AU113">
+        <v>1.66</v>
+      </c>
+      <c r="AV113">
+        <v>1.38</v>
+      </c>
+      <c r="AW113">
+        <v>3.04</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>7</v>
+      </c>
+      <c r="BG113">
+        <v>3</v>
+      </c>
+      <c r="BH113">
+        <v>6</v>
+      </c>
+      <c r="BI113">
+        <v>6</v>
+      </c>
+      <c r="BJ113">
+        <v>13</v>
+      </c>
+      <c r="BK113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5139368</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45150.5625</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>143</v>
+      </c>
+      <c r="P114" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.88</v>
+      </c>
+      <c r="V114">
+        <v>13</v>
+      </c>
+      <c r="W114">
+        <v>1.22</v>
+      </c>
+      <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.57</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.14</v>
+      </c>
+      <c r="AC114">
+        <v>1.12</v>
+      </c>
+      <c r="AD114">
+        <v>6.6</v>
+      </c>
+      <c r="AE114">
+        <v>17</v>
+      </c>
+      <c r="AF114">
+        <v>1.01</v>
+      </c>
+      <c r="AG114">
+        <v>20</v>
+      </c>
+      <c r="AH114">
+        <v>1.11</v>
+      </c>
+      <c r="AI114">
+        <v>5.3</v>
+      </c>
+      <c r="AJ114">
+        <v>1.42</v>
+      </c>
+      <c r="AK114">
+        <v>2.53</v>
+      </c>
+      <c r="AL114">
+        <v>2.2</v>
+      </c>
+      <c r="AM114">
+        <v>1.6</v>
+      </c>
+      <c r="AN114">
+        <v>1.03</v>
+      </c>
+      <c r="AO114">
+        <v>1.07</v>
+      </c>
+      <c r="AP114">
+        <v>3.8</v>
+      </c>
+      <c r="AQ114">
+        <v>2.6</v>
+      </c>
+      <c r="AR114">
+        <v>0.6</v>
+      </c>
+      <c r="AS114">
+        <v>2.45</v>
+      </c>
+      <c r="AT114">
+        <v>0.64</v>
+      </c>
+      <c r="AU114">
+        <v>1.81</v>
+      </c>
+      <c r="AV114">
+        <v>1.07</v>
+      </c>
+      <c r="AW114">
+        <v>2.88</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>11</v>
+      </c>
+      <c r="BG114">
+        <v>2</v>
+      </c>
+      <c r="BH114">
+        <v>11</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>22</v>
+      </c>
+      <c r="BK114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5139369</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>144</v>
+      </c>
+      <c r="P115" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>7</v>
+      </c>
+      <c r="T115">
+        <v>3.5</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>3.1</v>
+      </c>
+      <c r="W115">
+        <v>1.5</v>
+      </c>
+      <c r="X115">
+        <v>2.4</v>
+      </c>
+      <c r="Y115">
+        <v>3.15</v>
+      </c>
+      <c r="Z115">
+        <v>1.31</v>
+      </c>
+      <c r="AA115">
+        <v>8.4</v>
+      </c>
+      <c r="AB115">
+        <v>1.04</v>
+      </c>
+      <c r="AC115">
+        <v>3.5</v>
+      </c>
+      <c r="AD115">
+        <v>3.3</v>
+      </c>
+      <c r="AE115">
+        <v>1.85</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>7.2</v>
+      </c>
+      <c r="AH115">
+        <v>1.4</v>
+      </c>
+      <c r="AI115">
+        <v>2.8</v>
+      </c>
+      <c r="AJ115">
+        <v>1.95</v>
+      </c>
+      <c r="AK115">
+        <v>1.77</v>
+      </c>
+      <c r="AL115">
+        <v>1.86</v>
+      </c>
+      <c r="AM115">
+        <v>1.8</v>
+      </c>
+      <c r="AN115">
+        <v>1.45</v>
+      </c>
+      <c r="AO115">
+        <v>1.28</v>
+      </c>
+      <c r="AP115">
+        <v>1.35</v>
+      </c>
+      <c r="AQ115">
+        <v>0.8</v>
+      </c>
+      <c r="AR115">
+        <v>1.2</v>
+      </c>
+      <c r="AS115">
+        <v>0.82</v>
+      </c>
+      <c r="AT115">
+        <v>1.18</v>
+      </c>
+      <c r="AU115">
+        <v>1.26</v>
+      </c>
+      <c r="AV115">
+        <v>1.32</v>
+      </c>
+      <c r="AW115">
+        <v>2.58</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>9</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>12</v>
+      </c>
+      <c r="BJ115">
+        <v>12</v>
+      </c>
+      <c r="BK115">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['60', '67']</t>
   </si>
   <si>
     <t>['42', '72']</t>
@@ -981,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2562,7 +2565,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2843,7 +2846,7 @@
         <v>0.92</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2944,7 +2947,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3135,7 +3138,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3222,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT12">
         <v>2.08</v>
@@ -3326,7 +3329,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3517,7 +3520,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3708,7 +3711,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4090,7 +4093,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4663,7 +4666,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4944,7 +4947,7 @@
         <v>2.45</v>
       </c>
       <c r="AT21">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5045,7 +5048,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5236,7 +5239,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5809,7 +5812,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6000,7 +6003,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6191,7 +6194,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6382,7 +6385,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6851,10 +6854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT31">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7337,7 +7340,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7528,7 +7531,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7806,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT36">
         <v>2.08</v>
@@ -7910,7 +7913,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8101,7 +8104,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8483,7 +8486,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8674,7 +8677,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8865,7 +8868,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9056,7 +9059,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9146,7 +9149,7 @@
         <v>0.55</v>
       </c>
       <c r="AT43">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9247,7 +9250,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9438,7 +9441,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9716,7 +9719,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT46">
         <v>0.64</v>
@@ -9820,7 +9823,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10011,7 +10014,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10393,7 +10396,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10483,7 +10486,7 @@
         <v>0.83</v>
       </c>
       <c r="AT50">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10584,7 +10587,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10775,7 +10778,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11157,7 +11160,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11244,7 +11247,7 @@
         <v>1.75</v>
       </c>
       <c r="AS54">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT54">
         <v>1.91</v>
@@ -11348,7 +11351,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11539,7 +11542,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11730,7 +11733,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12112,7 +12115,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12390,7 +12393,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT60">
         <v>2.08</v>
@@ -12494,7 +12497,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12685,7 +12688,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12772,7 +12775,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT62">
         <v>1.18</v>
@@ -12876,7 +12879,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13067,7 +13070,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13536,7 +13539,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT66">
         <v>2.45</v>
@@ -13640,7 +13643,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13730,7 +13733,7 @@
         <v>0.67</v>
       </c>
       <c r="AT67">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13831,7 +13834,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14494,7 +14497,7 @@
         <v>0.82</v>
       </c>
       <c r="AT71">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14786,7 +14789,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14977,7 +14980,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15168,7 +15171,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15359,7 +15362,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16314,7 +16317,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16595,7 +16598,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU82">
         <v>1.35</v>
@@ -16696,7 +16699,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16887,7 +16890,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17165,7 +17168,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT85">
         <v>0.83</v>
@@ -17460,7 +17463,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17842,7 +17845,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18505,7 +18508,7 @@
         <v>0.67</v>
       </c>
       <c r="AT92">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18797,7 +18800,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19370,7 +19373,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19457,7 +19460,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT97">
         <v>1.91</v>
@@ -19561,7 +19564,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19651,7 +19654,7 @@
         <v>0.55</v>
       </c>
       <c r="AT98">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU98">
         <v>1.4</v>
@@ -20516,7 +20519,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20898,7 +20901,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21089,7 +21092,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21561,7 +21564,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>2.22</v>
@@ -21853,7 +21856,7 @@
         <v>141</v>
       </c>
       <c r="P110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22044,7 +22047,7 @@
         <v>76</v>
       </c>
       <c r="P111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22235,7 +22238,7 @@
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22617,7 +22620,7 @@
         <v>143</v>
       </c>
       <c r="P114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22808,7 +22811,7 @@
         <v>144</v>
       </c>
       <c r="P115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -22950,6 +22953,197 @@
       </c>
       <c r="BK115">
         <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5139370</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45151.54166666666</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>145</v>
+      </c>
+      <c r="P116" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q116">
+        <v>13</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>15</v>
+      </c>
+      <c r="T116">
+        <v>2.88</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>3.6</v>
+      </c>
+      <c r="W116">
+        <v>1.45</v>
+      </c>
+      <c r="X116">
+        <v>2.6</v>
+      </c>
+      <c r="Y116">
+        <v>2.94</v>
+      </c>
+      <c r="Z116">
+        <v>1.35</v>
+      </c>
+      <c r="AA116">
+        <v>7.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.06</v>
+      </c>
+      <c r="AC116">
+        <v>2.55</v>
+      </c>
+      <c r="AD116">
+        <v>3.15</v>
+      </c>
+      <c r="AE116">
+        <v>2.55</v>
+      </c>
+      <c r="AF116">
+        <v>1.03</v>
+      </c>
+      <c r="AG116">
+        <v>8</v>
+      </c>
+      <c r="AH116">
+        <v>1.33</v>
+      </c>
+      <c r="AI116">
+        <v>3.1</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.95</v>
+      </c>
+      <c r="AL116">
+        <v>1.77</v>
+      </c>
+      <c r="AM116">
+        <v>1.89</v>
+      </c>
+      <c r="AN116">
+        <v>1.28</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.52</v>
+      </c>
+      <c r="AQ116">
+        <v>0.9</v>
+      </c>
+      <c r="AR116">
+        <v>1.64</v>
+      </c>
+      <c r="AS116">
+        <v>1.09</v>
+      </c>
+      <c r="AT116">
+        <v>1.5</v>
+      </c>
+      <c r="AU116">
+        <v>1.46</v>
+      </c>
+      <c r="AV116">
+        <v>2</v>
+      </c>
+      <c r="AW116">
+        <v>3.46</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>10</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>15</v>
+      </c>
+      <c r="BI116">
+        <v>5</v>
+      </c>
+      <c r="BJ116">
+        <v>25</v>
+      </c>
+      <c r="BK116">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -624,6 +624,9 @@
   <si>
     <t>['90+7']</t>
   </si>
+  <si>
+    <t>['13', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1700,7 +1703,7 @@
         <v>0.92</v>
       </c>
       <c r="AT4">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2652,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT9">
         <v>2.08</v>
@@ -3798,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT15">
         <v>1.18</v>
@@ -4565,7 +4568,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5135,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT22">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -7239,7 +7242,7 @@
         <v>0.83</v>
       </c>
       <c r="AT33">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -8000,7 +8003,7 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT37">
         <v>0.83</v>
@@ -8767,7 +8770,7 @@
         <v>0.82</v>
       </c>
       <c r="AT41">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8955,7 +8958,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT42">
         <v>1.91</v>
@@ -10674,7 +10677,7 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT51">
         <v>2.08</v>
@@ -12584,7 +12587,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT61">
         <v>2.45</v>
@@ -13730,7 +13733,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT67">
         <v>1.5</v>
@@ -15261,7 +15264,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -16025,7 +16028,7 @@
         <v>0.55</v>
       </c>
       <c r="AT79">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU79">
         <v>1.32</v>
@@ -16786,7 +16789,7 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT83">
         <v>1.64</v>
@@ -17362,7 +17365,7 @@
         <v>0.91</v>
       </c>
       <c r="AT86">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -18505,7 +18508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS92">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT92">
         <v>1.5</v>
@@ -18699,7 +18702,7 @@
         <v>2.45</v>
       </c>
       <c r="AT93">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU93">
         <v>1.75</v>
@@ -19842,7 +19845,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT99">
         <v>0.83</v>
@@ -20991,7 +20994,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU105">
         <v>2.17</v>
@@ -21755,7 +21758,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU109">
         <v>1.53</v>
@@ -22134,7 +22137,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT111">
         <v>1.64</v>
@@ -23144,6 +23147,197 @@
       </c>
       <c r="BK116">
         <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5139371</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45156.54166666666</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>76</v>
+      </c>
+      <c r="P117" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q117">
+        <v>4</v>
+      </c>
+      <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>4.33</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>2.4</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>2.75</v>
+      </c>
+      <c r="Y117">
+        <v>2.8</v>
+      </c>
+      <c r="Z117">
+        <v>1.38</v>
+      </c>
+      <c r="AA117">
+        <v>6.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.08</v>
+      </c>
+      <c r="AC117">
+        <v>3.95</v>
+      </c>
+      <c r="AD117">
+        <v>3.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.79</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>11.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.29</v>
+      </c>
+      <c r="AI117">
+        <v>3.28</v>
+      </c>
+      <c r="AJ117">
+        <v>1.91</v>
+      </c>
+      <c r="AK117">
+        <v>1.8</v>
+      </c>
+      <c r="AL117">
+        <v>1.82</v>
+      </c>
+      <c r="AM117">
+        <v>1.88</v>
+      </c>
+      <c r="AN117">
+        <v>1.82</v>
+      </c>
+      <c r="AO117">
+        <v>1.25</v>
+      </c>
+      <c r="AP117">
+        <v>1.23</v>
+      </c>
+      <c r="AQ117">
+        <v>0.67</v>
+      </c>
+      <c r="AR117">
+        <v>1.08</v>
+      </c>
+      <c r="AS117">
+        <v>0.62</v>
+      </c>
+      <c r="AT117">
+        <v>1.23</v>
+      </c>
+      <c r="AU117">
+        <v>1.24</v>
+      </c>
+      <c r="AV117">
+        <v>1.36</v>
+      </c>
+      <c r="AW117">
+        <v>2.6</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>7</v>
+      </c>
+      <c r="BH117">
+        <v>3</v>
+      </c>
+      <c r="BI117">
+        <v>6</v>
+      </c>
+      <c r="BJ117">
+        <v>3</v>
+      </c>
+      <c r="BK117">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,18 @@
     <t>['60', '67']</t>
   </si>
   <si>
+    <t>['16', '21', '27', '53', '59', '65']</t>
+  </si>
+  <si>
+    <t>['47', '64', '69']</t>
+  </si>
+  <si>
+    <t>['5', '23']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -626,6 +638,18 @@
   </si>
   <si>
     <t>['13', '90+3']</t>
+  </si>
+  <si>
+    <t>['11', '37', '39']</t>
+  </si>
+  <si>
+    <t>['21', '28', '52']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1700,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT4">
         <v>1.23</v>
@@ -2082,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT6">
         <v>0.64</v>
@@ -2467,7 +2491,7 @@
         <v>2.45</v>
       </c>
       <c r="AT8">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2568,7 +2592,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2846,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -2950,7 +2974,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3037,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3141,7 +3165,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3231,7 +3255,7 @@
         <v>1.09</v>
       </c>
       <c r="AT12">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3332,7 +3356,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3419,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT13">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU13">
         <v>0.78</v>
@@ -3523,7 +3547,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3610,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT14">
         <v>1.91</v>
@@ -3714,7 +3738,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3804,7 +3828,7 @@
         <v>0.62</v>
       </c>
       <c r="AT15">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU15">
         <v>1.55</v>
@@ -4096,7 +4120,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4186,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4374,7 +4398,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT18">
         <v>0.64</v>
@@ -4669,7 +4693,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4756,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT20">
         <v>2.08</v>
@@ -5051,7 +5075,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5242,7 +5266,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5329,10 +5353,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT23">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU23">
         <v>1.89</v>
@@ -5520,10 +5544,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT24">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5815,7 +5839,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5902,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT26">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -6006,7 +6030,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6093,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT27">
         <v>2.08</v>
@@ -6197,7 +6221,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6388,7 +6412,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6478,7 +6502,7 @@
         <v>0.82</v>
       </c>
       <c r="AT29">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU29">
         <v>0.98</v>
@@ -7048,10 +7072,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7239,7 +7263,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT33">
         <v>1.23</v>
@@ -7343,7 +7367,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7534,7 +7558,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7624,7 +7648,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7916,7 +7940,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8006,7 +8030,7 @@
         <v>0.62</v>
       </c>
       <c r="AT37">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8107,7 +8131,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8197,7 +8221,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8385,10 +8409,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8489,7 +8513,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8576,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT40">
         <v>1.64</v>
@@ -8680,7 +8704,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8871,7 +8895,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9062,7 +9086,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9149,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT43">
         <v>1.5</v>
@@ -9253,7 +9277,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9340,10 +9364,10 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT44">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU44">
         <v>1.67</v>
@@ -9444,7 +9468,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9534,7 +9558,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9826,7 +9850,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10017,7 +10041,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10107,7 +10131,7 @@
         <v>0.82</v>
       </c>
       <c r="AT48">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU48">
         <v>1.43</v>
@@ -10399,7 +10423,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10486,7 +10510,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT50">
         <v>1.5</v>
@@ -10590,7 +10614,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10680,7 +10704,7 @@
         <v>0.62</v>
       </c>
       <c r="AT51">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10781,7 +10805,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10868,7 +10892,7 @@
         <v>0.75</v>
       </c>
       <c r="AS52">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT52">
         <v>1.64</v>
@@ -11062,7 +11086,7 @@
         <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11163,7 +11187,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11354,7 +11378,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11441,10 +11465,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT55">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11545,7 +11569,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11736,7 +11760,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11823,7 +11847,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT57">
         <v>2.08</v>
@@ -12014,10 +12038,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12118,7 +12142,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12205,10 +12229,10 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT59">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12399,7 +12423,7 @@
         <v>1.09</v>
       </c>
       <c r="AT60">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12500,7 +12524,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12590,7 +12614,7 @@
         <v>0.62</v>
       </c>
       <c r="AT61">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -12691,7 +12715,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12781,7 +12805,7 @@
         <v>1.09</v>
       </c>
       <c r="AT62">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -12882,7 +12906,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12969,7 +12993,7 @@
         <v>2.57</v>
       </c>
       <c r="AS63">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT63">
         <v>2.08</v>
@@ -13073,7 +13097,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13163,7 +13187,7 @@
         <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU64">
         <v>1.22</v>
@@ -13351,7 +13375,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT65">
         <v>1.91</v>
@@ -13545,7 +13569,7 @@
         <v>1.09</v>
       </c>
       <c r="AT66">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU66">
         <v>1.46</v>
@@ -13646,7 +13670,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13837,7 +13861,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13927,7 +13951,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14115,7 +14139,7 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT69">
         <v>1.64</v>
@@ -14306,10 +14330,10 @@
         <v>2.13</v>
       </c>
       <c r="AS70">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT70">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -14792,7 +14816,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14882,7 +14906,7 @@
         <v>2.45</v>
       </c>
       <c r="AT73">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -14983,7 +15007,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15070,7 +15094,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT74">
         <v>0.64</v>
@@ -15174,7 +15198,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15261,7 +15285,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT75">
         <v>1.23</v>
@@ -15365,7 +15389,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15452,10 +15476,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU76">
         <v>1.6</v>
@@ -16025,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT79">
         <v>1.23</v>
@@ -16320,7 +16344,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16407,10 +16431,10 @@
         <v>2.75</v>
       </c>
       <c r="AS81">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT81">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16702,7 +16726,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16893,7 +16917,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17174,7 +17198,7 @@
         <v>1.09</v>
       </c>
       <c r="AT85">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17362,7 +17386,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT86">
         <v>1.23</v>
@@ -17466,7 +17490,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17744,10 +17768,10 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.63</v>
@@ -17848,7 +17872,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17935,7 +17959,7 @@
         <v>0.63</v>
       </c>
       <c r="AS89">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT89">
         <v>0.64</v>
@@ -18129,7 +18153,7 @@
         <v>2.45</v>
       </c>
       <c r="AT90">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU90">
         <v>1.75</v>
@@ -18317,7 +18341,7 @@
         <v>1.38</v>
       </c>
       <c r="AS91">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT91">
         <v>1.64</v>
@@ -18803,7 +18827,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19084,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19272,10 +19296,10 @@
         <v>2.6</v>
       </c>
       <c r="AS96">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT96">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19376,7 +19400,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19567,7 +19591,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19654,7 +19678,7 @@
         <v>1.67</v>
       </c>
       <c r="AS98">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT98">
         <v>1.5</v>
@@ -19848,7 +19872,7 @@
         <v>0.62</v>
       </c>
       <c r="AT99">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU99">
         <v>1.24</v>
@@ -20039,7 +20063,7 @@
         <v>2.45</v>
       </c>
       <c r="AT100">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU100">
         <v>1.77</v>
@@ -20227,7 +20251,7 @@
         <v>2.11</v>
       </c>
       <c r="AS101">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT101">
         <v>1.91</v>
@@ -20522,7 +20546,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20609,7 +20633,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT103">
         <v>1.64</v>
@@ -20803,7 +20827,7 @@
         <v>0.82</v>
       </c>
       <c r="AT104">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU104">
         <v>1.3</v>
@@ -20904,7 +20928,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21095,7 +21119,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21373,10 +21397,10 @@
         <v>0.9</v>
       </c>
       <c r="AS107">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT107">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21859,7 +21883,7 @@
         <v>141</v>
       </c>
       <c r="P110" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -21946,10 +21970,10 @@
         <v>0.82</v>
       </c>
       <c r="AS110">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AT110">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU110">
         <v>1.53</v>
@@ -22050,7 +22074,7 @@
         <v>76</v>
       </c>
       <c r="P111" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22241,7 +22265,7 @@
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22328,10 +22352,10 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT112">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AU112">
         <v>1.06</v>
@@ -22519,7 +22543,7 @@
         <v>2.18</v>
       </c>
       <c r="AS113">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT113">
         <v>2.08</v>
@@ -22623,7 +22647,7 @@
         <v>143</v>
       </c>
       <c r="P114" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22814,7 +22838,7 @@
         <v>144</v>
       </c>
       <c r="P115" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -22904,7 +22928,7 @@
         <v>0.82</v>
       </c>
       <c r="AT115">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU115">
         <v>1.26</v>
@@ -23196,7 +23220,7 @@
         <v>76</v>
       </c>
       <c r="P117" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23338,6 +23362,770 @@
       </c>
       <c r="BK117">
         <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5139374</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45157.45833333334</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>6</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>9</v>
+      </c>
+      <c r="O118" t="s">
+        <v>146</v>
+      </c>
+      <c r="P118" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q118">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>13</v>
+      </c>
+      <c r="T118">
+        <v>2.05</v>
+      </c>
+      <c r="U118">
+        <v>2.1</v>
+      </c>
+      <c r="V118">
+        <v>7</v>
+      </c>
+      <c r="W118">
+        <v>1.48</v>
+      </c>
+      <c r="X118">
+        <v>2.5</v>
+      </c>
+      <c r="Y118">
+        <v>3.2</v>
+      </c>
+      <c r="Z118">
+        <v>1.3</v>
+      </c>
+      <c r="AA118">
+        <v>7.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.05</v>
+      </c>
+      <c r="AC118">
+        <v>1.47</v>
+      </c>
+      <c r="AD118">
+        <v>3.8</v>
+      </c>
+      <c r="AE118">
+        <v>6.4</v>
+      </c>
+      <c r="AF118">
+        <v>1.07</v>
+      </c>
+      <c r="AG118">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH118">
+        <v>1.4</v>
+      </c>
+      <c r="AI118">
+        <v>2.8</v>
+      </c>
+      <c r="AJ118">
+        <v>2.16</v>
+      </c>
+      <c r="AK118">
+        <v>1.62</v>
+      </c>
+      <c r="AL118">
+        <v>2.35</v>
+      </c>
+      <c r="AM118">
+        <v>1.55</v>
+      </c>
+      <c r="AN118">
+        <v>1.11</v>
+      </c>
+      <c r="AO118">
+        <v>1.22</v>
+      </c>
+      <c r="AP118">
+        <v>2.25</v>
+      </c>
+      <c r="AQ118">
+        <v>0.92</v>
+      </c>
+      <c r="AR118">
+        <v>0.83</v>
+      </c>
+      <c r="AS118">
+        <v>1.08</v>
+      </c>
+      <c r="AT118">
+        <v>0.77</v>
+      </c>
+      <c r="AU118">
+        <v>1.67</v>
+      </c>
+      <c r="AV118">
+        <v>1.28</v>
+      </c>
+      <c r="AW118">
+        <v>2.95</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>13</v>
+      </c>
+      <c r="BG118">
+        <v>8</v>
+      </c>
+      <c r="BH118">
+        <v>10</v>
+      </c>
+      <c r="BI118">
+        <v>4</v>
+      </c>
+      <c r="BJ118">
+        <v>23</v>
+      </c>
+      <c r="BK118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5139372</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45157.54166666666</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>71</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>6</v>
+      </c>
+      <c r="O119" t="s">
+        <v>147</v>
+      </c>
+      <c r="P119" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q119">
+        <v>7</v>
+      </c>
+      <c r="R119">
+        <v>4</v>
+      </c>
+      <c r="S119">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>2.05</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.5</v>
+      </c>
+      <c r="X119">
+        <v>2.45</v>
+      </c>
+      <c r="Y119">
+        <v>3.2</v>
+      </c>
+      <c r="Z119">
+        <v>1.3</v>
+      </c>
+      <c r="AA119">
+        <v>7.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.06</v>
+      </c>
+      <c r="AC119">
+        <v>3.07</v>
+      </c>
+      <c r="AD119">
+        <v>3.3</v>
+      </c>
+      <c r="AE119">
+        <v>2.1</v>
+      </c>
+      <c r="AF119">
+        <v>1.07</v>
+      </c>
+      <c r="AG119">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH119">
+        <v>1.39</v>
+      </c>
+      <c r="AI119">
+        <v>2.79</v>
+      </c>
+      <c r="AJ119">
+        <v>2.16</v>
+      </c>
+      <c r="AK119">
+        <v>1.62</v>
+      </c>
+      <c r="AL119">
+        <v>1.95</v>
+      </c>
+      <c r="AM119">
+        <v>1.8</v>
+      </c>
+      <c r="AN119">
+        <v>1.58</v>
+      </c>
+      <c r="AO119">
+        <v>1.32</v>
+      </c>
+      <c r="AP119">
+        <v>1.3</v>
+      </c>
+      <c r="AQ119">
+        <v>0.83</v>
+      </c>
+      <c r="AR119">
+        <v>1.18</v>
+      </c>
+      <c r="AS119">
+        <v>0.85</v>
+      </c>
+      <c r="AT119">
+        <v>1.17</v>
+      </c>
+      <c r="AU119">
+        <v>1.03</v>
+      </c>
+      <c r="AV119">
+        <v>1.43</v>
+      </c>
+      <c r="AW119">
+        <v>2.46</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>6</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>3</v>
+      </c>
+      <c r="BI119">
+        <v>14</v>
+      </c>
+      <c r="BJ119">
+        <v>9</v>
+      </c>
+      <c r="BK119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5139373</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45158.35416666666</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>148</v>
+      </c>
+      <c r="P120" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120">
+        <v>4</v>
+      </c>
+      <c r="T120">
+        <v>8</v>
+      </c>
+      <c r="U120">
+        <v>2.38</v>
+      </c>
+      <c r="V120">
+        <v>1.8</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>3.04</v>
+      </c>
+      <c r="Y120">
+        <v>2.55</v>
+      </c>
+      <c r="Z120">
+        <v>1.46</v>
+      </c>
+      <c r="AA120">
+        <v>6.15</v>
+      </c>
+      <c r="AB120">
+        <v>1.09</v>
+      </c>
+      <c r="AC120">
+        <v>6.65</v>
+      </c>
+      <c r="AD120">
+        <v>3.97</v>
+      </c>
+      <c r="AE120">
+        <v>1.27</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>14.5</v>
+      </c>
+      <c r="AH120">
+        <v>1.22</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.75</v>
+      </c>
+      <c r="AK120">
+        <v>1.96</v>
+      </c>
+      <c r="AL120">
+        <v>2.15</v>
+      </c>
+      <c r="AM120">
+        <v>1.65</v>
+      </c>
+      <c r="AN120">
+        <v>2.9</v>
+      </c>
+      <c r="AO120">
+        <v>1.14</v>
+      </c>
+      <c r="AP120">
+        <v>1.07</v>
+      </c>
+      <c r="AQ120">
+        <v>0.91</v>
+      </c>
+      <c r="AR120">
+        <v>2.08</v>
+      </c>
+      <c r="AS120">
+        <v>1.08</v>
+      </c>
+      <c r="AT120">
+        <v>1.92</v>
+      </c>
+      <c r="AU120">
+        <v>1.58</v>
+      </c>
+      <c r="AV120">
+        <v>1.97</v>
+      </c>
+      <c r="AW120">
+        <v>3.55</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>9</v>
+      </c>
+      <c r="BG120">
+        <v>3</v>
+      </c>
+      <c r="BH120">
+        <v>4</v>
+      </c>
+      <c r="BI120">
+        <v>17</v>
+      </c>
+      <c r="BJ120">
+        <v>13</v>
+      </c>
+      <c r="BK120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5139375</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45158.5</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>66</v>
+      </c>
+      <c r="H121" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>149</v>
+      </c>
+      <c r="P121" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>7</v>
+      </c>
+      <c r="T121">
+        <v>10</v>
+      </c>
+      <c r="U121">
+        <v>2.5</v>
+      </c>
+      <c r="V121">
+        <v>1.62</v>
+      </c>
+      <c r="W121">
+        <v>1.31</v>
+      </c>
+      <c r="X121">
+        <v>3.15</v>
+      </c>
+      <c r="Y121">
+        <v>2.47</v>
+      </c>
+      <c r="Z121">
+        <v>1.48</v>
+      </c>
+      <c r="AA121">
+        <v>5.8</v>
+      </c>
+      <c r="AB121">
+        <v>1.1</v>
+      </c>
+      <c r="AC121">
+        <v>8.35</v>
+      </c>
+      <c r="AD121">
+        <v>4.4</v>
+      </c>
+      <c r="AE121">
+        <v>1.19</v>
+      </c>
+      <c r="AF121">
+        <v>1.03</v>
+      </c>
+      <c r="AG121">
+        <v>15.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.2</v>
+      </c>
+      <c r="AI121">
+        <v>4.2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.55</v>
+      </c>
+      <c r="AK121">
+        <v>2.3</v>
+      </c>
+      <c r="AL121">
+        <v>2.27</v>
+      </c>
+      <c r="AM121">
+        <v>1.6</v>
+      </c>
+      <c r="AN121">
+        <v>3.25</v>
+      </c>
+      <c r="AO121">
+        <v>1.11</v>
+      </c>
+      <c r="AP121">
+        <v>1.05</v>
+      </c>
+      <c r="AQ121">
+        <v>0.55</v>
+      </c>
+      <c r="AR121">
+        <v>2.45</v>
+      </c>
+      <c r="AS121">
+        <v>0.58</v>
+      </c>
+      <c r="AT121">
+        <v>2.33</v>
+      </c>
+      <c r="AU121">
+        <v>1.55</v>
+      </c>
+      <c r="AV121">
+        <v>2.03</v>
+      </c>
+      <c r="AW121">
+        <v>3.58</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>9</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>10</v>
+      </c>
+      <c r="BJ121">
+        <v>11</v>
+      </c>
+      <c r="BK121">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,15 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['70', '90+2']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['22', '33', '49', '54']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -650,6 +659,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT2">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1915,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2109,7 +2121,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2297,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT7">
         <v>1.23</v>
@@ -2488,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
         <v>0.77</v>
@@ -2592,7 +2604,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2682,7 +2694,7 @@
         <v>0.62</v>
       </c>
       <c r="AT9">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2873,7 +2885,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2974,7 +2986,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3165,7 +3177,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3252,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT12">
         <v>1.92</v>
@@ -3356,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3547,7 +3559,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3637,7 +3649,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3738,7 +3750,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4016,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT16">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4120,7 +4132,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4207,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT17">
         <v>0.77</v>
@@ -4401,7 +4413,7 @@
         <v>1.08</v>
       </c>
       <c r="AT18">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU18">
         <v>1.89</v>
@@ -4589,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT19">
         <v>1.23</v>
@@ -4693,7 +4705,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4783,7 +4795,7 @@
         <v>0.85</v>
       </c>
       <c r="AT20">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>1.59</v>
@@ -4971,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -5075,7 +5087,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5266,7 +5278,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5735,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT25">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5839,7 +5851,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6030,7 +6042,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6120,7 +6132,7 @@
         <v>1.08</v>
       </c>
       <c r="AT27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.91</v>
@@ -6221,7 +6233,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6308,10 +6320,10 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU28">
         <v>1.84</v>
@@ -6412,7 +6424,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6499,7 +6511,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT29">
         <v>1.17</v>
@@ -6690,10 +6702,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT30">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -6881,10 +6893,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7367,7 +7379,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7454,10 +7466,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>0.9</v>
@@ -7558,7 +7570,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7645,7 +7657,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT35">
         <v>2.33</v>
@@ -7836,10 +7848,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.25</v>
@@ -7940,7 +7952,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8131,7 +8143,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8218,7 +8230,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT38">
         <v>1.92</v>
@@ -8513,7 +8525,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8603,7 +8615,7 @@
         <v>0.85</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8704,7 +8716,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8791,7 +8803,7 @@
         <v>0.6</v>
       </c>
       <c r="AS41">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT41">
         <v>1.23</v>
@@ -8895,7 +8907,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8985,7 +8997,7 @@
         <v>0.62</v>
       </c>
       <c r="AT42">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -9086,7 +9098,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9176,7 +9188,7 @@
         <v>0.58</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9277,7 +9289,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9468,7 +9480,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9555,7 +9567,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT45">
         <v>1.92</v>
@@ -9746,10 +9758,10 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT46">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU46">
         <v>1.59</v>
@@ -9850,7 +9862,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9937,10 +9949,10 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT47">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU47">
         <v>1.23</v>
@@ -10041,7 +10053,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10128,7 +10140,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT48">
         <v>2.33</v>
@@ -10319,10 +10331,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT49">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10423,7 +10435,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10513,7 +10525,7 @@
         <v>0.85</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10614,7 +10626,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10805,7 +10817,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10895,7 +10907,7 @@
         <v>1.08</v>
       </c>
       <c r="AT52">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -11083,7 +11095,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT53">
         <v>1.17</v>
@@ -11187,7 +11199,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11274,10 +11286,10 @@
         <v>1.75</v>
       </c>
       <c r="AS54">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11378,7 +11390,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11569,7 +11581,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11656,10 +11668,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT56">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU56">
         <v>1.42</v>
@@ -11760,7 +11772,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11850,7 +11862,7 @@
         <v>0.85</v>
       </c>
       <c r="AT57">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12142,7 +12154,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12420,7 +12432,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT60">
         <v>1.92</v>
@@ -12524,7 +12536,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12715,7 +12727,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12802,7 +12814,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT62">
         <v>1.17</v>
@@ -12906,7 +12918,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12996,7 +13008,7 @@
         <v>1.08</v>
       </c>
       <c r="AT63">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU63">
         <v>1.53</v>
@@ -13097,7 +13109,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13184,7 +13196,7 @@
         <v>2.29</v>
       </c>
       <c r="AS64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
         <v>1.92</v>
@@ -13378,7 +13390,7 @@
         <v>1.08</v>
       </c>
       <c r="AT65">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13566,7 +13578,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
         <v>2.33</v>
@@ -13670,7 +13682,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13760,7 +13772,7 @@
         <v>0.62</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13861,7 +13873,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13948,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT68">
         <v>0.77</v>
@@ -14142,7 +14154,7 @@
         <v>0.58</v>
       </c>
       <c r="AT69">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14521,10 +14533,10 @@
         <v>2.17</v>
       </c>
       <c r="AS71">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14712,10 +14724,10 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT72">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>2.08</v>
@@ -14816,7 +14828,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14903,7 +14915,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT73">
         <v>1.17</v>
@@ -15007,7 +15019,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15097,7 +15109,7 @@
         <v>0.85</v>
       </c>
       <c r="AT74">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU74">
         <v>1.18</v>
@@ -15198,7 +15210,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15389,7 +15401,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15667,10 +15679,10 @@
         <v>2.17</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT77">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -15858,10 +15870,10 @@
         <v>0.71</v>
       </c>
       <c r="AS78">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT78">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU78">
         <v>1.15</v>
@@ -16240,10 +16252,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT80">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU80">
         <v>2.11</v>
@@ -16344,7 +16356,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16622,10 +16634,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU82">
         <v>1.35</v>
@@ -16726,7 +16738,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16816,7 +16828,7 @@
         <v>0.62</v>
       </c>
       <c r="AT83">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -16917,7 +16929,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17004,10 +17016,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.7</v>
@@ -17195,7 +17207,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT85">
         <v>0.77</v>
@@ -17490,7 +17502,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17577,10 +17589,10 @@
         <v>1.86</v>
       </c>
       <c r="AS87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU87">
         <v>1.19</v>
@@ -17872,7 +17884,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17962,7 +17974,7 @@
         <v>0.58</v>
       </c>
       <c r="AT89">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU89">
         <v>1.38</v>
@@ -18150,7 +18162,7 @@
         <v>2.78</v>
       </c>
       <c r="AS90">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT90">
         <v>2.33</v>
@@ -18344,7 +18356,7 @@
         <v>0.85</v>
       </c>
       <c r="AT91">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU91">
         <v>1.09</v>
@@ -18535,7 +18547,7 @@
         <v>0.62</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18723,7 +18735,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT93">
         <v>1.23</v>
@@ -18827,7 +18839,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18914,10 +18926,10 @@
         <v>2.1</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT94">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19105,7 +19117,7 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT95">
         <v>0.77</v>
@@ -19400,7 +19412,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19487,10 +19499,10 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT97">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19591,7 +19603,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19681,7 +19693,7 @@
         <v>0.58</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU98">
         <v>1.4</v>
@@ -20060,7 +20072,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT100">
         <v>1.17</v>
@@ -20254,7 +20266,7 @@
         <v>0.58</v>
       </c>
       <c r="AT101">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20442,10 +20454,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU102">
         <v>1.53</v>
@@ -20546,7 +20558,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20636,7 +20648,7 @@
         <v>1.08</v>
       </c>
       <c r="AT103">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU103">
         <v>1.59</v>
@@ -20824,7 +20836,7 @@
         <v>2.1</v>
       </c>
       <c r="AS104">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT104">
         <v>1.92</v>
@@ -20928,7 +20940,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21015,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>1.23</v>
@@ -21119,7 +21131,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21206,10 +21218,10 @@
         <v>2</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT106">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU106">
         <v>2.18</v>
@@ -21588,10 +21600,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU108">
         <v>2.22</v>
@@ -21779,7 +21791,7 @@
         <v>1.18</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT109">
         <v>1.23</v>
@@ -21883,7 +21895,7 @@
         <v>141</v>
       </c>
       <c r="P110" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22074,7 +22086,7 @@
         <v>76</v>
       </c>
       <c r="P111" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22164,7 +22176,7 @@
         <v>0.62</v>
       </c>
       <c r="AT111">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU111">
         <v>1.29</v>
@@ -22265,7 +22277,7 @@
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22546,7 +22558,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU113">
         <v>1.66</v>
@@ -22647,7 +22659,7 @@
         <v>143</v>
       </c>
       <c r="P114" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22734,10 +22746,10 @@
         <v>0.6</v>
       </c>
       <c r="AS114">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AT114">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU114">
         <v>1.81</v>
@@ -22838,7 +22850,7 @@
         <v>144</v>
       </c>
       <c r="P115" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -22925,7 +22937,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT115">
         <v>1.17</v>
@@ -23116,10 +23128,10 @@
         <v>1.64</v>
       </c>
       <c r="AS116">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU116">
         <v>1.46</v>
@@ -23220,7 +23232,7 @@
         <v>76</v>
       </c>
       <c r="P117" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23411,7 +23423,7 @@
         <v>146</v>
       </c>
       <c r="P118" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23602,7 +23614,7 @@
         <v>147</v>
       </c>
       <c r="P119" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -23793,7 +23805,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23984,7 +23996,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24126,6 +24138,961 @@
       </c>
       <c r="BK121">
         <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5139376</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45163.54166666666</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>65</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>150</v>
+      </c>
+      <c r="P122" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q122">
+        <v>14</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>15</v>
+      </c>
+      <c r="T122">
+        <v>1.57</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>8</v>
+      </c>
+      <c r="W122">
+        <v>1.2</v>
+      </c>
+      <c r="X122">
+        <v>4.1</v>
+      </c>
+      <c r="Y122">
+        <v>2.06</v>
+      </c>
+      <c r="Z122">
+        <v>1.78</v>
+      </c>
+      <c r="AA122">
+        <v>4.15</v>
+      </c>
+      <c r="AB122">
+        <v>1.19</v>
+      </c>
+      <c r="AC122">
+        <v>1.08</v>
+      </c>
+      <c r="AD122">
+        <v>7.3</v>
+      </c>
+      <c r="AE122">
+        <v>13.8</v>
+      </c>
+      <c r="AF122">
+        <v>1.02</v>
+      </c>
+      <c r="AG122">
+        <v>28.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.09</v>
+      </c>
+      <c r="AI122">
+        <v>5.8</v>
+      </c>
+      <c r="AJ122">
+        <v>1.31</v>
+      </c>
+      <c r="AK122">
+        <v>2.71</v>
+      </c>
+      <c r="AL122">
+        <v>2.14</v>
+      </c>
+      <c r="AM122">
+        <v>1.6</v>
+      </c>
+      <c r="AN122">
+        <v>1.02</v>
+      </c>
+      <c r="AO122">
+        <v>1.04</v>
+      </c>
+      <c r="AP122">
+        <v>5.4</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>0.64</v>
+      </c>
+      <c r="AS122">
+        <v>2.08</v>
+      </c>
+      <c r="AT122">
+        <v>0.58</v>
+      </c>
+      <c r="AU122">
+        <v>2.24</v>
+      </c>
+      <c r="AV122">
+        <v>1.03</v>
+      </c>
+      <c r="AW122">
+        <v>3.27</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>17</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>12</v>
+      </c>
+      <c r="BI122">
+        <v>3</v>
+      </c>
+      <c r="BJ122">
+        <v>29</v>
+      </c>
+      <c r="BK122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5139377</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>76</v>
+      </c>
+      <c r="P123" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q123">
+        <v>16</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>20</v>
+      </c>
+      <c r="T123">
+        <v>3</v>
+      </c>
+      <c r="U123">
+        <v>2.1</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>2.75</v>
+      </c>
+      <c r="Y123">
+        <v>2.75</v>
+      </c>
+      <c r="Z123">
+        <v>1.4</v>
+      </c>
+      <c r="AA123">
+        <v>6.75</v>
+      </c>
+      <c r="AB123">
+        <v>1.07</v>
+      </c>
+      <c r="AC123">
+        <v>2.47</v>
+      </c>
+      <c r="AD123">
+        <v>3.35</v>
+      </c>
+      <c r="AE123">
+        <v>2.61</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>9.75</v>
+      </c>
+      <c r="AH123">
+        <v>1.28</v>
+      </c>
+      <c r="AI123">
+        <v>3.5</v>
+      </c>
+      <c r="AJ123">
+        <v>1.85</v>
+      </c>
+      <c r="AK123">
+        <v>1.85</v>
+      </c>
+      <c r="AL123">
+        <v>1.7</v>
+      </c>
+      <c r="AM123">
+        <v>2.1</v>
+      </c>
+      <c r="AN123">
+        <v>1.4</v>
+      </c>
+      <c r="AO123">
+        <v>1.25</v>
+      </c>
+      <c r="AP123">
+        <v>1.45</v>
+      </c>
+      <c r="AQ123">
+        <v>0.82</v>
+      </c>
+      <c r="AR123">
+        <v>1.91</v>
+      </c>
+      <c r="AS123">
+        <v>0.83</v>
+      </c>
+      <c r="AT123">
+        <v>1.83</v>
+      </c>
+      <c r="AU123">
+        <v>1.3</v>
+      </c>
+      <c r="AV123">
+        <v>1.25</v>
+      </c>
+      <c r="AW123">
+        <v>2.55</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>3</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>18</v>
+      </c>
+      <c r="BI123">
+        <v>5</v>
+      </c>
+      <c r="BJ123">
+        <v>21</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5139378</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" t="s">
+        <v>66</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>151</v>
+      </c>
+      <c r="P124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>9</v>
+      </c>
+      <c r="T124">
+        <v>1.73</v>
+      </c>
+      <c r="U124">
+        <v>2.4</v>
+      </c>
+      <c r="V124">
+        <v>8.5</v>
+      </c>
+      <c r="W124">
+        <v>1.25</v>
+      </c>
+      <c r="X124">
+        <v>3.6</v>
+      </c>
+      <c r="Y124">
+        <v>2.4</v>
+      </c>
+      <c r="Z124">
+        <v>1.51</v>
+      </c>
+      <c r="AA124">
+        <v>4.7</v>
+      </c>
+      <c r="AB124">
+        <v>1.15</v>
+      </c>
+      <c r="AC124">
+        <v>1.27</v>
+      </c>
+      <c r="AD124">
+        <v>5.25</v>
+      </c>
+      <c r="AE124">
+        <v>9</v>
+      </c>
+      <c r="AF124">
+        <v>1.01</v>
+      </c>
+      <c r="AG124">
+        <v>12</v>
+      </c>
+      <c r="AH124">
+        <v>1.2</v>
+      </c>
+      <c r="AI124">
+        <v>4.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.57</v>
+      </c>
+      <c r="AK124">
+        <v>2.25</v>
+      </c>
+      <c r="AL124">
+        <v>1.95</v>
+      </c>
+      <c r="AM124">
+        <v>1.78</v>
+      </c>
+      <c r="AN124">
+        <v>1.03</v>
+      </c>
+      <c r="AO124">
+        <v>1.12</v>
+      </c>
+      <c r="AP124">
+        <v>3.25</v>
+      </c>
+      <c r="AQ124">
+        <v>2.45</v>
+      </c>
+      <c r="AR124">
+        <v>2.08</v>
+      </c>
+      <c r="AS124">
+        <v>2.33</v>
+      </c>
+      <c r="AT124">
+        <v>2</v>
+      </c>
+      <c r="AU124">
+        <v>1.88</v>
+      </c>
+      <c r="AV124">
+        <v>1.35</v>
+      </c>
+      <c r="AW124">
+        <v>3.23</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>2</v>
+      </c>
+      <c r="BG124">
+        <v>8</v>
+      </c>
+      <c r="BH124">
+        <v>8</v>
+      </c>
+      <c r="BI124">
+        <v>6</v>
+      </c>
+      <c r="BJ124">
+        <v>10</v>
+      </c>
+      <c r="BK124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5139379</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45165.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" t="s">
+        <v>67</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>76</v>
+      </c>
+      <c r="P125" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>3.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>2.88</v>
+      </c>
+      <c r="W125">
+        <v>1.48</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>3.15</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>7.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.06</v>
+      </c>
+      <c r="AC125">
+        <v>2.83</v>
+      </c>
+      <c r="AD125">
+        <v>3.09</v>
+      </c>
+      <c r="AE125">
+        <v>1.95</v>
+      </c>
+      <c r="AF125">
+        <v>1.07</v>
+      </c>
+      <c r="AG125">
+        <v>9.1</v>
+      </c>
+      <c r="AH125">
+        <v>1.38</v>
+      </c>
+      <c r="AI125">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125">
+        <v>2</v>
+      </c>
+      <c r="AK125">
+        <v>1.73</v>
+      </c>
+      <c r="AL125">
+        <v>1.9</v>
+      </c>
+      <c r="AM125">
+        <v>1.85</v>
+      </c>
+      <c r="AN125">
+        <v>1.53</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.28</v>
+      </c>
+      <c r="AQ125">
+        <v>1.09</v>
+      </c>
+      <c r="AR125">
+        <v>1.64</v>
+      </c>
+      <c r="AS125">
+        <v>1.08</v>
+      </c>
+      <c r="AT125">
+        <v>1.58</v>
+      </c>
+      <c r="AU125">
+        <v>1.58</v>
+      </c>
+      <c r="AV125">
+        <v>1.66</v>
+      </c>
+      <c r="AW125">
+        <v>3.24</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>8</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>16</v>
+      </c>
+      <c r="BK125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5139380</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45165.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="s">
+        <v>152</v>
+      </c>
+      <c r="P126" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>3</v>
+      </c>
+      <c r="S126">
+        <v>8</v>
+      </c>
+      <c r="T126">
+        <v>2.38</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>4.5</v>
+      </c>
+      <c r="W126">
+        <v>1.41</v>
+      </c>
+      <c r="X126">
+        <v>2.7</v>
+      </c>
+      <c r="Y126">
+        <v>2.88</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>7.2</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>1.71</v>
+      </c>
+      <c r="AD126">
+        <v>3.13</v>
+      </c>
+      <c r="AE126">
+        <v>3.51</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>10.75</v>
+      </c>
+      <c r="AH126">
+        <v>1.33</v>
+      </c>
+      <c r="AI126">
+        <v>3.1</v>
+      </c>
+      <c r="AJ126">
+        <v>1.84</v>
+      </c>
+      <c r="AK126">
+        <v>1.67</v>
+      </c>
+      <c r="AL126">
+        <v>1.9</v>
+      </c>
+      <c r="AM126">
+        <v>1.85</v>
+      </c>
+      <c r="AN126">
+        <v>1.16</v>
+      </c>
+      <c r="AO126">
+        <v>1.22</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>1.5</v>
+      </c>
+      <c r="AS126">
+        <v>1.62</v>
+      </c>
+      <c r="AT126">
+        <v>1.38</v>
+      </c>
+      <c r="AU126">
+        <v>1.65</v>
+      </c>
+      <c r="AV126">
+        <v>1.92</v>
+      </c>
+      <c r="AW126">
+        <v>3.57</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>10</v>
+      </c>
+      <c r="BK126">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -24954,13 +24954,13 @@
         <v>215</v>
       </c>
       <c r="Q126">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S126">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T126">
         <v>2.38</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="BF126">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BG126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH126">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ126">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BK126">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,18 @@
     <t>['22', '33', '49', '54']</t>
   </si>
   <si>
+    <t>['34', '64']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['11', '71']</t>
+  </si>
+  <si>
+    <t>['36', '83']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -574,9 +586,6 @@
     <t>['16', '36', '75']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['4', '90+2']</t>
   </si>
   <si>
@@ -662,6 +671,15 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['15', '42', '55', '71']</t>
+  </si>
+  <si>
+    <t>['42', '59']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.58</v>
@@ -1548,7 +1566,7 @@
         <v>0.58</v>
       </c>
       <c r="AT3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1736,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT4">
         <v>1.23</v>
@@ -1930,7 +1948,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2309,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>1.23</v>
@@ -2503,7 +2521,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2604,7 +2622,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2691,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2882,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT10">
         <v>1.38</v>
@@ -2986,7 +3004,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3076,7 +3094,7 @@
         <v>0.85</v>
       </c>
       <c r="AT11">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3177,7 +3195,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3264,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT12">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3368,7 +3386,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3559,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3649,7 +3667,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3750,7 +3768,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3837,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT15">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU15">
         <v>1.55</v>
@@ -4132,7 +4150,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4219,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4410,7 +4428,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT18">
         <v>0.58</v>
@@ -4705,7 +4723,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4795,7 +4813,7 @@
         <v>0.85</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU20">
         <v>1.59</v>
@@ -5087,7 +5105,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5174,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT22">
         <v>1.23</v>
@@ -5278,7 +5296,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5559,7 +5577,7 @@
         <v>0.85</v>
       </c>
       <c r="AT24">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5851,7 +5869,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5941,7 +5959,7 @@
         <v>0.58</v>
       </c>
       <c r="AT26">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -6042,7 +6060,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6129,10 +6147,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU27">
         <v>1.91</v>
@@ -6233,7 +6251,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6424,7 +6442,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6514,7 +6532,7 @@
         <v>0.83</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU29">
         <v>0.98</v>
@@ -6702,10 +6720,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -6893,7 +6911,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -7084,10 +7102,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT32">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7379,7 +7397,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7469,7 +7487,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU34">
         <v>0.9</v>
@@ -7570,7 +7588,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7848,10 +7866,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU36">
         <v>1.25</v>
@@ -7952,7 +7970,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8039,10 +8057,10 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT37">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8143,7 +8161,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8230,10 +8248,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8424,7 +8442,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8525,7 +8543,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8716,7 +8734,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8907,7 +8925,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8994,10 +9012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT42">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -9098,7 +9116,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9289,7 +9307,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9376,7 +9394,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT44">
         <v>2.33</v>
@@ -9480,7 +9498,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9570,7 +9588,7 @@
         <v>1.62</v>
       </c>
       <c r="AT45">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9758,7 +9776,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT46">
         <v>0.58</v>
@@ -9862,7 +9880,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9952,7 +9970,7 @@
         <v>1.62</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU47">
         <v>1.23</v>
@@ -10053,7 +10071,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10435,7 +10453,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10626,7 +10644,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10713,10 +10731,10 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT51">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10817,7 +10835,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -11095,10 +11113,10 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11199,7 +11217,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11286,10 +11304,10 @@
         <v>1.75</v>
       </c>
       <c r="AS54">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT54">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11390,7 +11408,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11480,7 +11498,7 @@
         <v>0.58</v>
       </c>
       <c r="AT55">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11581,7 +11599,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11772,7 +11790,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11862,7 +11880,7 @@
         <v>0.85</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12050,10 +12068,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT58">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12154,7 +12172,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12432,10 +12450,10 @@
         <v>2.17</v>
       </c>
       <c r="AS60">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT60">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12536,7 +12554,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12623,7 +12641,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT61">
         <v>2.33</v>
@@ -12727,7 +12745,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12814,10 +12832,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
+        <v>1.23</v>
+      </c>
+      <c r="AT62">
         <v>1.08</v>
-      </c>
-      <c r="AT62">
-        <v>1.17</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -12918,7 +12936,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13008,7 +13026,7 @@
         <v>1.08</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU63">
         <v>1.53</v>
@@ -13109,7 +13127,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13199,7 +13217,7 @@
         <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU64">
         <v>1.22</v>
@@ -13387,10 +13405,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13578,7 +13596,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT66">
         <v>2.33</v>
@@ -13682,7 +13700,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13769,7 +13787,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT67">
         <v>1.38</v>
@@ -13873,7 +13891,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13963,7 +13981,7 @@
         <v>1.62</v>
       </c>
       <c r="AT68">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14345,7 +14363,7 @@
         <v>0.85</v>
       </c>
       <c r="AT70">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -14724,10 +14742,10 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU72">
         <v>2.08</v>
@@ -14828,7 +14846,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14918,7 +14936,7 @@
         <v>2.33</v>
       </c>
       <c r="AT73">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15019,7 +15037,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15210,7 +15228,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15297,7 +15315,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT75">
         <v>1.23</v>
@@ -15401,7 +15419,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15491,7 +15509,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU76">
         <v>1.6</v>
@@ -15682,7 +15700,7 @@
         <v>1.62</v>
       </c>
       <c r="AT77">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -16252,7 +16270,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.58</v>
@@ -16356,7 +16374,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16738,7 +16756,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16825,7 +16843,7 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT83">
         <v>1.58</v>
@@ -16929,7 +16947,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17019,7 +17037,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU84">
         <v>1.7</v>
@@ -17207,10 +17225,10 @@
         <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT85">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17502,7 +17520,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17592,7 +17610,7 @@
         <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU87">
         <v>1.19</v>
@@ -17780,10 +17798,10 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
+        <v>1.21</v>
+      </c>
+      <c r="AT88">
         <v>1.08</v>
-      </c>
-      <c r="AT88">
-        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.63</v>
@@ -17884,7 +17902,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18544,7 +18562,7 @@
         <v>1.75</v>
       </c>
       <c r="AS92">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT92">
         <v>1.38</v>
@@ -18839,7 +18857,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18929,7 +18947,7 @@
         <v>1.62</v>
       </c>
       <c r="AT94">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU94">
         <v>1.51</v>
@@ -19117,10 +19135,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19308,7 +19326,7 @@
         <v>2.6</v>
       </c>
       <c r="AS96">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT96">
         <v>2.33</v>
@@ -19412,7 +19430,7 @@
         <v>76</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>11</v>
@@ -19499,10 +19517,10 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT97">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU97">
         <v>1.44</v>
@@ -19603,7 +19621,7 @@
         <v>132</v>
       </c>
       <c r="P98" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19881,10 +19899,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT99">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU99">
         <v>1.24</v>
@@ -20075,7 +20093,7 @@
         <v>2.33</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.77</v>
@@ -20266,7 +20284,7 @@
         <v>0.58</v>
       </c>
       <c r="AT101">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU101">
         <v>1.48</v>
@@ -20558,7 +20576,7 @@
         <v>76</v>
       </c>
       <c r="P103" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20839,7 +20857,7 @@
         <v>0.83</v>
       </c>
       <c r="AT104">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU104">
         <v>1.3</v>
@@ -20940,7 +20958,7 @@
         <v>137</v>
       </c>
       <c r="P105" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21027,7 +21045,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>1.23</v>
@@ -21131,7 +21149,7 @@
         <v>107</v>
       </c>
       <c r="P106" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q106">
         <v>19</v>
@@ -21218,10 +21236,10 @@
         <v>2</v>
       </c>
       <c r="AS106">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT106">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU106">
         <v>2.18</v>
@@ -21412,7 +21430,7 @@
         <v>1.08</v>
       </c>
       <c r="AT107">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU107">
         <v>1.55</v>
@@ -21600,7 +21618,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>1.38</v>
@@ -21895,7 +21913,7 @@
         <v>141</v>
       </c>
       <c r="P110" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -21985,7 +22003,7 @@
         <v>0.58</v>
       </c>
       <c r="AT110">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU110">
         <v>1.53</v>
@@ -22086,7 +22104,7 @@
         <v>76</v>
       </c>
       <c r="P111" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22173,7 +22191,7 @@
         <v>1.5</v>
       </c>
       <c r="AS111">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT111">
         <v>1.58</v>
@@ -22277,7 +22295,7 @@
         <v>76</v>
       </c>
       <c r="P112" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22367,7 +22385,7 @@
         <v>0.85</v>
       </c>
       <c r="AT112">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU112">
         <v>1.06</v>
@@ -22555,10 +22573,10 @@
         <v>2.18</v>
       </c>
       <c r="AS113">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT113">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU113">
         <v>1.66</v>
@@ -22659,7 +22677,7 @@
         <v>143</v>
       </c>
       <c r="P114" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22850,7 +22868,7 @@
         <v>144</v>
       </c>
       <c r="P115" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -22940,7 +22958,7 @@
         <v>0.83</v>
       </c>
       <c r="AT115">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU115">
         <v>1.26</v>
@@ -23128,7 +23146,7 @@
         <v>1.64</v>
       </c>
       <c r="AS116">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT116">
         <v>1.38</v>
@@ -23232,7 +23250,7 @@
         <v>76</v>
       </c>
       <c r="P117" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23319,7 +23337,7 @@
         <v>1.08</v>
       </c>
       <c r="AS117">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT117">
         <v>1.23</v>
@@ -23423,7 +23441,7 @@
         <v>146</v>
       </c>
       <c r="P118" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23510,10 +23528,10 @@
         <v>0.83</v>
       </c>
       <c r="AS118">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT118">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU118">
         <v>1.67</v>
@@ -23614,7 +23632,7 @@
         <v>147</v>
       </c>
       <c r="P119" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -23704,7 +23722,7 @@
         <v>0.85</v>
       </c>
       <c r="AT119">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.03</v>
@@ -23805,7 +23823,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23895,7 +23913,7 @@
         <v>1.08</v>
       </c>
       <c r="AT120">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU120">
         <v>1.58</v>
@@ -23996,7 +24014,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -24274,7 +24292,7 @@
         <v>0.64</v>
       </c>
       <c r="AS122">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT122">
         <v>0.58</v>
@@ -24468,7 +24486,7 @@
         <v>0.83</v>
       </c>
       <c r="AT123">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU123">
         <v>1.3</v>
@@ -24659,7 +24677,7 @@
         <v>2.33</v>
       </c>
       <c r="AT124">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU124">
         <v>1.88</v>
@@ -24847,7 +24865,7 @@
         <v>1.64</v>
       </c>
       <c r="AS125">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT125">
         <v>1.58</v>
@@ -24951,7 +24969,7 @@
         <v>152</v>
       </c>
       <c r="P126" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25093,6 +25111,961 @@
       </c>
       <c r="BK126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5139381</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45170.5</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>66</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>153</v>
+      </c>
+      <c r="P127" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>2.6</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>3.7</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.85</v>
+      </c>
+      <c r="Z127">
+        <v>1.37</v>
+      </c>
+      <c r="AA127">
+        <v>7.1</v>
+      </c>
+      <c r="AB127">
+        <v>1.07</v>
+      </c>
+      <c r="AC127">
+        <v>2.38</v>
+      </c>
+      <c r="AD127">
+        <v>3.4</v>
+      </c>
+      <c r="AE127">
+        <v>2.72</v>
+      </c>
+      <c r="AF127">
+        <v>1.05</v>
+      </c>
+      <c r="AG127">
+        <v>11</v>
+      </c>
+      <c r="AH127">
+        <v>1.3</v>
+      </c>
+      <c r="AI127">
+        <v>3.2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.85</v>
+      </c>
+      <c r="AK127">
+        <v>1.86</v>
+      </c>
+      <c r="AL127">
+        <v>1.72</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.4</v>
+      </c>
+      <c r="AO127">
+        <v>1.28</v>
+      </c>
+      <c r="AP127">
+        <v>1.5</v>
+      </c>
+      <c r="AQ127">
+        <v>1.08</v>
+      </c>
+      <c r="AR127">
+        <v>2</v>
+      </c>
+      <c r="AS127">
+        <v>1.23</v>
+      </c>
+      <c r="AT127">
+        <v>1.86</v>
+      </c>
+      <c r="AU127">
+        <v>1.62</v>
+      </c>
+      <c r="AV127">
+        <v>1.4</v>
+      </c>
+      <c r="AW127">
+        <v>3.02</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>7</v>
+      </c>
+      <c r="BH127">
+        <v>6</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>12</v>
+      </c>
+      <c r="BK127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5139383</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45171.35416666666</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>76</v>
+      </c>
+      <c r="P128" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q128">
+        <v>9</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>3.3</v>
+      </c>
+      <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
+        <v>2.95</v>
+      </c>
+      <c r="W128">
+        <v>1.37</v>
+      </c>
+      <c r="X128">
+        <v>2.85</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>6.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.1</v>
+      </c>
+      <c r="AC128">
+        <v>2.52</v>
+      </c>
+      <c r="AD128">
+        <v>3.2</v>
+      </c>
+      <c r="AE128">
+        <v>2.44</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>11.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.32</v>
+      </c>
+      <c r="AI128">
+        <v>3.1</v>
+      </c>
+      <c r="AJ128">
+        <v>2.02</v>
+      </c>
+      <c r="AK128">
+        <v>1.8</v>
+      </c>
+      <c r="AL128">
+        <v>1.75</v>
+      </c>
+      <c r="AM128">
+        <v>1.97</v>
+      </c>
+      <c r="AN128">
+        <v>1.68</v>
+      </c>
+      <c r="AO128">
+        <v>1.23</v>
+      </c>
+      <c r="AP128">
+        <v>1.32</v>
+      </c>
+      <c r="AQ128">
+        <v>0.62</v>
+      </c>
+      <c r="AR128">
+        <v>1.83</v>
+      </c>
+      <c r="AS128">
+        <v>0.57</v>
+      </c>
+      <c r="AT128">
+        <v>1.92</v>
+      </c>
+      <c r="AU128">
+        <v>1.19</v>
+      </c>
+      <c r="AV128">
+        <v>1.22</v>
+      </c>
+      <c r="AW128">
+        <v>2.41</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>7</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>4</v>
+      </c>
+      <c r="BJ128">
+        <v>11</v>
+      </c>
+      <c r="BK128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5139382</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>154</v>
+      </c>
+      <c r="P129" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>8</v>
+      </c>
+      <c r="S129">
+        <v>12</v>
+      </c>
+      <c r="T129">
+        <v>2.45</v>
+      </c>
+      <c r="U129">
+        <v>2.25</v>
+      </c>
+      <c r="V129">
+        <v>3.6</v>
+      </c>
+      <c r="W129">
+        <v>1.35</v>
+      </c>
+      <c r="X129">
+        <v>2.95</v>
+      </c>
+      <c r="Y129">
+        <v>2.5</v>
+      </c>
+      <c r="Z129">
+        <v>1.47</v>
+      </c>
+      <c r="AA129">
+        <v>5.7</v>
+      </c>
+      <c r="AB129">
+        <v>1.11</v>
+      </c>
+      <c r="AC129">
+        <v>1.73</v>
+      </c>
+      <c r="AD129">
+        <v>3.15</v>
+      </c>
+      <c r="AE129">
+        <v>3.64</v>
+      </c>
+      <c r="AF129">
+        <v>1</v>
+      </c>
+      <c r="AG129">
+        <v>13.75</v>
+      </c>
+      <c r="AH129">
+        <v>1.2</v>
+      </c>
+      <c r="AI129">
+        <v>4</v>
+      </c>
+      <c r="AJ129">
+        <v>1.73</v>
+      </c>
+      <c r="AK129">
+        <v>1.78</v>
+      </c>
+      <c r="AL129">
+        <v>1.6</v>
+      </c>
+      <c r="AM129">
+        <v>2.2</v>
+      </c>
+      <c r="AN129">
+        <v>1.22</v>
+      </c>
+      <c r="AO129">
+        <v>1.27</v>
+      </c>
+      <c r="AP129">
+        <v>1.8</v>
+      </c>
+      <c r="AQ129">
+        <v>1.08</v>
+      </c>
+      <c r="AR129">
+        <v>0.77</v>
+      </c>
+      <c r="AS129">
+        <v>1.08</v>
+      </c>
+      <c r="AT129">
+        <v>0.79</v>
+      </c>
+      <c r="AU129">
+        <v>1.59</v>
+      </c>
+      <c r="AV129">
+        <v>1.3</v>
+      </c>
+      <c r="AW129">
+        <v>2.89</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>3</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>6</v>
+      </c>
+      <c r="BI129">
+        <v>9</v>
+      </c>
+      <c r="BJ129">
+        <v>9</v>
+      </c>
+      <c r="BK129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5139384</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45172.35416666666</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>67</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>155</v>
+      </c>
+      <c r="P130" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q130">
+        <v>5</v>
+      </c>
+      <c r="R130">
+        <v>6</v>
+      </c>
+      <c r="S130">
+        <v>11</v>
+      </c>
+      <c r="T130">
+        <v>2.55</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
+        <v>3.8</v>
+      </c>
+      <c r="W130">
+        <v>1.45</v>
+      </c>
+      <c r="X130">
+        <v>2.55</v>
+      </c>
+      <c r="Y130">
+        <v>3</v>
+      </c>
+      <c r="Z130">
+        <v>1.33</v>
+      </c>
+      <c r="AA130">
+        <v>7.25</v>
+      </c>
+      <c r="AB130">
+        <v>1.06</v>
+      </c>
+      <c r="AC130">
+        <v>2.04</v>
+      </c>
+      <c r="AD130">
+        <v>3.27</v>
+      </c>
+      <c r="AE130">
+        <v>3.39</v>
+      </c>
+      <c r="AF130">
+        <v>1.06</v>
+      </c>
+      <c r="AG130">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH130">
+        <v>1.35</v>
+      </c>
+      <c r="AI130">
+        <v>2.95</v>
+      </c>
+      <c r="AJ130">
+        <v>1.93</v>
+      </c>
+      <c r="AK130">
+        <v>1.83</v>
+      </c>
+      <c r="AL130">
+        <v>1.87</v>
+      </c>
+      <c r="AM130">
+        <v>1.83</v>
+      </c>
+      <c r="AN130">
+        <v>1.38</v>
+      </c>
+      <c r="AO130">
+        <v>1.3</v>
+      </c>
+      <c r="AP130">
+        <v>1.5</v>
+      </c>
+      <c r="AQ130">
+        <v>1.08</v>
+      </c>
+      <c r="AR130">
+        <v>1.17</v>
+      </c>
+      <c r="AS130">
+        <v>1.21</v>
+      </c>
+      <c r="AT130">
+        <v>1.08</v>
+      </c>
+      <c r="AU130">
+        <v>1.76</v>
+      </c>
+      <c r="AV130">
+        <v>1.47</v>
+      </c>
+      <c r="AW130">
+        <v>3.23</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>10</v>
+      </c>
+      <c r="BH130">
+        <v>4</v>
+      </c>
+      <c r="BI130">
+        <v>9</v>
+      </c>
+      <c r="BJ130">
+        <v>11</v>
+      </c>
+      <c r="BK130">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5139385</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>65</v>
+      </c>
+      <c r="H131" t="s">
+        <v>68</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>156</v>
+      </c>
+      <c r="P131" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q131">
+        <v>7</v>
+      </c>
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131">
+        <v>13</v>
+      </c>
+      <c r="T131">
+        <v>2.85</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
+        <v>3.75</v>
+      </c>
+      <c r="W131">
+        <v>1.45</v>
+      </c>
+      <c r="X131">
+        <v>2.6</v>
+      </c>
+      <c r="Y131">
+        <v>2.94</v>
+      </c>
+      <c r="Z131">
+        <v>1.35</v>
+      </c>
+      <c r="AA131">
+        <v>7.6</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>2.13</v>
+      </c>
+      <c r="AD131">
+        <v>3.05</v>
+      </c>
+      <c r="AE131">
+        <v>3.1</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>7.6</v>
+      </c>
+      <c r="AH131">
+        <v>1.33</v>
+      </c>
+      <c r="AI131">
+        <v>3.1</v>
+      </c>
+      <c r="AJ131">
+        <v>2.1</v>
+      </c>
+      <c r="AK131">
+        <v>1.65</v>
+      </c>
+      <c r="AL131">
+        <v>1.78</v>
+      </c>
+      <c r="AM131">
+        <v>1.95</v>
+      </c>
+      <c r="AN131">
+        <v>1.28</v>
+      </c>
+      <c r="AO131">
+        <v>1.32</v>
+      </c>
+      <c r="AP131">
+        <v>1.6</v>
+      </c>
+      <c r="AQ131">
+        <v>2.08</v>
+      </c>
+      <c r="AR131">
+        <v>1.92</v>
+      </c>
+      <c r="AS131">
+        <v>2</v>
+      </c>
+      <c r="AT131">
+        <v>1.86</v>
+      </c>
+      <c r="AU131">
+        <v>2.33</v>
+      </c>
+      <c r="AV131">
+        <v>1.98</v>
+      </c>
+      <c r="AW131">
+        <v>4.31</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>7</v>
+      </c>
+      <c r="BH131">
+        <v>4</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>7</v>
+      </c>
+      <c r="BK131">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1.21</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>0.77</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT19" t="n">
         <v>1.14</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.86</v>
@@ -4760,7 +4760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5166,7 +5166,7 @@
         <v>1.08</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>0.79</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT25" t="n">
         <v>1.46</v>
@@ -6790,7 +6790,7 @@
         <v>1.23</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -7193,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.14</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>1.46</v>
@@ -9226,7 +9226,7 @@
         <v>0.77</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9429,7 +9429,7 @@
         <v>1.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU44" t="n">
         <v>1.67</v>
@@ -9629,7 +9629,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT45" t="n">
         <v>1.86</v>
@@ -10035,7 +10035,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>1.86</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU48" t="n">
         <v>1.43</v>
@@ -10644,10 +10644,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.16</v>
@@ -11862,7 +11862,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT56" t="n">
         <v>0.54</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>1.86</v>
@@ -12474,7 +12474,7 @@
         <v>1.08</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU59" t="n">
         <v>1.62</v>
@@ -12880,7 +12880,7 @@
         <v>0.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU61" t="n">
         <v>1.39</v>
@@ -13895,7 +13895,7 @@
         <v>1.23</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU66" t="n">
         <v>1.46</v>
@@ -14098,7 +14098,7 @@
         <v>0.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT68" t="n">
         <v>0.79</v>
@@ -14704,7 +14704,7 @@
         <v>2.13</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.86</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.22</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>0.54</v>
@@ -16125,7 +16125,7 @@
         <v>2.17</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT77" t="n">
         <v>1.92</v>
@@ -16937,10 +16937,10 @@
         <v>2.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.35</v>
@@ -18767,7 +18767,7 @@
         <v>2.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU90" t="n">
         <v>1.75</v>
@@ -18967,7 +18967,7 @@
         <v>1.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
         <v>1.46</v>
@@ -19173,7 +19173,7 @@
         <v>0.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19576,7 +19576,7 @@
         <v>2.1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT94" t="n">
         <v>1.86</v>
@@ -19985,7 +19985,7 @@
         <v>1.21</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20391,7 +20391,7 @@
         <v>0.77</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU98" t="n">
         <v>1.4</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT102" t="n">
         <v>0.54</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU108" t="n">
         <v>2.22</v>
@@ -22621,7 +22621,7 @@
         <v>1.18</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT109" t="n">
         <v>1.14</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>1.86</v>
@@ -24045,7 +24045,7 @@
         <v>1.23</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>1.18</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
         <v>1.08</v>
@@ -25060,7 +25060,7 @@
         <v>0.77</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -27612,13 +27612,13 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S134" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T134" t="n">
         <v>2.38</v>
@@ -27735,22 +27735,428 @@
         <v>0</v>
       </c>
       <c r="BF134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5139389</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45186.35416666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>27</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>8</v>
+      </c>
+      <c r="T135" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
         <v>4</v>
       </c>
-      <c r="BG134" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH134" t="n">
+      <c r="BG135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5139390</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45186.45833333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
         <v>3</v>
       </c>
-      <c r="BI134" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ134" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['30', '52', '76']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>2</v>
+      </c>
+      <c r="R136" t="n">
+        <v>10</v>
+      </c>
+      <c r="S136" t="n">
+        <v>12</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
         <v>7</v>
       </c>
-      <c r="BK134" t="n">
-        <v>4</v>
+      <c r="BG136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1.14</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT7" t="n">
         <v>1.14</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>1.72</v>
@@ -2324,7 +2324,7 @@
         <v>0.57</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
         <v>1.86</v>
@@ -3339,7 +3339,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU14" t="n">
         <v>2.35</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU17" t="n">
         <v>1.75</v>
@@ -4148,10 +4148,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>1.89</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>1.14</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU24" t="n">
         <v>1.29</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>1.46</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6178,10 +6178,10 @@
         <v>0.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.84</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU30" t="n">
         <v>1.97</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1.86</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>2.23</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU36" t="n">
         <v>1.25</v>
@@ -8008,7 +8008,7 @@
         <v>0.57</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU37" t="n">
         <v>1.36</v>
@@ -8208,7 +8208,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT38" t="n">
         <v>1.86</v>
@@ -9023,7 +9023,7 @@
         <v>0.57</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU42" t="n">
         <v>1.54</v>
@@ -9226,7 +9226,7 @@
         <v>0.77</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
         <v>2.23</v>
@@ -9629,7 +9629,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1.86</v>
@@ -9832,10 +9832,10 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.59</v>
@@ -10035,10 +10035,10 @@
         <v>2.4</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT49" t="n">
         <v>1.46</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.16</v>
@@ -11253,7 +11253,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT53" t="n">
         <v>1.08</v>
@@ -11456,10 +11456,10 @@
         <v>1.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU54" t="n">
         <v>1.7</v>
@@ -11662,7 +11662,7 @@
         <v>0.77</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11862,10 +11862,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU56" t="n">
         <v>1.42</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU57" t="n">
         <v>1.2</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12674,7 +12674,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT60" t="n">
         <v>1.86</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT62" t="n">
         <v>1.08</v>
@@ -13286,7 +13286,7 @@
         <v>1.08</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU63" t="n">
         <v>1.53</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -13892,7 +13892,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT66" t="n">
         <v>2.23</v>
@@ -14098,7 +14098,7 @@
         <v>0.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU68" t="n">
         <v>1.38</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.22</v>
@@ -15110,10 +15110,10 @@
         <v>2.63</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU72" t="n">
         <v>2.08</v>
@@ -15313,7 +15313,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT73" t="n">
         <v>1.08</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>1.18</v>
@@ -15719,7 +15719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
@@ -16125,10 +16125,10 @@
         <v>2.17</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU77" t="n">
         <v>1.39</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.15</v>
@@ -16734,7 +16734,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT80" t="n">
         <v>1.46</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.35</v>
@@ -17546,10 +17546,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.7</v>
@@ -17749,10 +17749,10 @@
         <v>1.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU85" t="n">
         <v>1.42</v>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU87" t="n">
         <v>1.19</v>
@@ -18358,7 +18358,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>1.08</v>
@@ -18564,7 +18564,7 @@
         <v>0.77</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.38</v>
@@ -18764,7 +18764,7 @@
         <v>2.78</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT90" t="n">
         <v>2.23</v>
@@ -19173,7 +19173,7 @@
         <v>0.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19373,7 +19373,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT93" t="n">
         <v>1.14</v>
@@ -19576,10 +19576,10 @@
         <v>2.1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -19779,10 +19779,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU95" t="n">
         <v>2.05</v>
@@ -19982,7 +19982,7 @@
         <v>2.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>2.23</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU97" t="n">
         <v>1.44</v>
@@ -20391,7 +20391,7 @@
         <v>0.77</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU98" t="n">
         <v>1.4</v>
@@ -20594,7 +20594,7 @@
         <v>0.57</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.24</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT100" t="n">
         <v>1.08</v>
@@ -21000,7 +21000,7 @@
         <v>0.77</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU101" t="n">
         <v>1.48</v>
@@ -21200,10 +21200,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU102" t="n">
         <v>1.53</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT105" t="n">
         <v>1.14</v>
@@ -22012,10 +22012,10 @@
         <v>2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU106" t="n">
         <v>2.18</v>
@@ -22218,7 +22218,7 @@
         <v>1.08</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.55</v>
@@ -22418,10 +22418,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU108" t="n">
         <v>2.22</v>
@@ -22621,7 +22621,7 @@
         <v>1.18</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
         <v>1.14</v>
@@ -22827,7 +22827,7 @@
         <v>0.77</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.53</v>
@@ -23433,10 +23433,10 @@
         <v>2.18</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU113" t="n">
         <v>1.66</v>
@@ -23636,10 +23636,10 @@
         <v>0.6</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU114" t="n">
         <v>1.81</v>
@@ -24042,10 +24042,10 @@
         <v>1.64</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU116" t="n">
         <v>1.46</v>
@@ -24448,10 +24448,10 @@
         <v>0.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -25260,10 +25260,10 @@
         <v>0.64</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU122" t="n">
         <v>2.24</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU123" t="n">
         <v>1.3</v>
@@ -25666,10 +25666,10 @@
         <v>2.08</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -25869,7 +25869,7 @@
         <v>1.64</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT125" t="n">
         <v>1.46</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -26275,10 +26275,10 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.62</v>
@@ -26481,7 +26481,7 @@
         <v>0.57</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU128" t="n">
         <v>1.19</v>
@@ -26684,7 +26684,7 @@
         <v>1.08</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT130" t="n">
         <v>1.08</v>
@@ -27087,7 +27087,7 @@
         <v>1.92</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT131" t="n">
         <v>1.86</v>
@@ -27496,7 +27496,7 @@
         <v>0.77</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27696,7 +27696,7 @@
         <v>1.58</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT134" t="n">
         <v>1.46</v>
@@ -27899,7 +27899,7 @@
         <v>2.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
         <v>2.23</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU136" t="n">
         <v>1.05</v>
@@ -28157,6 +28157,1021 @@
       </c>
       <c r="BK136" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5139395</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45191.57291666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>11</v>
+      </c>
+      <c r="R137" t="n">
+        <v>5</v>
+      </c>
+      <c r="S137" t="n">
+        <v>16</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V137" t="n">
+        <v>12</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5139391</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45192.35416666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['45', '52', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>9</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5139394</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45192.35416666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['2', '20', '36']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>10</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>15</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5139392</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>5</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['21', '59', '65', '90+3']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>6</v>
+      </c>
+      <c r="S140" t="n">
+        <v>12</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>6</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5139393</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45192.5625</v>
+      </c>
+      <c r="F141" t="n">
+        <v>28</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['20', '28', '47', '58']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>8</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V141" t="n">
+        <v>11</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -28344,22 +28344,22 @@
         <v>0</v>
       </c>
       <c r="BF137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG137" t="n">
         <v>3</v>
       </c>
       <c r="BH137" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI137" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ137" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BK137" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -29033,13 +29033,13 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R141" t="n">
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T141" t="n">
         <v>1.67</v>
@@ -29156,22 +29156,22 @@
         <v>0</v>
       </c>
       <c r="BF141" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BG141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH141" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BI141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ141" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BK141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ143"/>
+  <dimension ref="A1:AZ146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.21</v>
@@ -1179,7 +1179,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR7" t="n">
         <v>1.84</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.21</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR13" t="n">
         <v>0.78</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.73</v>
@@ -4239,7 +4239,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR22" t="n">
         <v>1.58</v>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -4576,7 +4576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.73</v>
@@ -4749,7 +4749,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.93</v>
@@ -5426,7 +5426,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.21</v>
@@ -6106,10 +6106,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -6276,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.73</v>
@@ -6449,7 +6449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR35" t="n">
         <v>1.46</v>
@@ -7296,10 +7296,10 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR40" t="n">
         <v>1.08</v>
@@ -7466,10 +7466,10 @@
         <v>0.6</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR41" t="n">
         <v>1.33</v>
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.2</v>
@@ -7979,7 +7979,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR44" t="n">
         <v>1.67</v>
@@ -8656,10 +8656,10 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR48" t="n">
         <v>1.43</v>
@@ -8829,7 +8829,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR49" t="n">
         <v>1.82</v>
@@ -8996,7 +8996,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.2</v>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR52" t="n">
         <v>1.59</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.73</v>
@@ -10186,7 +10186,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.73</v>
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR59" t="n">
         <v>1.62</v>
@@ -10869,7 +10869,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -11376,7 +11376,7 @@
         <v>2.29</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.93</v>
@@ -11719,7 +11719,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.46</v>
@@ -12226,10 +12226,10 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR69" t="n">
         <v>1.36</v>
@@ -12396,7 +12396,7 @@
         <v>2.13</v>
       </c>
       <c r="AP70" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.93</v>
@@ -12566,7 +12566,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.2</v>
@@ -13076,7 +13076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.71</v>
@@ -13249,7 +13249,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR75" t="n">
         <v>1.74</v>
@@ -13756,7 +13756,7 @@
         <v>0.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.71</v>
@@ -13926,10 +13926,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -14099,7 +14099,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR80" t="n">
         <v>2.11</v>
@@ -14266,10 +14266,10 @@
         <v>2.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -14609,7 +14609,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -15286,7 +15286,7 @@
         <v>1.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.79</v>
@@ -15626,7 +15626,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.71</v>
@@ -15799,7 +15799,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -15966,10 +15966,10 @@
         <v>1.38</v>
       </c>
       <c r="AP91" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR91" t="n">
         <v>1.09</v>
@@ -16309,7 +16309,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -16819,7 +16819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR96" t="n">
         <v>1.64</v>
@@ -17156,7 +17156,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.2</v>
@@ -17666,7 +17666,7 @@
         <v>2.11</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.79</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -18176,7 +18176,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.93</v>
@@ -18349,7 +18349,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -19029,7 +19029,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR109" t="n">
         <v>1.53</v>
@@ -19196,7 +19196,7 @@
         <v>0.82</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.73</v>
@@ -19369,7 +19369,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR111" t="n">
         <v>1.29</v>
@@ -19536,7 +19536,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.93</v>
@@ -20046,7 +20046,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.21</v>
@@ -20389,7 +20389,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR117" t="n">
         <v>1.24</v>
@@ -20726,7 +20726,7 @@
         <v>1.18</v>
       </c>
       <c r="AP119" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.21</v>
@@ -21066,10 +21066,10 @@
         <v>2.45</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR121" t="n">
         <v>1.55</v>
@@ -21406,7 +21406,7 @@
         <v>1.91</v>
       </c>
       <c r="AP123" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.79</v>
@@ -21749,7 +21749,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR125" t="n">
         <v>1.58</v>
@@ -22936,10 +22936,10 @@
         <v>1.23</v>
       </c>
       <c r="AP132" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR132" t="n">
         <v>1.38</v>
@@ -23106,7 +23106,7 @@
         <v>0.58</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.71</v>
@@ -23279,7 +23279,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR134" t="n">
         <v>1.84</v>
@@ -23449,7 +23449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -23616,7 +23616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP136" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.2</v>
@@ -24654,19 +24654,19 @@
         <v>4</v>
       </c>
       <c r="AV142" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW142" t="n">
         <v>5</v>
       </c>
       <c r="AX142" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY142" t="n">
         <v>9</v>
       </c>
       <c r="AZ142" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -24836,6 +24836,516 @@
         <v>5</v>
       </c>
       <c r="AZ143" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5139397</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45196.45833333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['28', '75']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>5</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X144" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5139400</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45196.54166666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['47', '50']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>9</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5139398</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45196.54166666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>29</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>5</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['30', '90+8', '90+9']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['59', '68']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X146" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ146" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ146"/>
+  <dimension ref="A1:AZ148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.73</v>
@@ -2369,7 +2369,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR15" t="n">
         <v>1.55</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.07</v>
@@ -4749,7 +4749,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -5426,10 +5426,10 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR29" t="n">
         <v>0.98</v>
@@ -6276,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.73</v>
@@ -6786,7 +6786,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.73</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR39" t="n">
         <v>1.48</v>
@@ -7299,7 +7299,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR40" t="n">
         <v>1.08</v>
@@ -7466,7 +7466,7 @@
         <v>0.6</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.07</v>
@@ -7636,7 +7636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.79</v>
@@ -8656,7 +8656,7 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.29</v>
@@ -8829,7 +8829,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR49" t="n">
         <v>1.82</v>
@@ -9166,7 +9166,7 @@
         <v>2.6</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.93</v>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR52" t="n">
         <v>1.59</v>
@@ -9509,7 +9509,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR53" t="n">
         <v>1.9</v>
@@ -10866,7 +10866,7 @@
         <v>2.67</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.29</v>
@@ -11039,7 +11039,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -11376,7 +11376,7 @@
         <v>2.29</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.93</v>
@@ -11886,7 +11886,7 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.2</v>
@@ -12229,7 +12229,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR69" t="n">
         <v>1.36</v>
@@ -12566,7 +12566,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.2</v>
@@ -12909,7 +12909,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -13756,7 +13756,7 @@
         <v>0.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.71</v>
@@ -14099,7 +14099,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR80" t="n">
         <v>2.11</v>
@@ -14606,10 +14606,10 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -15286,7 +15286,7 @@
         <v>1.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.79</v>
@@ -15459,7 +15459,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR88" t="n">
         <v>1.63</v>
@@ -15969,7 +15969,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR91" t="n">
         <v>1.09</v>
@@ -16136,7 +16136,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.2</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.73</v>
@@ -17499,7 +17499,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR100" t="n">
         <v>1.77</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -18176,7 +18176,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.93</v>
@@ -19366,10 +19366,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR111" t="n">
         <v>1.29</v>
@@ -20046,10 +20046,10 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR115" t="n">
         <v>1.26</v>
@@ -20386,7 +20386,7 @@
         <v>1.08</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.07</v>
@@ -20729,7 +20729,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR119" t="n">
         <v>1.03</v>
@@ -21406,7 +21406,7 @@
         <v>1.91</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.79</v>
@@ -21749,7 +21749,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR125" t="n">
         <v>1.58</v>
@@ -22256,7 +22256,7 @@
         <v>1.83</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.79</v>
@@ -22599,7 +22599,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR130" t="n">
         <v>1.76</v>
@@ -22936,7 +22936,7 @@
         <v>1.23</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.07</v>
@@ -23279,7 +23279,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR134" t="n">
         <v>1.84</v>
@@ -24639,7 +24639,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR142" t="n">
         <v>1.54</v>
@@ -24806,7 +24806,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.93</v>
@@ -24979,7 +24979,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR144" t="n">
         <v>1.6</v>
@@ -25146,7 +25146,7 @@
         <v>2.23</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ145" t="n">
         <v>2.29</v>
@@ -25347,6 +25347,346 @@
       </c>
       <c r="AZ146" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5139403</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45199.35416666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>30</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>9</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X147" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5139401</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['10', '24']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ148"/>
+  <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.79</v>
@@ -1689,7 +1689,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>1.84</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.73</v>
@@ -2029,7 +2029,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.13</v>
@@ -2709,7 +2709,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0.78</v>
@@ -3729,7 +3729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR20" t="n">
         <v>1.59</v>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.2</v>
@@ -4239,7 +4239,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.58</v>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -4576,7 +4576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.73</v>
@@ -5089,7 +5089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR27" t="n">
         <v>1.91</v>
@@ -5256,7 +5256,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.71</v>
@@ -6106,10 +6106,10 @@
         <v>0.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -6279,7 +6279,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -6449,7 +6449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR35" t="n">
         <v>1.46</v>
@@ -6619,7 +6619,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR36" t="n">
         <v>1.25</v>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.47</v>
@@ -7469,7 +7469,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.33</v>
@@ -7979,7 +7979,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR44" t="n">
         <v>1.67</v>
@@ -8489,7 +8489,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR47" t="n">
         <v>1.23</v>
@@ -8659,7 +8659,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.43</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.47</v>
@@ -8996,7 +8996,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.2</v>
@@ -10186,10 +10186,10 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR57" t="n">
         <v>1.2</v>
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.62</v>
@@ -10869,7 +10869,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR63" t="n">
         <v>1.53</v>
@@ -11719,7 +11719,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR66" t="n">
         <v>1.46</v>
@@ -12396,7 +12396,7 @@
         <v>2.13</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.93</v>
@@ -12739,7 +12739,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR72" t="n">
         <v>2.08</v>
@@ -12906,7 +12906,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.13</v>
@@ -13076,7 +13076,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.71</v>
@@ -13249,7 +13249,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>1.74</v>
@@ -13929,7 +13929,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -14266,10 +14266,10 @@
         <v>2.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -14776,10 +14776,10 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR84" t="n">
         <v>1.7</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -15796,10 +15796,10 @@
         <v>2.78</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -15966,7 +15966,7 @@
         <v>1.38</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.47</v>
@@ -16306,10 +16306,10 @@
         <v>1.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -16479,7 +16479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR94" t="n">
         <v>1.51</v>
@@ -16819,7 +16819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR96" t="n">
         <v>1.64</v>
@@ -17496,7 +17496,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.13</v>
@@ -18349,7 +18349,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -19029,7 +19029,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.53</v>
@@ -19536,7 +19536,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.93</v>
@@ -19709,7 +19709,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR113" t="n">
         <v>1.66</v>
@@ -19876,7 +19876,7 @@
         <v>0.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.71</v>
@@ -20389,7 +20389,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1.24</v>
@@ -20726,7 +20726,7 @@
         <v>1.18</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.13</v>
@@ -21069,7 +21069,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR121" t="n">
         <v>1.55</v>
@@ -21576,10 +21576,10 @@
         <v>2.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR124" t="n">
         <v>1.88</v>
@@ -22089,7 +22089,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -22939,7 +22939,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
         <v>1.38</v>
@@ -23276,7 +23276,7 @@
         <v>1.58</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.47</v>
@@ -23449,7 +23449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -23616,7 +23616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.2</v>
@@ -23789,7 +23789,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR137" t="n">
         <v>2.24</v>
@@ -24466,7 +24466,7 @@
         <v>1.29</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.2</v>
@@ -25149,7 +25149,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR145" t="n">
         <v>1.44</v>
@@ -25316,10 +25316,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR146" t="n">
         <v>1.1</v>
@@ -25687,6 +25687,516 @@
       </c>
       <c r="AZ148" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5139404</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45200.35416666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>30</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X149" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5139405</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>9</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X150" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5139402</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>30</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['4', '14', '88']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U151" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -26181,22 +26181,22 @@
         <v>3.35</v>
       </c>
       <c r="AU151" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ151" t="n">
         <v>5</v>
-      </c>
-      <c r="AX151" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY151" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ151" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ151"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -867,6 +947,54 @@
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>12</v>
       </c>
+      <c r="BA3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>7</v>
       </c>
+      <c r="BA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>6</v>
       </c>
+      <c r="BA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>7</v>
       </c>
+      <c r="BA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
+      <c r="BA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>9</v>
       </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>6</v>
       </c>
+      <c r="BA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>14</v>
       </c>
+      <c r="BA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>11</v>
       </c>
+      <c r="BA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>4</v>
       </c>
+      <c r="BA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>15</v>
       </c>
+      <c r="BA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>8</v>
       </c>
+      <c r="BA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>9</v>
       </c>
+      <c r="BA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>12</v>
       </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>5</v>
       </c>
+      <c r="BA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>11</v>
       </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>-1</v>
       </c>
+      <c r="BA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>12</v>
       </c>
+      <c r="BA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>14</v>
       </c>
+      <c r="BA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>17</v>
       </c>
+      <c r="BA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>18</v>
       </c>
+      <c r="BA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>8</v>
       </c>
+      <c r="BA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>12</v>
       </c>
+      <c r="BA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>11</v>
       </c>
+      <c r="BA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>7</v>
       </c>
+      <c r="BA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>15</v>
       </c>
+      <c r="BA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>10</v>
       </c>
+      <c r="BA30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>10</v>
       </c>
+      <c r="BA31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>9</v>
       </c>
+      <c r="BA32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>6</v>
       </c>
+      <c r="BA33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>13</v>
       </c>
+      <c r="BA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>17</v>
       </c>
+      <c r="BA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>15</v>
       </c>
+      <c r="BA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>14</v>
       </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>13</v>
       </c>
+      <c r="BA38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>12</v>
       </c>
+      <c r="BA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>16</v>
       </c>
+      <c r="BA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>8</v>
       </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>8</v>
       </c>
+      <c r="BA42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>15</v>
       </c>
+      <c r="BA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>14</v>
       </c>
+      <c r="BA44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>15</v>
       </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>9</v>
       </c>
+      <c r="BA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>7</v>
       </c>
+      <c r="BA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>10</v>
       </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>8</v>
       </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>14</v>
       </c>
+      <c r="BA50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>14</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>14</v>
       </c>
+      <c r="BA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>6</v>
       </c>
+      <c r="BA53" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9708,6 +12284,54 @@
       <c r="AZ54" t="n">
         <v>12</v>
       </c>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9878,6 +12502,54 @@
       <c r="AZ55" t="n">
         <v>13</v>
       </c>
+      <c r="BA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10048,6 +12720,54 @@
       <c r="AZ56" t="n">
         <v>6</v>
       </c>
+      <c r="BA56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -10218,6 +12938,54 @@
       <c r="AZ57" t="n">
         <v>14</v>
       </c>
+      <c r="BA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -10388,6 +13156,54 @@
       <c r="AZ58" t="n">
         <v>11</v>
       </c>
+      <c r="BA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -10558,6 +13374,54 @@
       <c r="AZ59" t="n">
         <v>15</v>
       </c>
+      <c r="BA59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -10728,6 +13592,54 @@
       <c r="AZ60" t="n">
         <v>23</v>
       </c>
+      <c r="BA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -10898,6 +13810,54 @@
       <c r="AZ61" t="n">
         <v>15</v>
       </c>
+      <c r="BA61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -11068,6 +14028,54 @@
       <c r="AZ62" t="n">
         <v>7</v>
       </c>
+      <c r="BA62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -11238,6 +14246,54 @@
       <c r="AZ63" t="n">
         <v>16</v>
       </c>
+      <c r="BA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -11408,6 +14464,54 @@
       <c r="AZ64" t="n">
         <v>16</v>
       </c>
+      <c r="BA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -11578,6 +14682,54 @@
       <c r="AZ65" t="n">
         <v>9</v>
       </c>
+      <c r="BA65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -11748,6 +14900,54 @@
       <c r="AZ66" t="n">
         <v>23</v>
       </c>
+      <c r="BA66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -11918,6 +15118,54 @@
       <c r="AZ67" t="n">
         <v>27</v>
       </c>
+      <c r="BA67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -12088,6 +15336,54 @@
       <c r="AZ68" t="n">
         <v>13</v>
       </c>
+      <c r="BA68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -12258,6 +15554,54 @@
       <c r="AZ69" t="n">
         <v>12</v>
       </c>
+      <c r="BA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -12428,6 +15772,54 @@
       <c r="AZ70" t="n">
         <v>14</v>
       </c>
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -12598,6 +15990,54 @@
       <c r="AZ71" t="n">
         <v>11</v>
       </c>
+      <c r="BA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -12768,6 +16208,54 @@
       <c r="AZ72" t="n">
         <v>6</v>
       </c>
+      <c r="BA72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -12938,6 +16426,54 @@
       <c r="AZ73" t="n">
         <v>5</v>
       </c>
+      <c r="BA73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -13108,6 +16644,54 @@
       <c r="AZ74" t="n">
         <v>7</v>
       </c>
+      <c r="BA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -13278,6 +16862,54 @@
       <c r="AZ75" t="n">
         <v>7</v>
       </c>
+      <c r="BA75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -13448,6 +17080,54 @@
       <c r="AZ76" t="n">
         <v>23</v>
       </c>
+      <c r="BA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -13618,6 +17298,54 @@
       <c r="AZ77" t="n">
         <v>16</v>
       </c>
+      <c r="BA77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -13788,6 +17516,54 @@
       <c r="AZ78" t="n">
         <v>5</v>
       </c>
+      <c r="BA78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -13958,6 +17734,54 @@
       <c r="AZ79" t="n">
         <v>14</v>
       </c>
+      <c r="BA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -14128,6 +17952,54 @@
       <c r="AZ80" t="n">
         <v>8</v>
       </c>
+      <c r="BA80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -14298,6 +18170,54 @@
       <c r="AZ81" t="n">
         <v>18</v>
       </c>
+      <c r="BA81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -14468,6 +18388,54 @@
       <c r="AZ82" t="n">
         <v>8</v>
       </c>
+      <c r="BA82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -14638,6 +18606,54 @@
       <c r="AZ83" t="n">
         <v>19</v>
       </c>
+      <c r="BA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -14808,6 +18824,54 @@
       <c r="AZ84" t="n">
         <v>9</v>
       </c>
+      <c r="BA84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -14978,6 +19042,54 @@
       <c r="AZ85" t="n">
         <v>19</v>
       </c>
+      <c r="BA85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -15148,6 +19260,54 @@
       <c r="AZ86" t="n">
         <v>30</v>
       </c>
+      <c r="BA86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -15318,6 +19478,54 @@
       <c r="AZ87" t="n">
         <v>7</v>
       </c>
+      <c r="BA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -15488,6 +19696,54 @@
       <c r="AZ88" t="n">
         <v>15</v>
       </c>
+      <c r="BA88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -15658,6 +19914,54 @@
       <c r="AZ89" t="n">
         <v>12</v>
       </c>
+      <c r="BA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -15828,6 +20132,54 @@
       <c r="AZ90" t="n">
         <v>11</v>
       </c>
+      <c r="BA90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -15998,6 +20350,54 @@
       <c r="AZ91" t="n">
         <v>11</v>
       </c>
+      <c r="BA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -16168,6 +20568,54 @@
       <c r="AZ92" t="n">
         <v>20</v>
       </c>
+      <c r="BA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -16338,6 +20786,54 @@
       <c r="AZ93" t="n">
         <v>9</v>
       </c>
+      <c r="BA93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -16508,6 +21004,54 @@
       <c r="AZ94" t="n">
         <v>11</v>
       </c>
+      <c r="BA94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -16678,6 +21222,54 @@
       <c r="AZ95" t="n">
         <v>4</v>
       </c>
+      <c r="BA95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -16848,6 +21440,54 @@
       <c r="AZ96" t="n">
         <v>17</v>
       </c>
+      <c r="BA96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17018,6 +21658,54 @@
       <c r="AZ97" t="n">
         <v>11</v>
       </c>
+      <c r="BA97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17188,6 +21876,54 @@
       <c r="AZ98" t="n">
         <v>24</v>
       </c>
+      <c r="BA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17358,6 +22094,54 @@
       <c r="AZ99" t="n">
         <v>4</v>
       </c>
+      <c r="BA99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17528,6 +22312,54 @@
       <c r="AZ100" t="n">
         <v>5</v>
       </c>
+      <c r="BA100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17698,6 +22530,54 @@
       <c r="AZ101" t="n">
         <v>8</v>
       </c>
+      <c r="BA101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17868,6 +22748,54 @@
       <c r="AZ102" t="n">
         <v>6</v>
       </c>
+      <c r="BA102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -18038,6 +22966,54 @@
       <c r="AZ103" t="n">
         <v>17</v>
       </c>
+      <c r="BA103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -18208,6 +23184,54 @@
       <c r="AZ104" t="n">
         <v>18</v>
       </c>
+      <c r="BA104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -18378,6 +23402,54 @@
       <c r="AZ105" t="n">
         <v>9</v>
       </c>
+      <c r="BA105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18548,6 +23620,54 @@
       <c r="AZ106" t="n">
         <v>4</v>
       </c>
+      <c r="BA106" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18718,6 +23838,54 @@
       <c r="AZ107" t="n">
         <v>11</v>
       </c>
+      <c r="BA107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18888,6 +24056,54 @@
       <c r="AZ108" t="n">
         <v>17</v>
       </c>
+      <c r="BA108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -19058,6 +24274,54 @@
       <c r="AZ109" t="n">
         <v>6</v>
       </c>
+      <c r="BA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -19228,6 +24492,54 @@
       <c r="AZ110" t="n">
         <v>7</v>
       </c>
+      <c r="BA110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -19398,6 +24710,54 @@
       <c r="AZ111" t="n">
         <v>12</v>
       </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -19568,6 +24928,54 @@
       <c r="AZ112" t="n">
         <v>16</v>
       </c>
+      <c r="BA112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -19738,6 +25146,54 @@
       <c r="AZ113" t="n">
         <v>9</v>
       </c>
+      <c r="BA113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -19908,6 +25364,54 @@
       <c r="AZ114" t="n">
         <v>5</v>
       </c>
+      <c r="BA114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -20078,6 +25582,54 @@
       <c r="AZ115" t="n">
         <v>21</v>
       </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -20248,6 +25800,54 @@
       <c r="AZ116" t="n">
         <v>8</v>
       </c>
+      <c r="BA116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -20418,6 +26018,54 @@
       <c r="AZ117" t="n">
         <v>13</v>
       </c>
+      <c r="BA117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -20588,6 +26236,54 @@
       <c r="AZ118" t="n">
         <v>12</v>
       </c>
+      <c r="BA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -20758,6 +26454,54 @@
       <c r="AZ119" t="n">
         <v>19</v>
       </c>
+      <c r="BA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -20928,6 +26672,54 @@
       <c r="AZ120" t="n">
         <v>20</v>
       </c>
+      <c r="BA120" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -21098,6 +26890,54 @@
       <c r="AZ121" t="n">
         <v>19</v>
       </c>
+      <c r="BA121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -21268,6 +27108,54 @@
       <c r="AZ122" t="n">
         <v>3</v>
       </c>
+      <c r="BA122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -21438,6 +27326,54 @@
       <c r="AZ123" t="n">
         <v>7</v>
       </c>
+      <c r="BA123" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -21608,6 +27544,54 @@
       <c r="AZ124" t="n">
         <v>14</v>
       </c>
+      <c r="BA124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -21778,6 +27762,54 @@
       <c r="AZ125" t="n">
         <v>8</v>
       </c>
+      <c r="BA125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -21948,6 +27980,54 @@
       <c r="AZ126" t="n">
         <v>8</v>
       </c>
+      <c r="BA126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -22118,6 +28198,54 @@
       <c r="AZ127" t="n">
         <v>14</v>
       </c>
+      <c r="BA127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -22288,6 +28416,54 @@
       <c r="AZ128" t="n">
         <v>11</v>
       </c>
+      <c r="BA128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -22458,6 +28634,54 @@
       <c r="AZ129" t="n">
         <v>15</v>
       </c>
+      <c r="BA129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -22628,6 +28852,54 @@
       <c r="AZ130" t="n">
         <v>19</v>
       </c>
+      <c r="BA130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -22798,6 +29070,54 @@
       <c r="AZ131" t="n">
         <v>16</v>
       </c>
+      <c r="BA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -22968,6 +29288,54 @@
       <c r="AZ132" t="n">
         <v>4</v>
       </c>
+      <c r="BA132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -23138,6 +29506,54 @@
       <c r="AZ133" t="n">
         <v>10</v>
       </c>
+      <c r="BA133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -23308,6 +29724,54 @@
       <c r="AZ134" t="n">
         <v>10</v>
       </c>
+      <c r="BA134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -23478,6 +29942,54 @@
       <c r="AZ135" t="n">
         <v>12</v>
       </c>
+      <c r="BA135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -23648,6 +30160,54 @@
       <c r="AZ136" t="n">
         <v>21</v>
       </c>
+      <c r="BA136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -23818,6 +30378,54 @@
       <c r="AZ137" t="n">
         <v>11</v>
       </c>
+      <c r="BA137" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -23988,6 +30596,54 @@
       <c r="AZ138" t="n">
         <v>8</v>
       </c>
+      <c r="BA138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -24158,6 +30814,54 @@
       <c r="AZ139" t="n">
         <v>10</v>
       </c>
+      <c r="BA139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -24328,6 +31032,54 @@
       <c r="AZ140" t="n">
         <v>9</v>
       </c>
+      <c r="BA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -24498,6 +31250,54 @@
       <c r="AZ141" t="n">
         <v>7</v>
       </c>
+      <c r="BA141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -24668,6 +31468,54 @@
       <c r="AZ142" t="n">
         <v>23</v>
       </c>
+      <c r="BA142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -24838,6 +31686,54 @@
       <c r="AZ143" t="n">
         <v>15</v>
       </c>
+      <c r="BA143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -25008,6 +31904,54 @@
       <c r="AZ144" t="n">
         <v>25</v>
       </c>
+      <c r="BA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -25178,6 +32122,54 @@
       <c r="AZ145" t="n">
         <v>11</v>
       </c>
+      <c r="BA145" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -25348,6 +32340,54 @@
       <c r="AZ146" t="n">
         <v>15</v>
       </c>
+      <c r="BA146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -25518,6 +32558,54 @@
       <c r="AZ147" t="n">
         <v>8</v>
       </c>
+      <c r="BA147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -25688,6 +32776,54 @@
       <c r="AZ148" t="n">
         <v>14</v>
       </c>
+      <c r="BA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -25858,6 +32994,54 @@
       <c r="AZ149" t="n">
         <v>15</v>
       </c>
+      <c r="BA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -26028,6 +33212,54 @@
       <c r="AZ150" t="n">
         <v>13</v>
       </c>
+      <c r="BA150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -26197,6 +33429,54 @@
       </c>
       <c r="AZ151" t="n">
         <v>5</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.13</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>1.72</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR10" t="n">
         <v>1.55</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.33</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR17" t="n">
         <v>1.75</v>
@@ -4404,10 +4404,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>1.89</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR21" t="n">
         <v>1.66</v>
@@ -5715,7 +5715,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24" t="n">
         <v>1.29</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.47</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.19</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.69</v>
@@ -6587,7 +6587,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>1.84</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR30" t="n">
         <v>1.97</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR31" t="n">
         <v>0.65</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.92</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.33</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.69</v>
@@ -8549,7 +8549,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -8764,10 +8764,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -9639,7 +9639,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR42" t="n">
         <v>1.54</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR43" t="n">
         <v>1.14</v>
@@ -10072,7 +10072,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.33</v>
@@ -10290,10 +10290,10 @@
         <v>2.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="n">
         <v>1.27</v>
@@ -10508,10 +10508,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -10726,7 +10726,7 @@
         <v>2.4</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.69</v>
@@ -11383,7 +11383,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.16</v>
@@ -11601,7 +11601,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR51" t="n">
         <v>1.47</v>
@@ -12034,7 +12034,7 @@
         <v>1.6</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.13</v>
@@ -12252,10 +12252,10 @@
         <v>1.75</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55" t="n">
         <v>1.45</v>
@@ -12688,10 +12688,10 @@
         <v>0.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.42</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR58" t="n">
         <v>1.62</v>
@@ -13560,10 +13560,10 @@
         <v>2.17</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.13</v>
@@ -14435,7 +14435,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.22</v>
@@ -14650,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,7 +14868,7 @@
         <v>2.71</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.33</v>
@@ -15089,7 +15089,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR67" t="n">
         <v>1.27</v>
@@ -15304,10 +15304,10 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR68" t="n">
         <v>1.38</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.47</v>
@@ -15743,7 +15743,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15961,7 +15961,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16176,7 +16176,7 @@
         <v>2.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.69</v>
@@ -16615,7 +16615,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74" t="n">
         <v>1.18</v>
@@ -16830,7 +16830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.6</v>
@@ -17266,10 +17266,10 @@
         <v>2.17</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR77" t="n">
         <v>1.39</v>
@@ -17487,7 +17487,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.15</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17920,7 +17920,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.47</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR82" t="n">
         <v>1.35</v>
@@ -19010,10 +19010,10 @@
         <v>1.29</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -19449,7 +19449,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19664,7 +19664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.13</v>
@@ -19882,10 +19882,10 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.38</v>
@@ -20539,7 +20539,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR92" t="n">
         <v>1.2</v>
@@ -20972,7 +20972,7 @@
         <v>2.1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.69</v>
@@ -21190,10 +21190,10 @@
         <v>1.13</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR95" t="n">
         <v>2.05</v>
@@ -21408,7 +21408,7 @@
         <v>2.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.33</v>
@@ -21626,10 +21626,10 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -21844,10 +21844,10 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR98" t="n">
         <v>1.4</v>
@@ -22065,7 +22065,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22498,10 +22498,10 @@
         <v>2.11</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22716,10 +22716,10 @@
         <v>0.67</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR102" t="n">
         <v>1.53</v>
@@ -23155,7 +23155,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR104" t="n">
         <v>1.3</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ105" t="n">
         <v>1</v>
@@ -23588,10 +23588,10 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR106" t="n">
         <v>2.18</v>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24024,10 +24024,10 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR108" t="n">
         <v>2.22</v>
@@ -24242,7 +24242,7 @@
         <v>1.18</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109" t="n">
         <v>1</v>
@@ -24460,10 +24460,10 @@
         <v>0.82</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR110" t="n">
         <v>1.53</v>
@@ -24899,7 +24899,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR112" t="n">
         <v>1.06</v>
@@ -25114,7 +25114,7 @@
         <v>2.18</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.69</v>
@@ -25335,7 +25335,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR114" t="n">
         <v>1.81</v>
@@ -25768,10 +25768,10 @@
         <v>1.64</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR116" t="n">
         <v>1.46</v>
@@ -26204,10 +26204,10 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR118" t="n">
         <v>1.67</v>
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR120" t="n">
         <v>1.58</v>
@@ -26858,7 +26858,7 @@
         <v>2.45</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ121" t="n">
         <v>2.33</v>
@@ -27076,10 +27076,10 @@
         <v>0.64</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR122" t="n">
         <v>2.24</v>
@@ -27297,7 +27297,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR123" t="n">
         <v>1.3</v>
@@ -27730,7 +27730,7 @@
         <v>1.64</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.47</v>
@@ -27948,10 +27948,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR126" t="n">
         <v>1.65</v>
@@ -28166,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.69</v>
@@ -28387,7 +28387,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR128" t="n">
         <v>1.19</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -28820,7 +28820,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.13</v>
@@ -29038,10 +29038,10 @@
         <v>1.92</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR131" t="n">
         <v>2.33</v>
@@ -29474,10 +29474,10 @@
         <v>0.58</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -29910,7 +29910,7 @@
         <v>2.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.33</v>
@@ -30131,7 +30131,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30346,7 +30346,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.69</v>
@@ -30564,10 +30564,10 @@
         <v>0.54</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR138" t="n">
         <v>1.62</v>
@@ -30782,10 +30782,10 @@
         <v>1.92</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR139" t="n">
         <v>1.75</v>
@@ -31000,10 +31000,10 @@
         <v>0.79</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140" t="n">
         <v>1.7</v>
@@ -31221,7 +31221,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR141" t="n">
         <v>1.87</v>
@@ -31657,7 +31657,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR143" t="n">
         <v>1.21</v>
@@ -31872,7 +31872,7 @@
         <v>1.46</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.47</v>
@@ -33476,6 +33476,1096 @@
         <v>0</v>
       </c>
       <c r="BP151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5139408</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45206.27083333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5139406</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45206.35416666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['75', '79']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5139407</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['10', '18']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X154" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5139410</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45206.5625</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['33', '59', '79']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S155" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5139409</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45207.35416666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>31</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['26', '38', '76', '82']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U156" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X156" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP156" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -34285,22 +34285,22 @@
         <v>4.07</v>
       </c>
       <c r="AU155" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV155" t="n">
         <v>6</v>
       </c>
       <c r="AW155" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY155" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ155" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA155" t="n">
         <v>19</v>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR8" t="n">
         <v>1.72</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.69</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR10" t="n">
         <v>1.55</v>
@@ -2881,7 +2881,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR13" t="n">
         <v>0.78</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR15" t="n">
         <v>1.55</v>
@@ -4189,7 +4189,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR17" t="n">
         <v>1.75</v>
@@ -4404,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR21" t="n">
         <v>1.66</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -5715,7 +5715,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR24" t="n">
         <v>1.29</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.69</v>
@@ -6584,7 +6584,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.67</v>
@@ -6805,7 +6805,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR29" t="n">
         <v>0.98</v>
@@ -7023,7 +7023,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR30" t="n">
         <v>1.97</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR31" t="n">
         <v>0.65</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ32" t="n">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR35" t="n">
         <v>1.46</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.69</v>
@@ -8546,10 +8546,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR39" t="n">
         <v>1.48</v>
@@ -9636,10 +9636,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR42" t="n">
         <v>1.54</v>
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR43" t="n">
         <v>1.14</v>
@@ -10072,10 +10072,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR44" t="n">
         <v>1.67</v>
@@ -10508,7 +10508,7 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.67</v>
@@ -10947,7 +10947,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR48" t="n">
         <v>1.43</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.47</v>
@@ -11383,7 +11383,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR50" t="n">
         <v>1.16</v>
@@ -11598,7 +11598,7 @@
         <v>2.6</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ51" t="n">
         <v>2</v>
@@ -12037,7 +12037,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR53" t="n">
         <v>1.9</v>
@@ -12252,10 +12252,10 @@
         <v>1.75</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR55" t="n">
         <v>1.45</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR58" t="n">
         <v>1.62</v>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR59" t="n">
         <v>1.62</v>
@@ -13560,7 +13560,7 @@
         <v>2.17</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
         <v>2</v>
@@ -13778,10 +13778,10 @@
         <v>2.67</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -13996,10 +13996,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -14650,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,10 +14868,10 @@
         <v>2.71</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR66" t="n">
         <v>1.46</v>
@@ -15086,10 +15086,10 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR67" t="n">
         <v>1.27</v>
@@ -15307,7 +15307,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR68" t="n">
         <v>1.38</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16394,10 +16394,10 @@
         <v>1.57</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR73" t="n">
         <v>1.75</v>
@@ -16830,7 +16830,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR77" t="n">
         <v>1.39</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -18359,7 +18359,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR82" t="n">
         <v>1.35</v>
@@ -18574,7 +18574,7 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.47</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.69</v>
@@ -19010,10 +19010,10 @@
         <v>1.29</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -19449,7 +19449,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19664,10 +19664,10 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR88" t="n">
         <v>1.63</v>
@@ -19882,7 +19882,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.67</v>
@@ -20100,10 +20100,10 @@
         <v>2.78</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -20536,10 +20536,10 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR92" t="n">
         <v>1.2</v>
@@ -20754,7 +20754,7 @@
         <v>1.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR95" t="n">
         <v>2.05</v>
@@ -21408,10 +21408,10 @@
         <v>2.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR96" t="n">
         <v>1.64</v>
@@ -21626,10 +21626,10 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -21844,10 +21844,10 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR98" t="n">
         <v>1.4</v>
@@ -22062,10 +22062,10 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22280,10 +22280,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR100" t="n">
         <v>1.77</v>
@@ -22498,10 +22498,10 @@
         <v>2.11</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -23591,7 +23591,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR106" t="n">
         <v>2.18</v>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24027,7 +24027,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR108" t="n">
         <v>2.22</v>
@@ -24460,10 +24460,10 @@
         <v>0.82</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR110" t="n">
         <v>1.53</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.47</v>
@@ -25114,7 +25114,7 @@
         <v>2.18</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.69</v>
@@ -25332,7 +25332,7 @@
         <v>0.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.67</v>
@@ -25553,7 +25553,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR115" t="n">
         <v>1.26</v>
@@ -25768,10 +25768,10 @@
         <v>1.64</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR116" t="n">
         <v>1.46</v>
@@ -25986,7 +25986,7 @@
         <v>1.08</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26204,10 +26204,10 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR118" t="n">
         <v>1.67</v>
@@ -26425,7 +26425,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR119" t="n">
         <v>1.03</v>
@@ -26858,10 +26858,10 @@
         <v>2.45</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR121" t="n">
         <v>1.55</v>
@@ -27297,7 +27297,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR123" t="n">
         <v>1.3</v>
@@ -27512,7 +27512,7 @@
         <v>2.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.69</v>
@@ -27730,7 +27730,7 @@
         <v>1.64</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.47</v>
@@ -27951,7 +27951,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR126" t="n">
         <v>1.65</v>
@@ -28166,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.69</v>
@@ -28384,10 +28384,10 @@
         <v>1.83</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR128" t="n">
         <v>1.19</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -28820,10 +28820,10 @@
         <v>1.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR130" t="n">
         <v>1.76</v>
@@ -29474,7 +29474,7 @@
         <v>0.58</v>
       </c>
       <c r="AP133" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.67</v>
@@ -29692,7 +29692,7 @@
         <v>1.58</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.47</v>
@@ -29913,7 +29913,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30131,7 +30131,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30564,7 +30564,7 @@
         <v>0.54</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.67</v>
@@ -30782,10 +30782,10 @@
         <v>1.92</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR139" t="n">
         <v>1.75</v>
@@ -31003,7 +31003,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR140" t="n">
         <v>1.7</v>
@@ -31218,10 +31218,10 @@
         <v>1.29</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR141" t="n">
         <v>1.87</v>
@@ -31439,7 +31439,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR142" t="n">
         <v>1.54</v>
@@ -31654,7 +31654,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ143" t="n">
         <v>2</v>
@@ -31872,7 +31872,7 @@
         <v>1.46</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.47</v>
@@ -32093,7 +32093,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR145" t="n">
         <v>1.44</v>
@@ -32526,10 +32526,10 @@
         <v>1.21</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR147" t="n">
         <v>1.19</v>
@@ -33183,7 +33183,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR150" t="n">
         <v>1.17</v>
@@ -33398,7 +33398,7 @@
         <v>1.07</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -33619,7 +33619,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR152" t="n">
         <v>1.73</v>
@@ -33834,7 +33834,7 @@
         <v>1.93</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ153" t="n">
         <v>2</v>
@@ -34052,10 +34052,10 @@
         <v>0.73</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR154" t="n">
         <v>1.61</v>
@@ -34273,7 +34273,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR155" t="n">
         <v>2.25</v>
@@ -34488,7 +34488,7 @@
         <v>0.71</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.67</v>
@@ -34566,6 +34566,1096 @@
         <v>0</v>
       </c>
       <c r="BP156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5139411</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45220.27083333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X157" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5139412</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45220.35416666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['40', '68']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X158" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5139413</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['5', '28']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5139414</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45221.35416666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>32</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S160" t="n">
+        <v>6</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X160" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5139415</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45221.45833333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>32</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['67', '70']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['23', '43', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X161" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP161" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.47</v>
@@ -4407,7 +4407,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR18" t="n">
         <v>1.89</v>
@@ -4843,7 +4843,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR20" t="n">
         <v>1.59</v>
@@ -6369,7 +6369,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR27" t="n">
         <v>1.91</v>
@@ -6587,7 +6587,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28" t="n">
         <v>1.84</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.06</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -8331,7 +8331,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR36" t="n">
         <v>1.25</v>
@@ -9418,7 +9418,7 @@
         <v>0.6</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -10729,7 +10729,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR47" t="n">
         <v>1.23</v>
@@ -10944,7 +10944,7 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.38</v>
@@ -12691,7 +12691,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR56" t="n">
         <v>1.42</v>
@@ -12909,7 +12909,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR57" t="n">
         <v>1.2</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR63" t="n">
         <v>1.53</v>
@@ -14432,7 +14432,7 @@
         <v>2.29</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ64" t="n">
         <v>2</v>
@@ -15958,7 +15958,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.06</v>
@@ -16179,7 +16179,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR72" t="n">
         <v>2.08</v>
@@ -16615,7 +16615,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR74" t="n">
         <v>1.18</v>
@@ -17484,10 +17484,10 @@
         <v>0.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR78" t="n">
         <v>1.15</v>
@@ -18795,7 +18795,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR84" t="n">
         <v>1.7</v>
@@ -19446,7 +19446,7 @@
         <v>1.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.63</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR89" t="n">
         <v>1.38</v>
@@ -20975,7 +20975,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR94" t="n">
         <v>1.51</v>
@@ -22719,7 +22719,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR102" t="n">
         <v>1.53</v>
@@ -23152,7 +23152,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ104" t="n">
         <v>2</v>
@@ -25117,7 +25117,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR113" t="n">
         <v>1.66</v>
@@ -25335,7 +25335,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR114" t="n">
         <v>1.81</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.06</v>
@@ -27079,7 +27079,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR122" t="n">
         <v>2.24</v>
@@ -27294,7 +27294,7 @@
         <v>1.91</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.63</v>
@@ -27515,7 +27515,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR124" t="n">
         <v>1.88</v>
@@ -28169,7 +28169,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -29256,7 +29256,7 @@
         <v>1.23</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ132" t="n">
         <v>1</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -30349,7 +30349,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR137" t="n">
         <v>2.24</v>
@@ -30567,7 +30567,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR138" t="n">
         <v>1.62</v>
@@ -32090,7 +32090,7 @@
         <v>2.23</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ145" t="n">
         <v>2.38</v>
@@ -32744,7 +32744,7 @@
         <v>1.36</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.47</v>
@@ -32965,7 +32965,7 @@
         <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AR149" t="n">
         <v>1.51</v>
@@ -34491,7 +34491,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR156" t="n">
         <v>1.77</v>
@@ -35656,6 +35656,442 @@
         <v>0</v>
       </c>
       <c r="BP161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5139417</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45226.54166666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>33</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X162" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5139420</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45226.54166666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>4</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>7</v>
+      </c>
+      <c r="N163" t="n">
+        <v>9</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['22', '35']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['16', '38', '57', '80', '85', '90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>4</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X163" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP163" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.6899999999999999</v>
@@ -1355,7 +1355,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.6899999999999999</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7" t="n">
         <v>1.84</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.63</v>
@@ -3971,7 +3971,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.65</v>
@@ -4625,7 +4625,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22" t="n">
         <v>1.58</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.38</v>
@@ -5933,7 +5933,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.63</v>
@@ -7677,7 +7677,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -8764,7 +8764,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ38" t="n">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.06</v>
@@ -9203,7 +9203,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.08</v>
@@ -9421,7 +9421,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41" t="n">
         <v>1.33</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR49" t="n">
         <v>1.82</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR52" t="n">
         <v>1.59</v>
@@ -12034,7 +12034,7 @@
         <v>1.6</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.06</v>
@@ -13342,7 +13342,7 @@
         <v>2.6</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.38</v>
@@ -14214,7 +14214,7 @@
         <v>2.57</v>
       </c>
       <c r="AP63" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.76</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR69" t="n">
         <v>1.36</v>
@@ -16176,7 +16176,7 @@
         <v>2.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.76</v>
@@ -16833,7 +16833,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75" t="n">
         <v>1.74</v>
@@ -17048,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
         <v>2</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -17920,10 +17920,10 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR80" t="n">
         <v>2.11</v>
@@ -18577,7 +18577,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -19228,10 +19228,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -20321,7 +20321,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR91" t="n">
         <v>1.09</v>
@@ -20757,7 +20757,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -21190,7 +21190,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.65</v>
@@ -22934,10 +22934,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23370,10 +23370,10 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.63</v>
@@ -23806,7 +23806,7 @@
         <v>0.9</v>
       </c>
       <c r="AP107" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.65</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.06</v>
@@ -24245,7 +24245,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109" t="n">
         <v>1.53</v>
@@ -24681,7 +24681,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR111" t="n">
         <v>1.29</v>
@@ -25989,7 +25989,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117" t="n">
         <v>1.24</v>
@@ -26640,7 +26640,7 @@
         <v>2.08</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120" t="n">
         <v>2</v>
@@ -27076,7 +27076,7 @@
         <v>0.64</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.6899999999999999</v>
@@ -27733,7 +27733,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR125" t="n">
         <v>1.58</v>
@@ -28602,7 +28602,7 @@
         <v>0.77</v>
       </c>
       <c r="AP129" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.65</v>
@@ -29038,7 +29038,7 @@
         <v>1.92</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ131" t="n">
         <v>2</v>
@@ -29259,7 +29259,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132" t="n">
         <v>1.38</v>
@@ -29695,7 +29695,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR134" t="n">
         <v>1.84</v>
@@ -30346,7 +30346,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.76</v>
@@ -31436,7 +31436,7 @@
         <v>1.08</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.06</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR144" t="n">
         <v>1.6</v>
@@ -32311,7 +32311,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146" t="n">
         <v>1.1</v>
@@ -32747,7 +32747,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR148" t="n">
         <v>1.51</v>
@@ -32962,7 +32962,7 @@
         <v>1.73</v>
       </c>
       <c r="AP149" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.76</v>
@@ -33401,7 +33401,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR151" t="n">
         <v>1.95</v>
@@ -34270,7 +34270,7 @@
         <v>1.2</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.06</v>
@@ -35814,19 +35814,19 @@
         <v>5</v>
       </c>
       <c r="AV162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX162" t="n">
         <v>7</v>
       </c>
-      <c r="AW162" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX162" t="n">
-        <v>4</v>
-      </c>
       <c r="AY162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA162" t="n">
         <v>4</v>
@@ -36029,22 +36029,22 @@
         <v>2.97</v>
       </c>
       <c r="AU163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX163" t="n">
         <v>6</v>
       </c>
-      <c r="AV163" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW163" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX163" t="n">
-        <v>5</v>
-      </c>
       <c r="AY163" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ163" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA163" t="n">
         <v>3</v>
@@ -36092,6 +36092,442 @@
         <v>0</v>
       </c>
       <c r="BP163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5139416</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45227.27083333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X164" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5139419</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>33</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['65', '80']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X165" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP165" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.9399999999999999</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.38</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR26" t="n">
         <v>1.19</v>
@@ -7459,7 +7459,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR32" t="n">
         <v>1.92</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.38</v>
@@ -8767,7 +8767,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -10290,10 +10290,10 @@
         <v>2.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45" t="n">
         <v>1.27</v>
@@ -10726,7 +10726,7 @@
         <v>2.4</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.76</v>
@@ -11601,7 +11601,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR51" t="n">
         <v>1.47</v>
@@ -12688,7 +12688,7 @@
         <v>0.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.6899999999999999</v>
@@ -13563,7 +13563,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -14435,7 +14435,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR64" t="n">
         <v>1.22</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.65</v>
@@ -15743,7 +15743,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -17051,7 +17051,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR76" t="n">
         <v>1.6</v>
@@ -17266,7 +17266,7 @@
         <v>2.17</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.63</v>
@@ -18356,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.06</v>
@@ -20972,7 +20972,7 @@
         <v>2.1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.76</v>
@@ -22716,7 +22716,7 @@
         <v>0.67</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.6899999999999999</v>
@@ -23155,7 +23155,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR104" t="n">
         <v>1.3</v>
@@ -24242,7 +24242,7 @@
         <v>1.18</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.9399999999999999</v>
@@ -24899,7 +24899,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR112" t="n">
         <v>1.06</v>
@@ -26643,7 +26643,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR120" t="n">
         <v>1.58</v>
@@ -27948,7 +27948,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.06</v>
@@ -29041,7 +29041,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ131" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR131" t="n">
         <v>2.33</v>
@@ -29910,7 +29910,7 @@
         <v>2.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.38</v>
@@ -31000,7 +31000,7 @@
         <v>0.79</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.65</v>
@@ -31657,7 +31657,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR143" t="n">
         <v>1.21</v>
@@ -33616,7 +33616,7 @@
         <v>1.79</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.63</v>
@@ -33837,7 +33837,7 @@
         <v>1</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR153" t="n">
         <v>1.65</v>
@@ -36528,6 +36528,224 @@
         <v>0</v>
       </c>
       <c r="BP165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5139418</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>4</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>7</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['29', '66', '69', '84']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['20', '54', '80']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X166" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP166" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.65</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR10" t="n">
         <v>1.55</v>
@@ -3535,7 +3535,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.06</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.9399999999999999</v>
@@ -4843,7 +4843,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR20" t="n">
         <v>1.59</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR21" t="n">
         <v>1.66</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.9399999999999999</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR27" t="n">
         <v>1.91</v>
@@ -6584,7 +6584,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.6899999999999999</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.06</v>
@@ -7023,7 +7023,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR30" t="n">
         <v>1.97</v>
@@ -7241,7 +7241,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR31" t="n">
         <v>0.65</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR34" t="n">
         <v>0.9</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.38</v>
@@ -8331,7 +8331,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR36" t="n">
         <v>1.25</v>
@@ -8546,7 +8546,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.65</v>
@@ -9203,7 +9203,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR40" t="n">
         <v>1.08</v>
@@ -9418,7 +9418,7 @@
         <v>0.6</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.9399999999999999</v>
@@ -9636,10 +9636,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR42" t="n">
         <v>1.54</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR43" t="n">
         <v>1.14</v>
@@ -10290,7 +10290,7 @@
         <v>2.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.88</v>
@@ -10726,10 +10726,10 @@
         <v>2.4</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR47" t="n">
         <v>1.23</v>
@@ -10944,7 +10944,7 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.38</v>
@@ -11162,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR49" t="n">
         <v>1.82</v>
@@ -11383,7 +11383,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR50" t="n">
         <v>1.16</v>
@@ -11598,7 +11598,7 @@
         <v>2.6</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.88</v>
@@ -11819,7 +11819,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR52" t="n">
         <v>1.59</v>
@@ -12255,7 +12255,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12688,7 +12688,7 @@
         <v>0.2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.6899999999999999</v>
@@ -12909,7 +12909,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR57" t="n">
         <v>1.2</v>
@@ -13778,7 +13778,7 @@
         <v>2.67</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.38</v>
@@ -14217,7 +14217,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR63" t="n">
         <v>1.53</v>
@@ -14432,7 +14432,7 @@
         <v>2.29</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.88</v>
@@ -14653,7 +14653,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15086,10 +15086,10 @@
         <v>2.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR67" t="n">
         <v>1.27</v>
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.65</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR69" t="n">
         <v>1.36</v>
@@ -15958,10 +15958,10 @@
         <v>2.17</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR71" t="n">
         <v>1.22</v>
@@ -16179,7 +16179,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR72" t="n">
         <v>2.08</v>
@@ -16394,7 +16394,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.06</v>
@@ -17266,10 +17266,10 @@
         <v>2.17</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR77" t="n">
         <v>1.39</v>
@@ -17484,7 +17484,7 @@
         <v>0.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.6899999999999999</v>
@@ -17923,7 +17923,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR80" t="n">
         <v>2.11</v>
@@ -18356,10 +18356,10 @@
         <v>2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.35</v>
@@ -18574,10 +18574,10 @@
         <v>1.14</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -18792,10 +18792,10 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR84" t="n">
         <v>1.7</v>
@@ -19446,10 +19446,10 @@
         <v>1.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -20100,7 +20100,7 @@
         <v>2.78</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.38</v>
@@ -20321,7 +20321,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR91" t="n">
         <v>1.09</v>
@@ -20536,10 +20536,10 @@
         <v>1.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR92" t="n">
         <v>1.2</v>
@@ -20754,7 +20754,7 @@
         <v>1.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9399999999999999</v>
@@ -20972,10 +20972,10 @@
         <v>2.1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR94" t="n">
         <v>1.51</v>
@@ -21629,7 +21629,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR98" t="n">
         <v>1.4</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.65</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.06</v>
@@ -22501,7 +22501,7 @@
         <v>1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22716,7 +22716,7 @@
         <v>0.67</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.6899999999999999</v>
@@ -22937,7 +22937,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.88</v>
@@ -23591,7 +23591,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR106" t="n">
         <v>2.18</v>
@@ -24027,7 +24027,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR108" t="n">
         <v>2.22</v>
@@ -24242,7 +24242,7 @@
         <v>1.18</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.9399999999999999</v>
@@ -24678,10 +24678,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR111" t="n">
         <v>1.29</v>
@@ -25117,7 +25117,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR113" t="n">
         <v>1.66</v>
@@ -25332,7 +25332,7 @@
         <v>0.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.6899999999999999</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.06</v>
@@ -25771,7 +25771,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR116" t="n">
         <v>1.46</v>
@@ -25986,7 +25986,7 @@
         <v>1.08</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.9399999999999999</v>
@@ -27294,10 +27294,10 @@
         <v>1.91</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR123" t="n">
         <v>1.3</v>
@@ -27512,10 +27512,10 @@
         <v>2.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR124" t="n">
         <v>1.88</v>
@@ -27733,7 +27733,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR125" t="n">
         <v>1.58</v>
@@ -27948,10 +27948,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
         <v>1.65</v>
@@ -28169,7 +28169,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR127" t="n">
         <v>1.62</v>
@@ -28384,10 +28384,10 @@
         <v>1.83</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR128" t="n">
         <v>1.19</v>
@@ -29256,7 +29256,7 @@
         <v>1.23</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.9399999999999999</v>
@@ -29692,10 +29692,10 @@
         <v>1.58</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR134" t="n">
         <v>1.84</v>
@@ -29910,7 +29910,7 @@
         <v>2.33</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.38</v>
@@ -30131,7 +30131,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30349,7 +30349,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR137" t="n">
         <v>2.24</v>
@@ -30785,7 +30785,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR139" t="n">
         <v>1.75</v>
@@ -31000,7 +31000,7 @@
         <v>0.79</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.65</v>
@@ -31218,10 +31218,10 @@
         <v>1.29</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR141" t="n">
         <v>1.87</v>
@@ -31654,7 +31654,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.88</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR144" t="n">
         <v>1.6</v>
@@ -32090,7 +32090,7 @@
         <v>2.23</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ145" t="n">
         <v>2.38</v>
@@ -32526,7 +32526,7 @@
         <v>1.21</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.06</v>
@@ -32744,10 +32744,10 @@
         <v>1.36</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR148" t="n">
         <v>1.51</v>
@@ -32965,7 +32965,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR149" t="n">
         <v>1.51</v>
@@ -33398,7 +33398,7 @@
         <v>1.07</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.9399999999999999</v>
@@ -33616,10 +33616,10 @@
         <v>1.79</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR152" t="n">
         <v>1.73</v>
@@ -34273,7 +34273,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR155" t="n">
         <v>2.25</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -35142,7 +35142,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.65</v>
@@ -35363,7 +35363,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR160" t="n">
         <v>1.77</v>
@@ -35578,7 +35578,7 @@
         <v>2.33</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ161" t="n">
         <v>2.38</v>
@@ -36014,10 +36014,10 @@
         <v>1.69</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR163" t="n">
         <v>1.53</v>
@@ -36453,7 +36453,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR165" t="n">
         <v>2.28</v>
@@ -36668,7 +36668,7 @@
         <v>2</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.88</v>
@@ -36746,6 +36746,878 @@
         <v>0</v>
       </c>
       <c r="BP166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5139421</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45230.54166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>34</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['60', '81']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X167" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5139425</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45230.61458333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>34</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>5</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>6</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['2', '5', '16']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['9', '39', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U168" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X168" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5139422</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45231.54166666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>34</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5139423</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45231.54166666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>34</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP170" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.88</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR13" t="n">
         <v>0.78</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.59</v>
@@ -3971,7 +3971,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR18" t="n">
         <v>1.89</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -5933,7 +5933,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR28" t="n">
         <v>1.84</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.17</v>
@@ -8113,7 +8113,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR35" t="n">
         <v>1.46</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.83</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.06</v>
@@ -9203,7 +9203,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR40" t="n">
         <v>1.08</v>
@@ -10075,7 +10075,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR44" t="n">
         <v>1.67</v>
@@ -10508,10 +10508,10 @@
         <v>0.25</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -10947,7 +10947,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.43</v>
@@ -11165,7 +11165,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR49" t="n">
         <v>1.82</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR52" t="n">
         <v>1.59</v>
@@ -12252,7 +12252,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.59</v>
@@ -12691,7 +12691,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR56" t="n">
         <v>1.42</v>
@@ -13342,10 +13342,10 @@
         <v>2.6</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR59" t="n">
         <v>1.62</v>
@@ -13560,7 +13560,7 @@
         <v>2.17</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.88</v>
@@ -13781,7 +13781,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -13996,7 +13996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.06</v>
@@ -14214,7 +14214,7 @@
         <v>2.57</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.83</v>
@@ -14868,10 +14868,10 @@
         <v>2.71</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR66" t="n">
         <v>1.46</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR69" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR74" t="n">
         <v>1.18</v>
@@ -17048,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.88</v>
@@ -17487,7 +17487,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR78" t="n">
         <v>1.15</v>
@@ -17923,7 +17923,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR80" t="n">
         <v>2.11</v>
@@ -18141,7 +18141,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -18577,7 +18577,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR83" t="n">
         <v>1.28</v>
@@ -19010,7 +19010,7 @@
         <v>1.29</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.65</v>
@@ -19228,7 +19228,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.9399999999999999</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR89" t="n">
         <v>1.38</v>
@@ -20103,7 +20103,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -20321,7 +20321,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR91" t="n">
         <v>1.09</v>
@@ -21411,7 +21411,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR96" t="n">
         <v>1.64</v>
@@ -21626,7 +21626,7 @@
         <v>2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.59</v>
@@ -22719,7 +22719,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR102" t="n">
         <v>1.53</v>
@@ -22934,10 +22934,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23806,7 +23806,7 @@
         <v>0.9</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.65</v>
@@ -24681,7 +24681,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR111" t="n">
         <v>1.29</v>
@@ -25335,7 +25335,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR114" t="n">
         <v>1.81</v>
@@ -25768,7 +25768,7 @@
         <v>1.64</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.17</v>
@@ -26640,7 +26640,7 @@
         <v>2.08</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.88</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR121" t="n">
         <v>1.55</v>
@@ -27079,7 +27079,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR122" t="n">
         <v>2.24</v>
@@ -27730,10 +27730,10 @@
         <v>1.64</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR125" t="n">
         <v>1.58</v>
@@ -28166,7 +28166,7 @@
         <v>2</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.83</v>
@@ -28602,7 +28602,7 @@
         <v>0.77</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.65</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -29695,7 +29695,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR134" t="n">
         <v>1.84</v>
@@ -29913,7 +29913,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30564,10 +30564,10 @@
         <v>0.54</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR138" t="n">
         <v>1.62</v>
@@ -31436,7 +31436,7 @@
         <v>1.08</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.06</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR144" t="n">
         <v>1.6</v>
@@ -32093,7 +32093,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR145" t="n">
         <v>1.44</v>
@@ -32747,7 +32747,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR148" t="n">
         <v>1.51</v>
@@ -32962,7 +32962,7 @@
         <v>1.73</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.83</v>
@@ -33183,7 +33183,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR150" t="n">
         <v>1.17</v>
@@ -34052,7 +34052,7 @@
         <v>0.73</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.65</v>
@@ -34491,7 +34491,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR156" t="n">
         <v>1.77</v>
@@ -34924,7 +34924,7 @@
         <v>1.13</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.06</v>
@@ -35581,7 +35581,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AR161" t="n">
         <v>1.21</v>
@@ -35799,7 +35799,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR162" t="n">
         <v>1.18</v>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.9399999999999999</v>
@@ -36453,7 +36453,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR165" t="n">
         <v>2.28</v>
@@ -37107,7 +37107,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR168" t="n">
         <v>1.72</v>
@@ -37119,22 +37119,22 @@
         <v>3.43</v>
       </c>
       <c r="AU168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW168" t="n">
         <v>2</v>
       </c>
       <c r="AX168" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ168" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA168" t="n">
         <v>0</v>
@@ -37337,22 +37337,22 @@
         <v>3.35</v>
       </c>
       <c r="AU169" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AV169" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW169" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY169" t="n">
         <v>19</v>
       </c>
       <c r="AZ169" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA169" t="n">
         <v>9</v>
@@ -37555,69 +37555,723 @@
         <v>3.19</v>
       </c>
       <c r="AU170" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW170" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AX170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY170" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA170" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ170" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA170" t="n">
-        <v>6</v>
       </c>
       <c r="BB170" t="n">
         <v>3</v>
       </c>
       <c r="BC170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5139424</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45231.58333333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>34</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['18', '35', '89']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X171" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV171" t="n">
         <v>9</v>
       </c>
-      <c r="BD170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP170" t="n">
+      <c r="AW171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5139430</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45234.3125</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X172" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5139255</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45234.39583333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['2', '7', '78']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X173" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP173" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.59</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR8" t="n">
         <v>1.72</v>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.06</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR13" t="n">
         <v>0.78</v>
@@ -4189,7 +4189,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR17" t="n">
         <v>1.75</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.83</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.17</v>
@@ -5497,7 +5497,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -5712,10 +5712,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR24" t="n">
         <v>1.29</v>
@@ -6584,7 +6584,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.71</v>
@@ -7674,7 +7674,7 @@
         <v>0.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.9399999999999999</v>
@@ -8113,7 +8113,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR35" t="n">
         <v>1.46</v>
@@ -8549,7 +8549,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.44</v>
@@ -10075,7 +10075,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR44" t="n">
         <v>1.67</v>
@@ -10947,7 +10947,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR48" t="n">
         <v>1.43</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.44</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.17</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR55" t="n">
         <v>1.45</v>
@@ -12906,7 +12906,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.83</v>
@@ -13127,7 +13127,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR58" t="n">
         <v>1.62</v>
@@ -13345,7 +13345,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR59" t="n">
         <v>1.62</v>
@@ -13781,7 +13781,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR61" t="n">
         <v>1.39</v>
@@ -14871,7 +14871,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR66" t="n">
         <v>1.46</v>
@@ -15307,7 +15307,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR68" t="n">
         <v>1.38</v>
@@ -15740,7 +15740,7 @@
         <v>2.13</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.88</v>
@@ -16394,7 +16394,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.06</v>
@@ -16612,7 +16612,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.71</v>
@@ -18138,10 +18138,10 @@
         <v>2.75</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR81" t="n">
         <v>1.15</v>
@@ -18792,7 +18792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.83</v>
@@ -19013,7 +19013,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR85" t="n">
         <v>1.42</v>
@@ -20100,10 +20100,10 @@
         <v>2.78</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR90" t="n">
         <v>1.75</v>
@@ -20318,7 +20318,7 @@
         <v>1.38</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.44</v>
@@ -20754,7 +20754,7 @@
         <v>1.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9399999999999999</v>
@@ -21193,7 +21193,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR95" t="n">
         <v>2.05</v>
@@ -21411,7 +21411,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ96" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR96" t="n">
         <v>1.64</v>
@@ -22065,7 +22065,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR99" t="n">
         <v>1.24</v>
@@ -22280,7 +22280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.06</v>
@@ -23809,7 +23809,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR107" t="n">
         <v>1.55</v>
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR110" t="n">
         <v>1.53</v>
@@ -24896,7 +24896,7 @@
         <v>2</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.88</v>
@@ -25332,7 +25332,7 @@
         <v>0.6</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.71</v>
@@ -26207,7 +26207,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR118" t="n">
         <v>1.67</v>
@@ -26422,7 +26422,7 @@
         <v>1.18</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.06</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR121" t="n">
         <v>1.55</v>
@@ -27512,7 +27512,7 @@
         <v>2.08</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.83</v>
@@ -28605,7 +28605,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR129" t="n">
         <v>1.59</v>
@@ -29692,7 +29692,7 @@
         <v>1.58</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.44</v>
@@ -29913,7 +29913,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR135" t="n">
         <v>1.72</v>
@@ -30128,7 +30128,7 @@
         <v>1.38</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.17</v>
@@ -31003,7 +31003,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR140" t="n">
         <v>1.7</v>
@@ -31218,7 +31218,7 @@
         <v>1.29</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.17</v>
@@ -31958,7 +31958,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>5139400</v>
+        <v>5139398</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -31978,12 +31978,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Vaprus</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -31996,140 +31996,140 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M145" t="n">
         <v>2</v>
       </c>
       <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['30', '90+8', '90+9']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['59', '68']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
         <v>3</v>
       </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>['14']</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>['47', '50']</t>
-        </is>
-      </c>
-      <c r="Q145" t="n">
+      <c r="R145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU145" t="n">
         <v>9</v>
       </c>
-      <c r="R145" t="n">
-        <v>3</v>
-      </c>
-      <c r="S145" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T145" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U145" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V145" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X145" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z145" t="n">
+      <c r="AV145" t="n">
         <v>11</v>
       </c>
-      <c r="AA145" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AM145" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AP145" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AQ145" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AR145" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS145" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT145" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AU145" t="n">
+      <c r="AW145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA145" t="n">
         <v>7</v>
       </c>
-      <c r="AV145" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW145" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX145" t="n">
+      <c r="BB145" t="n">
         <v>7</v>
       </c>
-      <c r="AY145" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>6</v>
-      </c>
       <c r="BC145" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD145" t="n">
         <v>0</v>
@@ -32176,7 +32176,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>5139398</v>
+        <v>5139400</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -32196,12 +32196,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Tallinna FC Flora</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -32214,140 +32214,140 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M146" t="n">
         <v>2</v>
       </c>
       <c r="N146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['30', '90+8', '90+9']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['59', '68']</t>
+          <t>['47', '50']</t>
         </is>
       </c>
       <c r="Q146" t="n">
+        <v>9</v>
+      </c>
+      <c r="R146" t="n">
         <v>3</v>
       </c>
-      <c r="R146" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S146" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="T146" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U146" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="V146" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W146" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB146" t="n">
         <v>6</v>
       </c>
-      <c r="Y146" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA146" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>7</v>
-      </c>
       <c r="BC146" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD146" t="n">
         <v>0</v>
@@ -33180,10 +33180,10 @@
         <v>2.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR150" t="n">
         <v>1.17</v>
@@ -33398,7 +33398,7 @@
         <v>1.07</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.9399999999999999</v>
@@ -34055,7 +34055,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR154" t="n">
         <v>1.61</v>
@@ -35142,10 +35142,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR159" t="n">
         <v>1.93</v>
@@ -35581,7 +35581,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ161" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR161" t="n">
         <v>1.21</v>
@@ -35664,7 +35664,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>5139417</v>
+        <v>5139420</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -35684,89 +35684,89 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '35']</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '38', '57', '80', '85', '90+3', '90+6']</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="R162" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S162" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="T162" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U162" t="n">
-        <v>3.34</v>
+        <v>3.04</v>
       </c>
       <c r="V162" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W162" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X162" t="n">
-        <v>5.25</v>
+        <v>5.95</v>
       </c>
       <c r="Y162" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.62</v>
+        <v>3.6</v>
       </c>
       <c r="AA162" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AB162" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="AC162" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD162" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE162" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AF162" t="n">
-        <v>4.37</v>
+        <v>3.74</v>
       </c>
       <c r="AG162" t="n">
         <v>1.74</v>
@@ -35775,67 +35775,67 @@
         <v>1.98</v>
       </c>
       <c r="AI162" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AJ162" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AK162" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="AL162" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AM162" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="AN162" t="n">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="AO162" t="n">
-        <v>0.67</v>
+        <v>1.69</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.06</v>
+        <v>0.76</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.71</v>
+        <v>1.83</v>
       </c>
       <c r="AR162" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.99</v>
+        <v>1.44</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.17</v>
+        <v>2.97</v>
       </c>
       <c r="AU162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW162" t="n">
         <v>5</v>
       </c>
-      <c r="AV162" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW162" t="n">
+      <c r="AX162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA162" t="n">
         <v>3</v>
       </c>
-      <c r="AX162" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY162" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ162" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA162" t="n">
-        <v>4</v>
-      </c>
       <c r="BB162" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC162" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD162" t="n">
         <v>0</v>
@@ -35882,7 +35882,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>5139420</v>
+        <v>5139417</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -35902,89 +35902,89 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Vaprus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X163" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA163" t="n">
         <v>4</v>
       </c>
-      <c r="L163" t="n">
-        <v>2</v>
-      </c>
-      <c r="M163" t="n">
-        <v>7</v>
-      </c>
-      <c r="N163" t="n">
-        <v>9</v>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>['22', '35']</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>['16', '38', '57', '80', '85', '90+3', '90+6']</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>4</v>
-      </c>
-      <c r="R163" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S163" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T163" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U163" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="V163" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W163" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X163" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="Y163" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z163" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AA163" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AB163" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="AC163" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD163" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE163" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF163" t="n">
-        <v>3.74</v>
+        <v>4.37</v>
       </c>
       <c r="AG163" t="n">
         <v>1.74</v>
@@ -35993,67 +35993,67 @@
         <v>1.98</v>
       </c>
       <c r="AI163" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AJ163" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AK163" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="AL163" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AM163" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="AN163" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="AO163" t="n">
-        <v>1.69</v>
+        <v>0.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.76</v>
+        <v>1.17</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR163" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.44</v>
+        <v>0.99</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.97</v>
+        <v>2.17</v>
       </c>
       <c r="AU163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY163" t="n">
         <v>8</v>
       </c>
-      <c r="AV163" t="n">
+      <c r="AZ163" t="n">
         <v>12</v>
       </c>
-      <c r="AW163" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX163" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY163" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ163" t="n">
-        <v>18</v>
-      </c>
       <c r="BA163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB163" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC163" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD163" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.59</v>
@@ -37761,7 +37761,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ171" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="AR171" t="n">
         <v>1.59</v>
@@ -38272,6 +38272,660 @@
         <v>0</v>
       </c>
       <c r="BP173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5139426</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U174" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X174" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5139429</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45235.39583333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>35</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['35', '90+5']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S175" t="n">
+        <v>3</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X175" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5139428</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>35</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['18', '81']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3</v>
+      </c>
+      <c r="V176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP176" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.06</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR7" t="n">
         <v>1.84</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.17</v>
@@ -3099,7 +3099,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.28</v>
@@ -3532,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR14" t="n">
         <v>2.35</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.44</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.61</v>
@@ -4404,10 +4404,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>1.89</v>
@@ -4625,7 +4625,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR22" t="n">
         <v>1.58</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.28</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR26" t="n">
         <v>1.19</v>
@@ -6366,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.83</v>
@@ -6587,7 +6587,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR28" t="n">
         <v>1.84</v>
@@ -6802,7 +6802,7 @@
         <v>1.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.06</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.97</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR32" t="n">
         <v>1.92</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR33" t="n">
         <v>1.17</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.83</v>
@@ -8764,10 +8764,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.06</v>
@@ -9418,10 +9418,10 @@
         <v>0.6</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR41" t="n">
         <v>1.33</v>
@@ -9639,7 +9639,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.54</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.17</v>
@@ -10072,7 +10072,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.28</v>
@@ -10293,7 +10293,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR45" t="n">
         <v>1.27</v>
@@ -10511,7 +10511,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -10944,7 +10944,7 @@
         <v>2.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ48" t="n">
         <v>2.28</v>
@@ -11601,7 +11601,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR51" t="n">
         <v>1.47</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.44</v>
@@ -12034,7 +12034,7 @@
         <v>1.6</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.06</v>
@@ -12255,7 +12255,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.61</v>
@@ -12691,7 +12691,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.42</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.61</v>
@@ -13342,7 +13342,7 @@
         <v>2.6</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.28</v>
@@ -13563,7 +13563,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR60" t="n">
         <v>1.59</v>
@@ -14214,7 +14214,7 @@
         <v>2.57</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.83</v>
@@ -14432,10 +14432,10 @@
         <v>2.29</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR64" t="n">
         <v>1.22</v>
@@ -14650,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15522,7 +15522,7 @@
         <v>1.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.44</v>
@@ -15743,7 +15743,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR70" t="n">
         <v>1.22</v>
@@ -15958,7 +15958,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.17</v>
@@ -16176,7 +16176,7 @@
         <v>2.63</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.83</v>
@@ -16615,7 +16615,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74" t="n">
         <v>1.18</v>
@@ -16830,10 +16830,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR75" t="n">
         <v>1.74</v>
@@ -17048,10 +17048,10 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR76" t="n">
         <v>1.6</v>
@@ -17269,7 +17269,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.39</v>
@@ -17484,10 +17484,10 @@
         <v>0.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.15</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR79" t="n">
         <v>1.32</v>
@@ -17920,7 +17920,7 @@
         <v>1.17</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.44</v>
@@ -19228,10 +19228,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19446,10 +19446,10 @@
         <v>1.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.19</v>
@@ -19664,7 +19664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.06</v>
@@ -19882,10 +19882,10 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR89" t="n">
         <v>1.38</v>
@@ -20757,7 +20757,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR93" t="n">
         <v>1.75</v>
@@ -21190,7 +21190,7 @@
         <v>1.13</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.61</v>
@@ -21408,7 +21408,7 @@
         <v>2.6</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>2.28</v>
@@ -21629,7 +21629,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR97" t="n">
         <v>1.44</v>
@@ -21844,7 +21844,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.17</v>
@@ -22498,10 +22498,10 @@
         <v>2.11</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.48</v>
@@ -22719,7 +22719,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR102" t="n">
         <v>1.53</v>
@@ -22934,7 +22934,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.44</v>
@@ -23152,10 +23152,10 @@
         <v>2.1</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR104" t="n">
         <v>1.3</v>
@@ -23370,10 +23370,10 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -23588,10 +23588,10 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR106" t="n">
         <v>2.18</v>
@@ -23806,7 +23806,7 @@
         <v>0.9</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.61</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.17</v>
@@ -24245,7 +24245,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR109" t="n">
         <v>1.53</v>
@@ -24460,7 +24460,7 @@
         <v>0.82</v>
       </c>
       <c r="AP110" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.61</v>
@@ -24899,7 +24899,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR112" t="n">
         <v>1.06</v>
@@ -25114,7 +25114,7 @@
         <v>2.18</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.83</v>
@@ -25335,7 +25335,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR114" t="n">
         <v>1.81</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.06</v>
@@ -25989,7 +25989,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR117" t="n">
         <v>1.24</v>
@@ -26204,7 +26204,7 @@
         <v>0.83</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.61</v>
@@ -26640,10 +26640,10 @@
         <v>2.08</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR120" t="n">
         <v>1.58</v>
@@ -26858,7 +26858,7 @@
         <v>2.45</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ121" t="n">
         <v>2.28</v>
@@ -27076,10 +27076,10 @@
         <v>0.64</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR122" t="n">
         <v>2.24</v>
@@ -27294,10 +27294,10 @@
         <v>1.91</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR123" t="n">
         <v>1.3</v>
@@ -28387,7 +28387,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.19</v>
@@ -28602,7 +28602,7 @@
         <v>0.77</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.61</v>
@@ -28820,7 +28820,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.06</v>
@@ -29038,10 +29038,10 @@
         <v>1.92</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR131" t="n">
         <v>2.33</v>
@@ -29256,10 +29256,10 @@
         <v>1.23</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR132" t="n">
         <v>1.38</v>
@@ -29474,10 +29474,10 @@
         <v>0.58</v>
       </c>
       <c r="AP133" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.55</v>
@@ -30346,7 +30346,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.83</v>
@@ -30567,7 +30567,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR138" t="n">
         <v>1.62</v>
@@ -30782,10 +30782,10 @@
         <v>1.92</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR139" t="n">
         <v>1.75</v>
@@ -31436,7 +31436,7 @@
         <v>1.08</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.06</v>
@@ -31657,7 +31657,7 @@
         <v>0.61</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR143" t="n">
         <v>1.21</v>
@@ -31872,7 +31872,7 @@
         <v>1.46</v>
       </c>
       <c r="AP144" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.44</v>
@@ -32093,7 +32093,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR145" t="n">
         <v>1.1</v>
@@ -32308,7 +32308,7 @@
         <v>2.23</v>
       </c>
       <c r="AP146" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ146" t="n">
         <v>2.28</v>
@@ -32744,7 +32744,7 @@
         <v>1.36</v>
       </c>
       <c r="AP148" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.44</v>
@@ -32962,7 +32962,7 @@
         <v>1.73</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.83</v>
@@ -33401,7 +33401,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR151" t="n">
         <v>1.95</v>
@@ -33619,7 +33619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR152" t="n">
         <v>1.73</v>
@@ -33834,10 +33834,10 @@
         <v>1.93</v>
       </c>
       <c r="AP153" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR153" t="n">
         <v>1.65</v>
@@ -34270,7 +34270,7 @@
         <v>1.2</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.17</v>
@@ -34488,10 +34488,10 @@
         <v>0.71</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR156" t="n">
         <v>1.77</v>
@@ -34706,10 +34706,10 @@
         <v>1.73</v>
       </c>
       <c r="AP157" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR157" t="n">
         <v>1.66</v>
@@ -35360,7 +35360,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.17</v>
@@ -35796,7 +35796,7 @@
         <v>1.69</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.83</v>
@@ -36017,7 +36017,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR163" t="n">
         <v>1.18</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR164" t="n">
         <v>1.54</v>
@@ -36450,7 +36450,7 @@
         <v>1.47</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.44</v>
@@ -36671,7 +36671,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR166" t="n">
         <v>1.76</v>
@@ -37322,7 +37322,7 @@
         <v>1.06</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.17</v>
@@ -37543,7 +37543,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR170" t="n">
         <v>1.93</v>
@@ -37976,10 +37976,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR172" t="n">
         <v>1.54</v>
@@ -38412,7 +38412,7 @@
         <v>1.06</v>
       </c>
       <c r="AP174" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.06</v>
@@ -38926,6 +38926,1096 @@
         <v>0</v>
       </c>
       <c r="BP176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5139434</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45240.58333333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>36</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['4', '63']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>4</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X177" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5139432</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>36</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['7', '32']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['82', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>4</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X178" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5139433</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>36</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X179" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5139431</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5139435</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="F181" t="n">
+        <v>36</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>5</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['40', '42', '52', '64', '81']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X181" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP181" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -39299,31 +39299,31 @@
         <v>3.78</v>
       </c>
       <c r="AU178" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV178" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AW178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX178" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY178" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ178" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="BA178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB178" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC178" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD178" t="n">
         <v>0</v>
@@ -39517,31 +39517,31 @@
         <v>2.74</v>
       </c>
       <c r="AU179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV179" t="n">
         <v>0</v>
       </c>
       <c r="AW179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA179" t="n">
         <v>8</v>
       </c>
-      <c r="AX179" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY179" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ179" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA179" t="n">
-        <v>5</v>
-      </c>
       <c r="BB179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC179" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD179" t="n">
         <v>0</v>
@@ -39735,22 +39735,22 @@
         <v>3.92</v>
       </c>
       <c r="AU180" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW180" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX180" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY180" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ180" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA180" t="n">
         <v>13</v>
@@ -39953,31 +39953,31 @@
         <v>2.97</v>
       </c>
       <c r="AU181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA181" t="n">
         <v>3</v>
       </c>
-      <c r="AV181" t="n">
+      <c r="BB181" t="n">
         <v>3</v>
       </c>
-      <c r="AW181" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY181" t="n">
+      <c r="BC181" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ181" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA181" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB181" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC181" t="n">
-        <v>4</v>
       </c>
       <c r="BD181" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
